--- a/чек-лист.xlsx
+++ b/чек-лист.xlsx
@@ -30,33 +30,6 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Не реализовано
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="F172" authorId="0" shapeId="0">
       <text>
         <r>
@@ -533,7 +506,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="248">
   <si>
     <t>Название тестового сценария</t>
   </si>
@@ -553,10 +526,6 @@
     <t xml:space="preserve">Поле GUID обязательно, заполнено валидным значением. </t>
   </si>
   <si>
-    <t>1. Получение ответа со статусом кода 400
-2. Наличе валидационного сообщения "Плохой запрос. Этот ответ означает, что сервер не понимает запрос из-за неверного синтаксиса. По возможности будем добавлять более подробное сообщение об ошибки"</t>
-  </si>
-  <si>
     <t>Номенклатура</t>
   </si>
   <si>
@@ -570,44 +539,6 @@
   </si>
   <si>
     <t>Вспомогательные</t>
-  </si>
-  <si>
-    <t>Запрос отправлен на сервер.
-Получен ответ со статусом кода 200</t>
-  </si>
-  <si>
-    <t>1. Отправить GET запрос с номером GUID  объекта на получение заявки 
-2. Проверить код ответа
-3. Проверить тело ответа от сервера
-4. Проверить структуру ответа</t>
-  </si>
-  <si>
-    <t>Отправка данных 
-(Вызов метода POST)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Все поля обязательные, заполнены валидными значениями. </t>
-  </si>
-  <si>
-    <t>1. Отправить POST запрос с телом 
-{
-  "content": "вводим 1025 символов в комментарии"
-}
-2. Проверить код ответа
-3. Проверить тело ответа от сервера
-4. Проверить структуру ответа</t>
-  </si>
-  <si>
-    <t>Ошибка создания комментария к заявке с пустым полем</t>
-  </si>
-  <si>
-    <t>1. Отправить POST запрос с телом 
-{
-  "content": ""
-}
-2. Проверить код ответа
-3. Проверить тело ответа от сервера
-4. Проверить структуру ответа</t>
   </si>
   <si>
     <t xml:space="preserve">1. Отправить тело запроса
@@ -971,36 +902,8 @@
 недопустимых символов в поле "ГУИД"</t>
   </si>
   <si>
-    <t xml:space="preserve">Обязательное поле guid  заполнено валидными значением.
-Необязательное поле X-SE-HASH - не заполнено </t>
-  </si>
-  <si>
     <t>/change-request/{guid}
 Получение данных заявки по GUID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комбинация цифры+латиница+спецсимволы </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комбинация цифры+кириллица </t>
-  </si>
-  <si>
-    <t>Max + 1</t>
-  </si>
-  <si>
-    <t>Max +1</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>1. Отправить POST запрос с телом 
-{
-  "content": "2000 символов"
-}
-2. Проверить код ответа
-3. Проверить тело ответа от сервера
-4. Проверить структуру ответа</t>
   </si>
   <si>
     <t>/nomenclature/{be}
@@ -1486,6 +1389,42 @@
   </si>
   <si>
     <t>MAX - 1  (35 символов)</t>
+  </si>
+  <si>
+    <t>Минимальное значения полей
+fio: 1 символ
+email:  1 символ
+comment: 1 символ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гуид заполнено валидными значениями. 
+Необязательное поле X-SE-HASH - не заполнено </t>
+  </si>
+  <si>
+    <t>Максимальное значения полей
+fio: 100 символ
+email:  100 символов
+comment: 1024 символов</t>
+  </si>
+  <si>
+    <t>Ошибка создания комментария к заявке с пустым полем
+fio: не заполнено
+email:  не заполнено
+comment:не заполнено</t>
+  </si>
+  <si>
+    <t>Max +1
+fio: 101
+email:  101
+comment:1025</t>
+  </si>
+  <si>
+    <t>Пробелы в атрибутах</t>
+  </si>
+  <si>
+    <t>Пробелы в атрибутах
+Спецсимволы
+Скрипт в атрибутах</t>
   </si>
 </sst>
 </file>
@@ -1993,7 +1932,7 @@
     <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2817,6 +2756,9 @@
     <xf numFmtId="0" fontId="3" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Bad Major+" xfId="2"/>
@@ -3111,7 +3053,7 @@
   <dimension ref="A1:XFD511"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -3138,7 +3080,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3150,10 +3092,10 @@
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="222" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="F2" s="222" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="8"/>
@@ -3172,36 +3114,34 @@
     </row>
     <row r="4" spans="1:10" s="62" customFormat="1" ht="28.8" collapsed="1">
       <c r="A4" s="161" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="61" customFormat="1" ht="118.2" hidden="1" customHeight="1" outlineLevel="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="61" customFormat="1" ht="40.799999999999997" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="24" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>12</v>
-      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="60"/>
       <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:10" s="13" customFormat="1" ht="36" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A6" s="23"/>
+      <c r="A6" s="23" t="s">
+        <v>70</v>
+      </c>
       <c r="B6" s="162"/>
       <c r="C6" s="140"/>
       <c r="D6" s="23"/>
       <c r="E6" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="18"/>
@@ -3209,7 +3149,7 @@
     </row>
     <row r="7" spans="1:10" s="169" customFormat="1" ht="36" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="164" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B7" s="165"/>
       <c r="C7" s="40"/>
@@ -3220,35 +3160,35 @@
       <c r="H7" s="102"/>
     </row>
     <row r="8" spans="1:10" s="13" customFormat="1" ht="19.2" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A8" s="163" t="s">
-        <v>110</v>
+      <c r="A8" s="31" t="s">
+        <v>71</v>
       </c>
       <c r="B8" s="11"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="228"/>
       <c r="D8" s="163"/>
       <c r="E8" s="16"/>
       <c r="F8" s="17"/>
       <c r="G8" s="18"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:10" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="9" spans="1:10" s="58" customFormat="1" ht="19.2" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="141"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
+        <v>173</v>
+      </c>
+      <c r="B9" s="162"/>
+      <c r="C9" s="228"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="269"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:10" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A10" s="31" t="s">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="B10" s="141"/>
-      <c r="C10" s="140"/>
+      <c r="C10" s="228"/>
       <c r="D10" s="14"/>
       <c r="E10" s="50"/>
       <c r="F10" s="51"/>
@@ -3257,10 +3197,10 @@
     </row>
     <row r="11" spans="1:10" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A11" s="31" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B11" s="141"/>
-      <c r="C11" s="140"/>
+      <c r="C11" s="228"/>
       <c r="D11" s="14"/>
       <c r="E11" s="50"/>
       <c r="F11" s="51"/>
@@ -3269,11 +3209,11 @@
     </row>
     <row r="12" spans="1:10" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A12" s="31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B12" s="141"/>
       <c r="C12" s="14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="50"/>
@@ -3283,11 +3223,11 @@
     </row>
     <row r="13" spans="1:10" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A13" s="31" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B13" s="141"/>
       <c r="C13" s="14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="50"/>
@@ -3295,13 +3235,13 @@
       <c r="G13" s="51"/>
       <c r="H13" s="51"/>
     </row>
-    <row r="14" spans="1:10" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="14" spans="1:10" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A14" s="31" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="B14" s="141"/>
       <c r="C14" s="14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="50"/>
@@ -3311,10 +3251,12 @@
     </row>
     <row r="15" spans="1:10" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A15" s="31" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="B15" s="141"/>
-      <c r="C15" s="14"/>
+      <c r="C15" s="111" t="s">
+        <v>62</v>
+      </c>
       <c r="D15" s="14"/>
       <c r="E15" s="50"/>
       <c r="F15" s="51"/>
@@ -3322,12 +3264,12 @@
       <c r="H15" s="51"/>
     </row>
     <row r="16" spans="1:10" s="22" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A16" s="31" t="s">
-        <v>69</v>
+      <c r="A16" s="112" t="s">
+        <v>63</v>
       </c>
       <c r="B16" s="141"/>
-      <c r="C16" s="111" t="s">
-        <v>70</v>
+      <c r="C16" s="114" t="s">
+        <v>64</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="50"/>
@@ -3336,12 +3278,12 @@
       <c r="H16" s="51"/>
     </row>
     <row r="17" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A17" s="112" t="s">
-        <v>71</v>
+      <c r="A17" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="B17" s="141"/>
-      <c r="C17" s="114" t="s">
-        <v>72</v>
+      <c r="C17" s="10">
+        <v>-100</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="50"/>
@@ -3349,13 +3291,13 @@
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
     </row>
-    <row r="18" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="18" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A18" s="31" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B18" s="141"/>
-      <c r="C18" s="10">
-        <v>-100</v>
+      <c r="C18" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="50"/>
@@ -3363,13 +3305,13 @@
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
     </row>
-    <row r="19" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
+    <row r="19" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A19" s="31" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B19" s="141"/>
       <c r="C19" s="10" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="50"/>
@@ -3377,118 +3319,108 @@
       <c r="G19" s="51"/>
       <c r="H19" s="51"/>
     </row>
-    <row r="20" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A20" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="141"/>
-      <c r="C20" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-    </row>
-    <row r="21" spans="1:8" s="159" customFormat="1" ht="34.200000000000003" customHeight="1" collapsed="1">
-      <c r="A21" s="160" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="13" customFormat="1" ht="39" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="20" spans="1:8" s="159" customFormat="1" ht="34.200000000000003" customHeight="1">
+      <c r="A20" s="160" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="13" customFormat="1" ht="64.2" customHeight="1" outlineLevel="2">
+      <c r="A21" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="197" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" s="13" customFormat="1" ht="60" customHeight="1" outlineLevel="2">
       <c r="A22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>15</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="20"/>
       <c r="H22" s="19"/>
     </row>
-    <row r="23" spans="1:8" s="13" customFormat="1" ht="46.8" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10" t="s">
-        <v>106</v>
-      </c>
+    <row r="23" spans="1:8" s="13" customFormat="1" ht="43.2" customHeight="1" outlineLevel="2">
+      <c r="A23" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="20"/>
       <c r="H23" s="19"/>
     </row>
-    <row r="24" spans="1:8" s="13" customFormat="1" ht="43.2" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="A24" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="197" t="s">
-        <v>152</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" spans="1:8" s="173" customFormat="1" ht="43.95" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="A25" s="175" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="170"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="172"/>
-      <c r="H25" s="174"/>
-    </row>
-    <row r="26" spans="1:8" s="13" customFormat="1" ht="129.6" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="24" spans="1:8" s="173" customFormat="1" ht="43.95" customHeight="1" outlineLevel="2">
+      <c r="A24" s="175" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="170"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="172"/>
+      <c r="H24" s="174"/>
+    </row>
+    <row r="25" spans="1:8" s="13" customFormat="1" ht="62.4" customHeight="1" outlineLevel="2">
+      <c r="A25" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="113"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="1:8" s="58" customFormat="1" ht="67.8" customHeight="1" outlineLevel="2">
       <c r="A26" s="10" t="s">
-        <v>111</v>
+        <v>244</v>
       </c>
       <c r="B26" s="14"/>
-      <c r="C26" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="C26" s="113"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="16"/>
       <c r="F26" s="17"/>
       <c r="G26" s="20"/>
       <c r="H26" s="19"/>
     </row>
-    <row r="27" spans="1:8" s="58" customFormat="1" ht="121.95" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="27" spans="1:8" s="58" customFormat="1" ht="48.6" customHeight="1" outlineLevel="2">
       <c r="A27" s="10" t="s">
-        <v>17</v>
+        <v>247</v>
       </c>
       <c r="B27" s="14"/>
-      <c r="C27" s="14" t="s">
-        <v>18</v>
-      </c>
+      <c r="C27" s="113"/>
       <c r="D27" s="14"/>
       <c r="E27" s="16"/>
       <c r="F27" s="17"/>
       <c r="G27" s="20"/>
       <c r="H27" s="19"/>
     </row>
-    <row r="28" spans="1:8" s="58" customFormat="1" ht="121.95" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="A28" s="10" t="s">
-        <v>30</v>
-      </c>
+    <row r="28" spans="1:8" s="58" customFormat="1" ht="42.6" customHeight="1" outlineLevel="2">
+      <c r="A28" s="10"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="14" t="s">
-        <v>113</v>
-      </c>
+      <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="16"/>
       <c r="F28" s="17"/>
@@ -3497,7 +3429,7 @@
     </row>
     <row r="29" spans="1:8" s="63" customFormat="1" ht="31.2" customHeight="1">
       <c r="A29" s="53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" s="54"/>
       <c r="C29" s="54"/>
@@ -3507,9 +3439,9 @@
       <c r="G29" s="56"/>
       <c r="H29" s="56"/>
     </row>
-    <row r="30" spans="1:8" s="152" customFormat="1" ht="43.2" collapsed="1">
+    <row r="30" spans="1:8" s="152" customFormat="1" ht="43.2">
       <c r="A30" s="154" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="147"/>
@@ -3518,84 +3450,84 @@
       <c r="F30" s="157"/>
       <c r="H30" s="158"/>
     </row>
-    <row r="31" spans="1:8" s="15" customFormat="1" ht="327.60000000000002" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="31" spans="1:8" s="15" customFormat="1" ht="327.60000000000002" customHeight="1" outlineLevel="1">
       <c r="A31" s="10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B31" s="59" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E31" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="22"/>
       <c r="H31" s="19"/>
     </row>
-    <row r="32" spans="1:8" s="15" customFormat="1" ht="36.6" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="32" spans="1:8" s="15" customFormat="1" ht="36.6" customHeight="1" outlineLevel="1">
       <c r="A32" s="31" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B32" s="141"/>
       <c r="C32" s="140"/>
       <c r="D32" s="14"/>
       <c r="E32" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="22"/>
       <c r="H32" s="19"/>
     </row>
-    <row r="33" spans="1:8" s="15" customFormat="1" ht="29.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="33" spans="1:8" s="15" customFormat="1" ht="29.4" customHeight="1" outlineLevel="1">
       <c r="A33" s="31" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B33" s="141"/>
       <c r="C33" s="140"/>
       <c r="D33" s="14"/>
       <c r="E33" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="22"/>
       <c r="H33" s="19"/>
     </row>
-    <row r="34" spans="1:8" s="15" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="34" spans="1:8" s="15" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
       <c r="A34" s="31" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B34" s="141"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="22"/>
       <c r="H34" s="19"/>
     </row>
-    <row r="35" spans="1:8" s="22" customFormat="1" ht="21.6" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="35" spans="1:8" s="22" customFormat="1" ht="21.6" customHeight="1" outlineLevel="1">
       <c r="A35" s="31" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B35" s="141"/>
       <c r="C35" s="14"/>
       <c r="D35" s="12"/>
       <c r="E35" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F35" s="17"/>
       <c r="H35" s="19"/>
     </row>
     <row r="36" spans="1:8" s="64" customFormat="1" ht="49.2" customHeight="1" collapsed="1">
       <c r="A36" s="133" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B36" s="123"/>
       <c r="C36" s="97"/>
@@ -3606,7 +3538,7 @@
     </row>
     <row r="37" spans="1:8" s="132" customFormat="1" ht="28.95" hidden="1" customHeight="1" outlineLevel="1" collapsed="1">
       <c r="A37" s="128" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B37" s="129"/>
       <c r="C37" s="131"/>
@@ -3617,24 +3549,24 @@
     </row>
     <row r="38" spans="1:8" s="22" customFormat="1" ht="28.95" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A38" s="142" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C38" s="203" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="199" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="F38" s="17"/>
       <c r="H38" s="19"/>
     </row>
     <row r="39" spans="1:8" s="22" customFormat="1" ht="28.95" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A39" s="142" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
@@ -3645,7 +3577,7 @@
     </row>
     <row r="40" spans="1:8" s="22" customFormat="1" ht="28.95" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A40" s="71" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -3656,7 +3588,7 @@
     </row>
     <row r="41" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A41" s="31" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B41" s="141"/>
       <c r="C41" s="140"/>
@@ -3668,7 +3600,7 @@
     </row>
     <row r="42" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A42" s="31" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B42" s="141"/>
       <c r="C42" s="140"/>
@@ -3680,7 +3612,7 @@
     </row>
     <row r="43" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A43" s="31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B43" s="141"/>
       <c r="C43" s="140"/>
@@ -3692,7 +3624,7 @@
     </row>
     <row r="44" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A44" s="31" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B44" s="141"/>
       <c r="C44" s="140"/>
@@ -3704,11 +3636,11 @@
     </row>
     <row r="45" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A45" s="31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B45" s="141"/>
       <c r="C45" s="14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="50"/>
@@ -3718,11 +3650,11 @@
     </row>
     <row r="46" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A46" s="31" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B46" s="141"/>
       <c r="C46" s="14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="50"/>
@@ -3732,11 +3664,11 @@
     </row>
     <row r="47" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A47" s="31" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B47" s="141"/>
       <c r="C47" s="14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="50"/>
@@ -3746,7 +3678,7 @@
     </row>
     <row r="48" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A48" s="31" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B48" s="141"/>
       <c r="C48" s="14"/>
@@ -3758,11 +3690,11 @@
     </row>
     <row r="49" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A49" s="31" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B49" s="141"/>
       <c r="C49" s="111" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="50"/>
@@ -3772,11 +3704,11 @@
     </row>
     <row r="50" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A50" s="112" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B50" s="141"/>
       <c r="C50" s="114" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="50"/>
@@ -3786,7 +3718,7 @@
     </row>
     <row r="51" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A51" s="31" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B51" s="141"/>
       <c r="C51" s="10">
@@ -3800,11 +3732,11 @@
     </row>
     <row r="52" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="2">
       <c r="A52" s="31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B52" s="141"/>
       <c r="C52" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="50"/>
@@ -3814,11 +3746,11 @@
     </row>
     <row r="53" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A53" s="31" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B53" s="141"/>
       <c r="C53" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="50"/>
@@ -3868,7 +3800,7 @@
     </row>
     <row r="58" spans="1:8" s="29" customFormat="1" ht="38.4" hidden="1" customHeight="1" outlineLevel="1" collapsed="1">
       <c r="A58" s="143" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B58" s="144"/>
       <c r="C58" s="43"/>
@@ -3879,13 +3811,13 @@
     </row>
     <row r="59" spans="1:8" s="22" customFormat="1" ht="47.4" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A59" s="142" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="16"/>
@@ -3894,7 +3826,7 @@
     </row>
     <row r="60" spans="1:8" s="22" customFormat="1" ht="28.95" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A60" s="142" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="10"/>
@@ -3905,7 +3837,7 @@
     </row>
     <row r="61" spans="1:8" s="22" customFormat="1" ht="28.95" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A61" s="71" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="10"/>
@@ -3916,7 +3848,7 @@
     </row>
     <row r="62" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A62" s="31" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B62" s="141"/>
       <c r="C62" s="140"/>
@@ -3928,7 +3860,7 @@
     </row>
     <row r="63" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A63" s="31" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B63" s="141"/>
       <c r="C63" s="140"/>
@@ -3940,7 +3872,7 @@
     </row>
     <row r="64" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A64" s="31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B64" s="141"/>
       <c r="C64" s="140"/>
@@ -3952,7 +3884,7 @@
     </row>
     <row r="65" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A65" s="31" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B65" s="141"/>
       <c r="C65" s="140"/>
@@ -3964,11 +3896,11 @@
     </row>
     <row r="66" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A66" s="31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B66" s="141"/>
       <c r="C66" s="14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="50"/>
@@ -3978,11 +3910,11 @@
     </row>
     <row r="67" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A67" s="31" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B67" s="141"/>
       <c r="C67" s="14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D67" s="14"/>
       <c r="E67" s="50"/>
@@ -3992,11 +3924,11 @@
     </row>
     <row r="68" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A68" s="31" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B68" s="141"/>
       <c r="C68" s="14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="50"/>
@@ -4006,7 +3938,7 @@
     </row>
     <row r="69" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A69" s="31" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B69" s="141"/>
       <c r="C69" s="14"/>
@@ -4018,11 +3950,11 @@
     </row>
     <row r="70" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A70" s="31" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B70" s="141"/>
       <c r="C70" s="111" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="50"/>
@@ -4032,11 +3964,11 @@
     </row>
     <row r="71" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A71" s="112" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B71" s="141"/>
       <c r="C71" s="114" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D71" s="14"/>
       <c r="E71" s="50"/>
@@ -4046,7 +3978,7 @@
     </row>
     <row r="72" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A72" s="31" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B72" s="141"/>
       <c r="C72" s="10">
@@ -4060,11 +3992,11 @@
     </row>
     <row r="73" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="2">
       <c r="A73" s="31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B73" s="141"/>
       <c r="C73" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D73" s="14"/>
       <c r="E73" s="50"/>
@@ -4074,11 +4006,11 @@
     </row>
     <row r="74" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A74" s="31" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B74" s="141"/>
       <c r="C74" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="50"/>
@@ -4098,7 +4030,7 @@
     </row>
     <row r="76" spans="1:8" s="64" customFormat="1" ht="49.2" customHeight="1">
       <c r="A76" s="133" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B76" s="123"/>
       <c r="C76" s="97"/>
@@ -4109,125 +4041,125 @@
     </row>
     <row r="77" spans="1:8" s="259" customFormat="1" ht="16.2" customHeight="1" outlineLevel="1">
       <c r="A77" s="252" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B77" s="253" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C77" s="253"/>
       <c r="D77" s="254"/>
       <c r="E77" s="260" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F77" s="256" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G77" s="257"/>
       <c r="H77" s="258"/>
     </row>
     <row r="78" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A78" s="31" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="14"/>
       <c r="E78" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F78" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G78" s="21"/>
       <c r="H78" s="51"/>
     </row>
     <row r="79" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A79" s="31" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="14"/>
       <c r="E79" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F79" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G79" s="21"/>
       <c r="H79" s="51"/>
     </row>
     <row r="80" spans="1:8" s="22" customFormat="1" ht="40.200000000000003" customHeight="1" outlineLevel="1">
       <c r="A80" s="31" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="14" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E80" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F80" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G80" s="21"/>
       <c r="H80" s="51"/>
     </row>
     <row r="81" spans="1:8" s="22" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
       <c r="A81" s="31" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="14" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E81" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F81" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G81" s="21"/>
       <c r="H81" s="51"/>
     </row>
     <row r="82" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A82" s="31" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="14"/>
       <c r="E82" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F82" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G82" s="21"/>
       <c r="H82" s="51"/>
     </row>
     <row r="83" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A83" s="31" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="14"/>
       <c r="E83" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F83" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G83" s="21"/>
       <c r="H83" s="51"/>
     </row>
     <row r="84" spans="1:8" s="22" customFormat="1" ht="31.2" customHeight="1" outlineLevel="1">
       <c r="A84" s="251" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B84" s="202"/>
       <c r="C84" s="10"/>
@@ -4239,105 +4171,105 @@
     </row>
     <row r="85" spans="1:8" s="259" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A85" s="252" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B85" s="253" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C85" s="253"/>
       <c r="D85" s="254"/>
       <c r="E85" s="260" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F85" s="256" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G85" s="261"/>
       <c r="H85" s="258"/>
     </row>
     <row r="86" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A86" s="31" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
       <c r="D86" s="14"/>
       <c r="E86" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F86" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G86" s="21"/>
       <c r="H86" s="51"/>
     </row>
     <row r="87" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A87" s="31" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B87" s="202"/>
       <c r="C87" s="10"/>
       <c r="D87" s="14"/>
       <c r="E87" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F87" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G87" s="21"/>
       <c r="H87" s="51"/>
     </row>
     <row r="88" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A88" s="31" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B88" s="202"/>
       <c r="C88" s="10"/>
       <c r="D88" s="14"/>
       <c r="E88" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F88" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G88" s="21"/>
       <c r="H88" s="51"/>
     </row>
     <row r="89" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A89" s="31" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B89" s="202"/>
       <c r="C89" s="10"/>
       <c r="D89" s="14"/>
       <c r="E89" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F89" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G89" s="21"/>
       <c r="H89" s="51"/>
     </row>
     <row r="90" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A90" s="31" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B90" s="202"/>
       <c r="C90" s="10"/>
       <c r="D90" s="14"/>
       <c r="E90" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F90" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G90" s="21"/>
       <c r="H90" s="51"/>
     </row>
     <row r="91" spans="1:8" s="132" customFormat="1" outlineLevel="1">
       <c r="A91" s="128" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B91" s="129"/>
       <c r="C91" s="130"/>
@@ -4349,374 +4281,374 @@
     </row>
     <row r="92" spans="1:8" s="247" customFormat="1" outlineLevel="1">
       <c r="A92" s="31" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B92" s="248"/>
       <c r="C92" s="248" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D92" s="246"/>
       <c r="E92" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F92" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G92" s="134"/>
       <c r="H92" s="51"/>
     </row>
     <row r="93" spans="1:8" s="247" customFormat="1" outlineLevel="1">
       <c r="A93" s="31" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B93" s="248"/>
       <c r="C93" s="248" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D93" s="246"/>
       <c r="E93" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F93" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G93" s="134"/>
       <c r="H93" s="51"/>
     </row>
     <row r="94" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A94" s="31" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B94" s="245"/>
       <c r="C94" s="245"/>
       <c r="D94" s="14"/>
       <c r="E94" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F94" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G94" s="134"/>
       <c r="H94" s="51"/>
     </row>
     <row r="95" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A95" s="31" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B95" s="229"/>
       <c r="C95" s="229" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F95" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G95" s="134"/>
       <c r="H95" s="51"/>
     </row>
     <row r="96" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A96" s="31" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B96" s="229"/>
       <c r="C96" s="229" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F96" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G96" s="134"/>
       <c r="H96" s="51"/>
     </row>
     <row r="97" spans="1:8" s="22" customFormat="1" ht="17.399999999999999" customHeight="1" outlineLevel="1">
       <c r="A97" s="31" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B97" s="229"/>
       <c r="C97" s="229" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D97" s="14"/>
       <c r="E97" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F97" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G97" s="134"/>
       <c r="H97" s="51"/>
     </row>
     <row r="98" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A98" s="31" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B98" s="229"/>
       <c r="C98" s="229" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F98" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G98" s="134"/>
       <c r="H98" s="51"/>
     </row>
     <row r="99" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A99" s="31" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B99" s="229"/>
       <c r="C99" s="229" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F99" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G99" s="134"/>
       <c r="H99" s="51"/>
     </row>
     <row r="100" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A100" s="31" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B100" s="108"/>
       <c r="C100" s="108" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F100" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G100" s="134"/>
       <c r="H100" s="51"/>
     </row>
     <row r="101" spans="1:8" s="22" customFormat="1" ht="30.6" customHeight="1" outlineLevel="1">
       <c r="A101" s="31" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B101" s="229"/>
       <c r="C101" s="229" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F101" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G101" s="134"/>
       <c r="H101" s="51"/>
     </row>
     <row r="102" spans="1:8" s="259" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A102" s="252" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="B102" s="253" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C102" s="253"/>
       <c r="D102" s="254"/>
       <c r="E102" s="255" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F102" s="256" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G102" s="257"/>
       <c r="H102" s="258"/>
     </row>
     <row r="103" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A103" s="31" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="B103" s="141"/>
       <c r="C103" s="10"/>
       <c r="D103" s="14"/>
       <c r="E103" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F103" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G103" s="134"/>
       <c r="H103" s="51"/>
     </row>
     <row r="104" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A104" s="31" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="B104" s="141"/>
       <c r="C104" s="10"/>
       <c r="D104" s="14"/>
       <c r="E104" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F104" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G104" s="134"/>
       <c r="H104" s="51"/>
     </row>
     <row r="105" spans="1:8" s="22" customFormat="1" ht="16.8" customHeight="1" outlineLevel="1">
       <c r="A105" s="31" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B105" s="141"/>
       <c r="C105" s="10"/>
       <c r="D105" s="14"/>
       <c r="E105" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F105" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G105" s="134"/>
       <c r="H105" s="51"/>
     </row>
     <row r="106" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A106" s="31" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B106" s="141"/>
       <c r="C106" s="10"/>
       <c r="D106" s="14"/>
       <c r="E106" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F106" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G106" s="134"/>
       <c r="H106" s="51"/>
     </row>
     <row r="107" spans="1:8" s="22" customFormat="1" ht="16.8" customHeight="1" outlineLevel="1">
       <c r="A107" s="31" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B107" s="141"/>
       <c r="C107" s="10"/>
       <c r="D107" s="14"/>
       <c r="E107" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F107" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G107" s="134"/>
       <c r="H107" s="51"/>
     </row>
     <row r="108" spans="1:8" s="259" customFormat="1" outlineLevel="1">
       <c r="A108" s="252" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B108" s="253" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C108" s="253"/>
       <c r="D108" s="254"/>
       <c r="E108" s="255" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F108" s="256" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G108" s="257"/>
       <c r="H108" s="258"/>
     </row>
     <row r="109" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A109" s="31" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B109" s="141"/>
       <c r="C109" s="10"/>
       <c r="D109" s="14"/>
       <c r="E109" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F109" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G109" s="134"/>
       <c r="H109" s="51"/>
     </row>
     <row r="110" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A110" s="31" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B110" s="141"/>
       <c r="C110" s="10"/>
       <c r="D110" s="14"/>
       <c r="E110" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F110" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G110" s="134"/>
       <c r="H110" s="51"/>
     </row>
     <row r="111" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A111" s="31" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B111" s="141"/>
       <c r="C111" s="10"/>
       <c r="D111" s="14"/>
       <c r="E111" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F111" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G111" s="134"/>
       <c r="H111" s="51"/>
     </row>
     <row r="112" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A112" s="31" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B112" s="141"/>
       <c r="C112" s="10"/>
       <c r="D112" s="14"/>
       <c r="E112" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F112" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G112" s="134"/>
       <c r="H112" s="51"/>
     </row>
     <row r="113" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A113" s="31" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B113" s="141"/>
       <c r="C113" s="10"/>
       <c r="D113" s="14"/>
       <c r="E113" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F113" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G113" s="134"/>
       <c r="H113" s="51"/>
@@ -4751,9 +4683,9 @@
       <c r="G116" s="134"/>
       <c r="H116" s="51"/>
     </row>
-    <row r="117" spans="1:8" s="152" customFormat="1" ht="28.8" collapsed="1">
+    <row r="117" spans="1:8" s="152" customFormat="1" ht="28.8">
       <c r="A117" s="153" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B117" s="146"/>
       <c r="C117" s="147"/>
@@ -4763,27 +4695,27 @@
       <c r="G117" s="151"/>
       <c r="H117" s="150"/>
     </row>
-    <row r="118" spans="1:8" s="15" customFormat="1" ht="327.60000000000002" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="118" spans="1:8" s="15" customFormat="1" ht="327.60000000000002" customHeight="1" outlineLevel="1">
       <c r="A118" s="10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B118" s="59" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E118" s="16"/>
       <c r="F118" s="17"/>
       <c r="G118" s="22"/>
       <c r="H118" s="19"/>
     </row>
-    <row r="119" spans="1:8" s="15" customFormat="1" ht="36.6" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="119" spans="1:8" s="15" customFormat="1" ht="36.6" customHeight="1" outlineLevel="1">
       <c r="A119" s="31" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B119" s="141"/>
       <c r="C119" s="140"/>
@@ -4793,9 +4725,9 @@
       <c r="G119" s="22"/>
       <c r="H119" s="19"/>
     </row>
-    <row r="120" spans="1:8" s="15" customFormat="1" ht="29.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="120" spans="1:8" s="15" customFormat="1" ht="29.4" customHeight="1" outlineLevel="1">
       <c r="A120" s="31" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B120" s="141"/>
       <c r="C120" s="140"/>
@@ -4805,9 +4737,9 @@
       <c r="G120" s="22"/>
       <c r="H120" s="19"/>
     </row>
-    <row r="121" spans="1:8" s="15" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="121" spans="1:8" s="15" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
       <c r="A121" s="31" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B121" s="141"/>
       <c r="C121" s="14"/>
@@ -4817,9 +4749,9 @@
       <c r="G121" s="22"/>
       <c r="H121" s="19"/>
     </row>
-    <row r="122" spans="1:8" s="22" customFormat="1" ht="21.6" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="122" spans="1:8" s="22" customFormat="1" ht="21.6" customHeight="1" outlineLevel="1">
       <c r="A122" s="31" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B122" s="141"/>
       <c r="C122" s="14"/>
@@ -4830,7 +4762,7 @@
     </row>
     <row r="123" spans="1:8" s="64" customFormat="1" ht="28.8">
       <c r="A123" s="133" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B123" s="123"/>
       <c r="C123" s="65"/>
@@ -4842,7 +4774,7 @@
     </row>
     <row r="124" spans="1:8" s="132" customFormat="1" ht="28.95" customHeight="1" outlineLevel="1">
       <c r="A124" s="128" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B124" s="129"/>
       <c r="C124" s="131"/>
@@ -4853,37 +4785,37 @@
     </row>
     <row r="125" spans="1:8" s="22" customFormat="1" ht="28.95" customHeight="1" outlineLevel="2">
       <c r="A125" s="142" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D125" s="12"/>
       <c r="E125" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F125" s="17"/>
       <c r="H125" s="19"/>
     </row>
     <row r="126" spans="1:8" s="22" customFormat="1" ht="28.95" customHeight="1" outlineLevel="2">
       <c r="A126" s="142" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B126" s="11"/>
       <c r="C126" s="10"/>
       <c r="D126" s="12"/>
       <c r="E126" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F126" s="17"/>
       <c r="H126" s="19"/>
     </row>
     <row r="127" spans="1:8" s="22" customFormat="1" ht="28.95" customHeight="1" outlineLevel="2">
       <c r="A127" s="71" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B127" s="11"/>
       <c r="C127" s="10"/>
@@ -4894,13 +4826,13 @@
     </row>
     <row r="128" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A128" s="31" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B128" s="141"/>
       <c r="C128" s="140"/>
       <c r="D128" s="14"/>
       <c r="E128" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F128" s="51"/>
       <c r="G128" s="51"/>
@@ -4908,7 +4840,7 @@
     </row>
     <row r="129" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A129" s="31" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B129" s="141"/>
       <c r="C129" s="228"/>
@@ -4920,13 +4852,13 @@
     </row>
     <row r="130" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A130" s="31" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B130" s="141"/>
       <c r="C130" s="140"/>
       <c r="D130" s="14"/>
       <c r="E130" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F130" s="51"/>
       <c r="G130" s="51"/>
@@ -4934,13 +4866,13 @@
     </row>
     <row r="131" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A131" s="31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B131" s="141"/>
       <c r="C131" s="140"/>
       <c r="D131" s="14"/>
       <c r="E131" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F131" s="51"/>
       <c r="G131" s="51"/>
@@ -4948,13 +4880,13 @@
     </row>
     <row r="132" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A132" s="31" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B132" s="141"/>
       <c r="C132" s="140"/>
       <c r="D132" s="14"/>
       <c r="E132" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F132" s="51"/>
       <c r="G132" s="51"/>
@@ -4962,15 +4894,15 @@
     </row>
     <row r="133" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A133" s="31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B133" s="141"/>
       <c r="C133" s="14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D133" s="14"/>
       <c r="E133" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F133" s="51"/>
       <c r="G133" s="51"/>
@@ -4978,15 +4910,15 @@
     </row>
     <row r="134" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A134" s="31" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B134" s="141"/>
       <c r="C134" s="14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D134" s="14"/>
       <c r="E134" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F134" s="51"/>
       <c r="G134" s="51"/>
@@ -4994,15 +4926,15 @@
     </row>
     <row r="135" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A135" s="31" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B135" s="141"/>
       <c r="C135" s="14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D135" s="14"/>
       <c r="E135" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F135" s="51"/>
       <c r="G135" s="51"/>
@@ -5010,13 +4942,13 @@
     </row>
     <row r="136" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A136" s="31" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B136" s="141"/>
       <c r="C136" s="14"/>
       <c r="D136" s="14"/>
       <c r="E136" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F136" s="51"/>
       <c r="G136" s="51"/>
@@ -5024,15 +4956,15 @@
     </row>
     <row r="137" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A137" s="31" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B137" s="141"/>
       <c r="C137" s="111" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D137" s="14"/>
       <c r="E137" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F137" s="51"/>
       <c r="G137" s="51"/>
@@ -5040,15 +4972,15 @@
     </row>
     <row r="138" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A138" s="112" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B138" s="141"/>
       <c r="C138" s="114" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D138" s="14"/>
       <c r="E138" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F138" s="51"/>
       <c r="G138" s="51"/>
@@ -5056,7 +4988,7 @@
     </row>
     <row r="139" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A139" s="31" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B139" s="141"/>
       <c r="C139" s="10">
@@ -5064,7 +4996,7 @@
       </c>
       <c r="D139" s="14"/>
       <c r="E139" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F139" s="51"/>
       <c r="G139" s="51"/>
@@ -5072,15 +5004,15 @@
     </row>
     <row r="140" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="2">
       <c r="A140" s="31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B140" s="141"/>
       <c r="C140" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D140" s="14"/>
       <c r="E140" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F140" s="51"/>
       <c r="G140" s="51"/>
@@ -5088,15 +5020,15 @@
     </row>
     <row r="141" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A141" s="31" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B141" s="141"/>
       <c r="C141" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D141" s="14"/>
       <c r="E141" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F141" s="51"/>
       <c r="G141" s="51"/>
@@ -5144,7 +5076,7 @@
     </row>
     <row r="146" spans="1:8" s="29" customFormat="1" ht="38.4" customHeight="1" outlineLevel="1" collapsed="1">
       <c r="A146" s="143" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B146" s="144"/>
       <c r="C146" s="43"/>
@@ -5155,37 +5087,37 @@
     </row>
     <row r="147" spans="1:8" s="22" customFormat="1" ht="28.95" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A147" s="142" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D147" s="12"/>
       <c r="E147" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F147" s="17"/>
       <c r="H147" s="19"/>
     </row>
     <row r="148" spans="1:8" s="22" customFormat="1" ht="28.95" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A148" s="142" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B148" s="11"/>
       <c r="C148" s="10"/>
       <c r="D148" s="12"/>
       <c r="E148" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F148" s="17"/>
       <c r="H148" s="19"/>
     </row>
     <row r="149" spans="1:8" s="22" customFormat="1" ht="28.95" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A149" s="71" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B149" s="11"/>
       <c r="C149" s="10"/>
@@ -5196,7 +5128,7 @@
     </row>
     <row r="150" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A150" s="31" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B150" s="141"/>
       <c r="C150" s="140"/>
@@ -5208,7 +5140,7 @@
     </row>
     <row r="151" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A151" s="31" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B151" s="141"/>
       <c r="C151" s="140"/>
@@ -5220,7 +5152,7 @@
     </row>
     <row r="152" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A152" s="31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B152" s="141"/>
       <c r="C152" s="140"/>
@@ -5232,7 +5164,7 @@
     </row>
     <row r="153" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A153" s="31" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B153" s="141"/>
       <c r="C153" s="140"/>
@@ -5244,11 +5176,11 @@
     </row>
     <row r="154" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A154" s="31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B154" s="141"/>
       <c r="C154" s="14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D154" s="14"/>
       <c r="E154" s="50"/>
@@ -5258,11 +5190,11 @@
     </row>
     <row r="155" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A155" s="31" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B155" s="141"/>
       <c r="C155" s="14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D155" s="14"/>
       <c r="E155" s="50"/>
@@ -5272,11 +5204,11 @@
     </row>
     <row r="156" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A156" s="31" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B156" s="141"/>
       <c r="C156" s="14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D156" s="14"/>
       <c r="E156" s="50"/>
@@ -5286,7 +5218,7 @@
     </row>
     <row r="157" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A157" s="31" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B157" s="141"/>
       <c r="C157" s="14"/>
@@ -5298,11 +5230,11 @@
     </row>
     <row r="158" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A158" s="31" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B158" s="141"/>
       <c r="C158" s="111" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D158" s="14"/>
       <c r="E158" s="50"/>
@@ -5312,11 +5244,11 @@
     </row>
     <row r="159" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A159" s="112" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B159" s="141"/>
       <c r="C159" s="114" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D159" s="14"/>
       <c r="E159" s="50"/>
@@ -5326,7 +5258,7 @@
     </row>
     <row r="160" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A160" s="31" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B160" s="141"/>
       <c r="C160" s="10">
@@ -5340,11 +5272,11 @@
     </row>
     <row r="161" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="2">
       <c r="A161" s="31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B161" s="141"/>
       <c r="C161" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D161" s="181"/>
       <c r="E161" s="50"/>
@@ -5354,11 +5286,11 @@
     </row>
     <row r="162" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A162" s="31" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B162" s="141"/>
       <c r="C162" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D162" s="181"/>
       <c r="E162" s="50"/>
@@ -5398,7 +5330,7 @@
     </row>
     <row r="166" spans="1:8" s="63" customFormat="1" ht="28.95" customHeight="1">
       <c r="A166" s="53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B166" s="54"/>
       <c r="C166" s="54"/>
@@ -5410,7 +5342,7 @@
     </row>
     <row r="167" spans="1:8" s="64" customFormat="1" ht="28.8" collapsed="1">
       <c r="A167" s="136" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B167" s="73"/>
       <c r="C167" s="73"/>
@@ -5422,105 +5354,105 @@
     </row>
     <row r="168" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A168" s="10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B168" s="113"/>
       <c r="C168" s="113"/>
       <c r="D168" s="206"/>
       <c r="E168" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F168" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G168" s="134"/>
       <c r="H168" s="21"/>
     </row>
     <row r="169" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A169" s="10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B169" s="113"/>
       <c r="C169" s="113"/>
       <c r="D169" s="207"/>
       <c r="E169" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F169" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G169" s="134"/>
       <c r="H169" s="21"/>
     </row>
     <row r="170" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A170" s="31" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B170" s="113"/>
       <c r="C170" s="113"/>
       <c r="D170" s="207"/>
       <c r="E170" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F170" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G170" s="134"/>
       <c r="H170" s="21"/>
     </row>
     <row r="171" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A171" s="31" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B171" s="113"/>
       <c r="C171" s="113"/>
       <c r="D171" s="207"/>
       <c r="E171" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F171" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G171" s="134"/>
       <c r="H171" s="21"/>
     </row>
     <row r="172" spans="1:8" s="22" customFormat="1" ht="21.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A172" s="31" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B172" s="113"/>
       <c r="C172" s="113"/>
       <c r="D172" s="208"/>
       <c r="E172" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F172" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G172" s="134"/>
       <c r="H172" s="21"/>
     </row>
     <row r="173" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A173" s="31" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B173" s="113"/>
       <c r="C173" s="113"/>
       <c r="D173" s="14" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E173" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F173" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G173" s="134"/>
       <c r="H173" s="21"/>
     </row>
     <row r="174" spans="1:8" s="132" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A174" s="128" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B174" s="129"/>
       <c r="C174" s="130"/>
@@ -5532,59 +5464,59 @@
     </row>
     <row r="175" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A175" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B175" s="141"/>
       <c r="C175" s="139"/>
       <c r="D175" s="14"/>
       <c r="E175" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F175" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G175" s="51"/>
       <c r="H175" s="51"/>
     </row>
     <row r="176" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A176" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B176" s="141"/>
       <c r="C176" s="139"/>
       <c r="D176" s="14"/>
       <c r="E176" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F176" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G176" s="51"/>
       <c r="H176" s="51"/>
     </row>
     <row r="177" spans="1:8" s="22" customFormat="1" ht="57.6" hidden="1" outlineLevel="2">
       <c r="A177" s="109" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B177" s="141"/>
       <c r="C177" s="110" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D177" s="262" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E177" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F177" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G177" s="51"/>
       <c r="H177" s="51"/>
     </row>
     <row r="178" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A178" s="10" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B178" s="141"/>
       <c r="C178" s="105">
@@ -5592,159 +5524,159 @@
       </c>
       <c r="D178" s="263"/>
       <c r="E178" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F178" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G178" s="51"/>
       <c r="H178" s="51"/>
     </row>
     <row r="179" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A179" s="10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B179" s="141"/>
       <c r="C179" s="10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D179" s="263"/>
       <c r="E179" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F179" s="51" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="G179" s="51"/>
       <c r="H179" s="51"/>
     </row>
     <row r="180" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A180" s="10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B180" s="141"/>
       <c r="C180" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D180" s="263"/>
       <c r="E180" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F180" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G180" s="51"/>
       <c r="H180" s="51"/>
     </row>
     <row r="181" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A181" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B181" s="141"/>
       <c r="C181" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D181" s="263"/>
       <c r="E181" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F181" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G181" s="51"/>
       <c r="H181" s="51"/>
     </row>
     <row r="182" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A182" s="10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B182" s="141"/>
       <c r="C182" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D182" s="263"/>
       <c r="E182" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F182" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G182" s="51"/>
       <c r="H182" s="51"/>
     </row>
     <row r="183" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A183" s="10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B183" s="141"/>
       <c r="C183" s="10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D183" s="263"/>
       <c r="E183" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F183" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G183" s="51"/>
       <c r="H183" s="51"/>
     </row>
     <row r="184" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A184" s="10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B184" s="141"/>
       <c r="C184" s="10"/>
       <c r="D184" s="263"/>
       <c r="E184" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F184" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G184" s="51"/>
       <c r="H184" s="51"/>
     </row>
     <row r="185" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A185" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B185" s="141"/>
       <c r="C185" s="108" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D185" s="263"/>
       <c r="E185" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F185" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G185" s="51"/>
       <c r="H185" s="51"/>
     </row>
     <row r="186" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A186" s="112" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B186" s="141"/>
       <c r="C186" s="114" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D186" s="14"/>
       <c r="E186" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F186" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G186" s="51"/>
       <c r="H186" s="51"/>
     </row>
     <row r="187" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A187" s="31" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B187" s="141"/>
       <c r="C187" s="10">
@@ -5752,35 +5684,35 @@
       </c>
       <c r="D187" s="14"/>
       <c r="E187" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F187" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G187" s="51"/>
       <c r="H187" s="51"/>
     </row>
     <row r="188" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="2">
       <c r="A188" s="31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B188" s="141"/>
       <c r="C188" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D188" s="14"/>
       <c r="E188" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F188" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G188" s="51"/>
       <c r="H188" s="51"/>
     </row>
-    <row r="189" spans="1:8" s="64" customFormat="1" ht="28.8" collapsed="1">
+    <row r="189" spans="1:8" s="64" customFormat="1" ht="28.8">
       <c r="A189" s="136" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B189" s="73"/>
       <c r="C189" s="73"/>
@@ -5790,45 +5722,45 @@
       <c r="G189" s="135"/>
       <c r="H189" s="75"/>
     </row>
-    <row r="190" spans="1:8" s="22" customFormat="1" ht="20.399999999999999" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="190" spans="1:8" s="22" customFormat="1" ht="20.399999999999999" customHeight="1" outlineLevel="1">
       <c r="A190" s="10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B190" s="26" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C190" s="30" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D190" s="204"/>
       <c r="E190" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F190" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G190" s="51"/>
       <c r="H190" s="51"/>
     </row>
-    <row r="191" spans="1:8" s="22" customFormat="1" ht="23.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="191" spans="1:8" s="22" customFormat="1" ht="23.4" customHeight="1" outlineLevel="1">
       <c r="A191" s="10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B191" s="26"/>
       <c r="C191" s="30"/>
       <c r="D191" s="205"/>
       <c r="E191" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F191" s="225" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="G191" s="51"/>
       <c r="H191" s="51"/>
     </row>
-    <row r="192" spans="1:8" s="29" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="192" spans="1:8" s="29" customFormat="1" outlineLevel="1">
       <c r="A192" s="128" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B192" s="39"/>
       <c r="C192" s="40"/>
@@ -5838,163 +5770,163 @@
       <c r="G192" s="42"/>
       <c r="H192" s="42"/>
     </row>
-    <row r="193" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="193" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A193" s="31" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B193" s="26"/>
       <c r="C193" s="30"/>
       <c r="D193" s="14"/>
       <c r="E193" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F193" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G193" s="51"/>
       <c r="H193" s="51"/>
     </row>
-    <row r="194" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="194" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A194" s="31" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B194" s="141"/>
       <c r="C194" s="211"/>
       <c r="D194" s="14"/>
       <c r="E194" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F194" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G194" s="51"/>
       <c r="H194" s="51"/>
     </row>
-    <row r="195" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="195" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A195" s="31" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B195" s="26"/>
       <c r="C195" s="30"/>
       <c r="D195" s="14"/>
       <c r="E195" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F195" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G195" s="51"/>
       <c r="H195" s="51"/>
     </row>
-    <row r="196" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="196" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A196" s="31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B196" s="26"/>
       <c r="C196" s="30"/>
       <c r="D196" s="14"/>
       <c r="E196" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F196" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G196" s="51"/>
       <c r="H196" s="51"/>
     </row>
-    <row r="197" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="197" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A197" s="31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B197" s="26"/>
       <c r="C197" s="211" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D197" s="14"/>
       <c r="E197" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F197" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G197" s="51"/>
       <c r="H197" s="51"/>
     </row>
-    <row r="198" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="198" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A198" s="31" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B198" s="26"/>
       <c r="C198" s="14" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D198" s="14"/>
       <c r="E198" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F198" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G198" s="51"/>
       <c r="H198" s="51"/>
     </row>
-    <row r="199" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
+    <row r="199" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
       <c r="A199" s="31" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B199" s="26"/>
       <c r="C199" s="14" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="D199" s="14"/>
       <c r="E199" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F199" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G199" s="51"/>
       <c r="H199" s="51"/>
     </row>
-    <row r="200" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="200" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A200" s="31" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B200" s="26"/>
       <c r="C200" s="111" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D200" s="14"/>
       <c r="E200" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F200" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="G200" s="51"/>
       <c r="H200" s="51"/>
     </row>
-    <row r="201" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="201" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A201" s="112" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B201" s="26"/>
       <c r="C201" s="114" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D201" s="14"/>
       <c r="E201" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F201" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G201" s="51"/>
       <c r="H201" s="51"/>
     </row>
-    <row r="202" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="202" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A202" s="31" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B202" s="26"/>
       <c r="C202" s="10">
@@ -6002,53 +5934,53 @@
       </c>
       <c r="D202" s="14"/>
       <c r="E202" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F202" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G202" s="51"/>
       <c r="H202" s="51"/>
     </row>
-    <row r="203" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
+    <row r="203" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
       <c r="A203" s="31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B203" s="26"/>
       <c r="C203" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D203" s="14"/>
       <c r="E203" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F203" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G203" s="51"/>
       <c r="H203" s="51"/>
     </row>
-    <row r="204" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="204" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A204" s="31" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B204" s="26"/>
       <c r="C204" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D204" s="14"/>
       <c r="E204" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F204" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G204" s="51"/>
       <c r="H204" s="51"/>
     </row>
     <row r="205" spans="1:8" s="64" customFormat="1" ht="43.2" collapsed="1">
       <c r="A205" s="133" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B205" s="123"/>
       <c r="C205" s="125"/>
@@ -6060,105 +5992,105 @@
     </row>
     <row r="206" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A206" s="109" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B206" s="113"/>
       <c r="C206" s="113"/>
       <c r="D206" s="206"/>
       <c r="E206" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F206" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G206" s="134"/>
       <c r="H206" s="21"/>
     </row>
     <row r="207" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A207" s="109" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B207" s="113"/>
       <c r="C207" s="113"/>
       <c r="D207" s="207"/>
       <c r="E207" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F207" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G207" s="134"/>
       <c r="H207" s="21"/>
     </row>
     <row r="208" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A208" s="224" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B208" s="113"/>
       <c r="C208" s="113"/>
       <c r="D208" s="207"/>
       <c r="E208" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F208" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G208" s="134"/>
       <c r="H208" s="21"/>
     </row>
     <row r="209" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A209" s="224" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B209" s="113"/>
       <c r="C209" s="113"/>
       <c r="D209" s="207"/>
       <c r="E209" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F209" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G209" s="134"/>
       <c r="H209" s="21"/>
     </row>
     <row r="210" spans="1:8" s="22" customFormat="1" ht="21" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A210" s="224" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B210" s="113"/>
       <c r="C210" s="113"/>
       <c r="D210" s="208"/>
       <c r="E210" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F210" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G210" s="134"/>
       <c r="H210" s="21"/>
     </row>
     <row r="211" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A211" s="224" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B211" s="113"/>
       <c r="C211" s="113"/>
       <c r="D211" s="14" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E211" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F211" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G211" s="134"/>
       <c r="H211" s="21"/>
     </row>
     <row r="212" spans="1:8" s="132" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A212" s="128" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B212" s="129"/>
       <c r="C212" s="130"/>
@@ -6170,57 +6102,57 @@
     </row>
     <row r="213" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A213" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B213" s="26"/>
       <c r="C213" s="49"/>
       <c r="D213" s="14"/>
       <c r="E213" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F213" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G213" s="51"/>
       <c r="H213" s="51"/>
     </row>
     <row r="214" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A214" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B214" s="26"/>
       <c r="C214" s="49"/>
       <c r="D214" s="14"/>
       <c r="E214" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F214" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G214" s="51"/>
       <c r="H214" s="51"/>
     </row>
     <row r="215" spans="1:8" s="22" customFormat="1" ht="57.6" hidden="1" outlineLevel="1">
       <c r="A215" s="109" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B215" s="26"/>
       <c r="C215" s="110" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D215" s="209"/>
       <c r="E215" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F215" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G215" s="51"/>
       <c r="H215" s="51"/>
     </row>
     <row r="216" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A216" s="10" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B216" s="26"/>
       <c r="C216" s="105">
@@ -6228,159 +6160,159 @@
       </c>
       <c r="D216" s="210"/>
       <c r="E216" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F216" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G216" s="51"/>
       <c r="H216" s="51"/>
     </row>
     <row r="217" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A217" s="10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B217" s="26"/>
       <c r="C217" s="10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D217" s="210"/>
       <c r="E217" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F217" s="51" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="G217" s="51"/>
       <c r="H217" s="51"/>
     </row>
     <row r="218" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A218" s="10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B218" s="26"/>
       <c r="C218" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D218" s="210"/>
       <c r="E218" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F218" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G218" s="51"/>
       <c r="H218" s="51"/>
     </row>
     <row r="219" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A219" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B219" s="26"/>
       <c r="C219" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D219" s="210"/>
       <c r="E219" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F219" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G219" s="51"/>
       <c r="H219" s="51"/>
     </row>
     <row r="220" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A220" s="10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B220" s="26"/>
       <c r="C220" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D220" s="210"/>
       <c r="E220" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F220" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G220" s="51"/>
       <c r="H220" s="51"/>
     </row>
     <row r="221" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A221" s="10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B221" s="26"/>
       <c r="C221" s="10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D221" s="210"/>
       <c r="E221" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F221" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G221" s="51"/>
       <c r="H221" s="51"/>
     </row>
     <row r="222" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A222" s="10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B222" s="26"/>
       <c r="C222" s="10"/>
       <c r="D222" s="210"/>
       <c r="E222" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F222" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G222" s="51"/>
       <c r="H222" s="51"/>
     </row>
     <row r="223" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A223" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B223" s="26"/>
       <c r="C223" s="108" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D223" s="210"/>
       <c r="E223" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F223" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="G223" s="51"/>
       <c r="H223" s="51"/>
     </row>
     <row r="224" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A224" s="112" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B224" s="26"/>
       <c r="C224" s="114" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D224" s="14"/>
       <c r="E224" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F224" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G224" s="51"/>
       <c r="H224" s="51"/>
     </row>
     <row r="225" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A225" s="31" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B225" s="26"/>
       <c r="C225" s="10">
@@ -6388,53 +6320,53 @@
       </c>
       <c r="D225" s="14"/>
       <c r="E225" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F225" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G225" s="51"/>
       <c r="H225" s="51"/>
     </row>
     <row r="226" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A226" s="31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B226" s="26"/>
       <c r="C226" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D226" s="14"/>
       <c r="E226" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F226" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G226" s="51"/>
       <c r="H226" s="51"/>
     </row>
     <row r="227" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A227" s="31" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B227" s="141"/>
       <c r="C227" s="211" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="D227" s="14"/>
       <c r="E227" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F227" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G227" s="134"/>
       <c r="H227" s="51"/>
     </row>
     <row r="228" spans="1:8" s="64" customFormat="1" ht="43.2" collapsed="1">
       <c r="A228" s="133" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B228" s="123"/>
       <c r="C228" s="125"/>
@@ -6446,43 +6378,43 @@
     </row>
     <row r="229" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A229" s="10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B229" s="26" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C229" s="236" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D229" s="14"/>
       <c r="E229" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F229" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G229" s="134"/>
       <c r="H229" s="51"/>
     </row>
     <row r="230" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A230" s="10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B230" s="26"/>
       <c r="C230" s="30"/>
       <c r="D230" s="14"/>
       <c r="E230" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F230" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="G230" s="134"/>
       <c r="H230" s="51"/>
     </row>
     <row r="231" spans="1:8" s="29" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A231" s="128" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B231" s="39"/>
       <c r="C231" s="40"/>
@@ -6494,177 +6426,177 @@
     </row>
     <row r="232" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A232" s="31" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B232" s="26"/>
       <c r="C232" s="30"/>
       <c r="D232" s="14"/>
       <c r="E232" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F232" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G232" s="51"/>
       <c r="H232" s="51"/>
     </row>
     <row r="233" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A233" s="31" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B233" s="141"/>
       <c r="C233" s="211"/>
       <c r="D233" s="14"/>
       <c r="E233" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F233" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G233" s="51"/>
       <c r="H233" s="51"/>
     </row>
     <row r="234" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A234" s="31" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B234" s="26"/>
       <c r="C234" s="30"/>
       <c r="D234" s="14"/>
       <c r="E234" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F234" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G234" s="51"/>
       <c r="H234" s="51"/>
     </row>
     <row r="235" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A235" s="31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B235" s="26"/>
       <c r="C235" s="30"/>
       <c r="D235" s="14"/>
       <c r="E235" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F235" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G235" s="51"/>
       <c r="H235" s="51"/>
     </row>
     <row r="236" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A236" s="31" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B236" s="26"/>
       <c r="C236" s="30"/>
       <c r="D236" s="14"/>
       <c r="E236" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F236" s="51" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G236" s="51"/>
       <c r="H236" s="51"/>
     </row>
     <row r="237" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A237" s="31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B237" s="26"/>
       <c r="C237" s="14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D237" s="14"/>
       <c r="E237" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F237" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G237" s="51"/>
       <c r="H237" s="51"/>
     </row>
     <row r="238" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A238" s="31" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B238" s="26"/>
       <c r="C238" s="14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D238" s="14"/>
       <c r="E238" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F238" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G238" s="51"/>
       <c r="H238" s="51"/>
     </row>
     <row r="239" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A239" s="31" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B239" s="26"/>
       <c r="C239" s="14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D239" s="14"/>
       <c r="E239" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F239" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G239" s="51"/>
       <c r="H239" s="51"/>
     </row>
     <row r="240" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A240" s="31" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B240" s="26"/>
       <c r="C240" s="111" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D240" s="14"/>
       <c r="E240" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F240" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G240" s="51"/>
       <c r="H240" s="51"/>
     </row>
     <row r="241" spans="1:16384" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A241" s="112" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B241" s="26"/>
       <c r="C241" s="114" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D241" s="14"/>
       <c r="E241" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F241" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G241" s="51"/>
       <c r="H241" s="51"/>
     </row>
     <row r="242" spans="1:16384" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A242" s="31" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B242" s="26"/>
       <c r="C242" s="10">
@@ -6672,53 +6604,53 @@
       </c>
       <c r="D242" s="14"/>
       <c r="E242" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F242" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G242" s="51"/>
       <c r="H242" s="51"/>
     </row>
     <row r="243" spans="1:16384" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A243" s="31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B243" s="26"/>
       <c r="C243" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D243" s="14"/>
       <c r="E243" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F243" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G243" s="51"/>
       <c r="H243" s="51"/>
     </row>
     <row r="244" spans="1:16384" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A244" s="31" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B244" s="26"/>
       <c r="C244" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D244" s="14"/>
       <c r="E244" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F244" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G244" s="51"/>
       <c r="H244" s="51"/>
     </row>
     <row r="245" spans="1:16384" s="64" customFormat="1" ht="28.8" collapsed="1">
       <c r="A245" s="136" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B245" s="73"/>
       <c r="C245" s="73"/>
@@ -6730,107 +6662,107 @@
     </row>
     <row r="246" spans="1:16384" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A246" s="10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B246" s="27" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C246" s="113"/>
       <c r="D246" s="113"/>
       <c r="E246" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F246" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G246" s="134"/>
       <c r="H246" s="21"/>
     </row>
     <row r="247" spans="1:16384" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A247" s="10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B247" s="26"/>
       <c r="C247" s="113"/>
       <c r="D247" s="113"/>
       <c r="E247" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F247" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G247" s="134"/>
       <c r="H247" s="21"/>
     </row>
     <row r="248" spans="1:16384" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A248" s="31" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B248" s="26"/>
       <c r="C248" s="113"/>
       <c r="D248" s="113"/>
       <c r="E248" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F248" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G248" s="134"/>
       <c r="H248" s="21"/>
     </row>
     <row r="249" spans="1:16384" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A249" s="31" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B249" s="26"/>
       <c r="C249" s="113"/>
       <c r="D249" s="113"/>
       <c r="E249" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F249" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G249" s="134"/>
       <c r="H249" s="21"/>
     </row>
     <row r="250" spans="1:16384" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A250" s="31" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B250" s="26"/>
       <c r="C250" s="113"/>
       <c r="D250" s="113"/>
       <c r="E250" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F250" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G250" s="134"/>
       <c r="H250" s="21"/>
     </row>
     <row r="251" spans="1:16384" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A251" s="31" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B251" s="26"/>
       <c r="C251" s="113"/>
       <c r="D251" s="14" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E251" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F251" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G251" s="134"/>
       <c r="H251" s="21"/>
     </row>
     <row r="252" spans="1:16384" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A252" s="128" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B252" s="129"/>
       <c r="C252" s="130"/>
@@ -23218,57 +23150,57 @@
     </row>
     <row r="253" spans="1:16384" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A253" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B253" s="72"/>
       <c r="C253" s="137"/>
       <c r="D253" s="14"/>
       <c r="E253" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F253" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G253" s="51"/>
       <c r="H253" s="51"/>
     </row>
     <row r="254" spans="1:16384" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A254" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B254" s="72"/>
       <c r="C254" s="137"/>
       <c r="D254" s="14"/>
       <c r="E254" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F254" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G254" s="51"/>
       <c r="H254" s="51"/>
     </row>
     <row r="255" spans="1:16384" s="22" customFormat="1" ht="57.6" hidden="1" outlineLevel="1">
       <c r="A255" s="109" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B255" s="72"/>
       <c r="C255" s="110" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D255" s="226"/>
       <c r="E255" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F255" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G255" s="51"/>
       <c r="H255" s="51"/>
     </row>
     <row r="256" spans="1:16384" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A256" s="10" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B256" s="72"/>
       <c r="C256" s="105">
@@ -23276,159 +23208,159 @@
       </c>
       <c r="D256" s="227"/>
       <c r="E256" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F256" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G256" s="51"/>
       <c r="H256" s="51"/>
     </row>
     <row r="257" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A257" s="10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B257" s="72"/>
       <c r="C257" s="10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D257" s="227"/>
       <c r="E257" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F257" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G257" s="51"/>
       <c r="H257" s="51"/>
     </row>
     <row r="258" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A258" s="10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B258" s="72"/>
       <c r="C258" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D258" s="227"/>
       <c r="E258" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F258" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G258" s="51"/>
       <c r="H258" s="51"/>
     </row>
     <row r="259" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A259" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B259" s="72"/>
       <c r="C259" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D259" s="227"/>
       <c r="E259" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F259" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G259" s="51"/>
       <c r="H259" s="51"/>
     </row>
     <row r="260" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A260" s="10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B260" s="72"/>
       <c r="C260" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D260" s="227"/>
       <c r="E260" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F260" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G260" s="51"/>
       <c r="H260" s="51"/>
     </row>
     <row r="261" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A261" s="10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B261" s="72"/>
       <c r="C261" s="10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D261" s="227"/>
       <c r="E261" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F261" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G261" s="51"/>
       <c r="H261" s="51"/>
     </row>
     <row r="262" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A262" s="10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B262" s="72"/>
       <c r="C262" s="10"/>
       <c r="D262" s="227"/>
       <c r="E262" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F262" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G262" s="51"/>
       <c r="H262" s="51"/>
     </row>
     <row r="263" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A263" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B263" s="72"/>
       <c r="C263" s="108" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D263" s="227"/>
       <c r="E263" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F263" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G263" s="51"/>
       <c r="H263" s="51"/>
     </row>
     <row r="264" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A264" s="112" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B264" s="72"/>
       <c r="C264" s="114" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D264" s="14"/>
       <c r="E264" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F264" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G264" s="51"/>
       <c r="H264" s="51"/>
     </row>
     <row r="265" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A265" s="31" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B265" s="72"/>
       <c r="C265" s="10">
@@ -23436,35 +23368,35 @@
       </c>
       <c r="D265" s="14"/>
       <c r="E265" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F265" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G265" s="51"/>
       <c r="H265" s="51"/>
     </row>
     <row r="266" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A266" s="31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B266" s="72"/>
       <c r="C266" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D266" s="14"/>
       <c r="E266" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F266" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G266" s="51"/>
       <c r="H266" s="51"/>
     </row>
     <row r="267" spans="1:8" s="64" customFormat="1" ht="28.8" collapsed="1">
       <c r="A267" s="136" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B267" s="73"/>
       <c r="C267" s="73"/>
@@ -23476,43 +23408,43 @@
     </row>
     <row r="268" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A268" s="10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B268" s="113" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C268" s="113" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D268" s="113"/>
       <c r="E268" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F268" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G268" s="134"/>
       <c r="H268" s="21"/>
     </row>
     <row r="269" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A269" s="10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B269" s="113"/>
       <c r="C269" s="113"/>
       <c r="D269" s="113"/>
       <c r="E269" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F269" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="G269" s="134"/>
       <c r="H269" s="21"/>
     </row>
     <row r="270" spans="1:8" s="29" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A270" s="128" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B270" s="39"/>
       <c r="C270" s="40"/>
@@ -23524,161 +23456,161 @@
     </row>
     <row r="271" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A271" s="31" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B271" s="72"/>
       <c r="C271" s="107"/>
       <c r="D271" s="14"/>
       <c r="E271" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F271" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G271" s="51"/>
       <c r="H271" s="51"/>
     </row>
     <row r="272" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A272" s="31" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B272" s="141"/>
       <c r="C272" s="211"/>
       <c r="D272" s="14"/>
       <c r="E272" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F272" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G272" s="51"/>
       <c r="H272" s="51"/>
     </row>
     <row r="273" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A273" s="31" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B273" s="72"/>
       <c r="C273" s="107"/>
       <c r="D273" s="14"/>
       <c r="E273" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F273" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G273" s="51"/>
       <c r="H273" s="51"/>
     </row>
     <row r="274" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A274" s="31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B274" s="72"/>
       <c r="C274" s="107"/>
       <c r="D274" s="14"/>
       <c r="E274" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F274" s="51" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="G274" s="51"/>
       <c r="H274" s="51"/>
     </row>
     <row r="275" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A275" s="31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B275" s="72"/>
       <c r="C275" s="14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D275" s="14"/>
       <c r="E275" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F275" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G275" s="51"/>
       <c r="H275" s="51"/>
     </row>
     <row r="276" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A276" s="31" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B276" s="72"/>
       <c r="C276" s="14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D276" s="14"/>
       <c r="E276" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F276" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G276" s="51"/>
       <c r="H276" s="51"/>
     </row>
     <row r="277" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A277" s="31" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B277" s="72"/>
       <c r="C277" s="112" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D277" s="14"/>
       <c r="E277" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F277" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G277" s="51"/>
       <c r="H277" s="51"/>
     </row>
     <row r="278" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A278" s="31" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B278" s="72"/>
       <c r="C278" s="111" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D278" s="14"/>
       <c r="E278" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F278" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="G278" s="51"/>
       <c r="H278" s="51"/>
     </row>
     <row r="279" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A279" s="112" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B279" s="72"/>
       <c r="C279" s="114" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D279" s="14"/>
       <c r="E279" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F279" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G279" s="51"/>
       <c r="H279" s="51"/>
     </row>
     <row r="280" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A280" s="31" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B280" s="72"/>
       <c r="C280" s="10">
@@ -23686,46 +23618,46 @@
       </c>
       <c r="D280" s="14"/>
       <c r="E280" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F280" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G280" s="51"/>
       <c r="H280" s="51"/>
     </row>
     <row r="281" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A281" s="31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B281" s="72"/>
       <c r="C281" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D281" s="14"/>
       <c r="E281" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F281" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G281" s="51"/>
       <c r="H281" s="51"/>
     </row>
     <row r="282" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A282" s="31" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B282" s="72"/>
       <c r="C282" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D282" s="14"/>
       <c r="E282" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F282" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G282" s="51"/>
       <c r="H282" s="51"/>
@@ -23736,17 +23668,17 @@
       <c r="C283" s="107"/>
       <c r="D283" s="14"/>
       <c r="E283" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F283" s="221" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G283" s="51"/>
       <c r="H283" s="51"/>
     </row>
     <row r="284" spans="1:8" s="63" customFormat="1" ht="39.6" customHeight="1">
       <c r="A284" s="76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B284" s="77"/>
       <c r="C284" s="78"/>
@@ -23756,9 +23688,9 @@
       <c r="G284" s="81"/>
       <c r="H284" s="81"/>
     </row>
-    <row r="285" spans="1:8" s="64" customFormat="1" ht="28.8">
+    <row r="285" spans="1:8" s="64" customFormat="1" ht="28.8" collapsed="1">
       <c r="A285" s="182" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B285" s="123"/>
       <c r="C285" s="124"/>
@@ -23768,109 +23700,109 @@
       <c r="G285" s="127"/>
       <c r="H285" s="127"/>
     </row>
-    <row r="286" spans="1:8" s="22" customFormat="1" ht="19.8" customHeight="1" outlineLevel="1">
+    <row r="286" spans="1:8" s="22" customFormat="1" ht="19.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A286" s="10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B286" s="27" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C286" s="49"/>
       <c r="D286" s="218"/>
       <c r="E286" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F286" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G286" s="51"/>
       <c r="H286" s="51"/>
     </row>
-    <row r="287" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="287" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A287" s="10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B287" s="26"/>
       <c r="C287" s="49"/>
       <c r="D287" s="219"/>
       <c r="E287" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F287" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G287" s="51"/>
       <c r="H287" s="51"/>
     </row>
-    <row r="288" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="288" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A288" s="31" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B288" s="26"/>
       <c r="C288" s="49"/>
       <c r="D288" s="219"/>
       <c r="E288" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F288" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G288" s="51"/>
       <c r="H288" s="51"/>
     </row>
-    <row r="289" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="289" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A289" s="31" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B289" s="26"/>
       <c r="C289" s="49"/>
       <c r="D289" s="219"/>
       <c r="E289" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F289" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G289" s="51"/>
       <c r="H289" s="51"/>
     </row>
-    <row r="290" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="290" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A290" s="31" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B290" s="26"/>
       <c r="C290" s="49"/>
       <c r="D290" s="219"/>
       <c r="E290" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F290" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G290" s="51"/>
       <c r="H290" s="51"/>
     </row>
-    <row r="291" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="291" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A291" s="31" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B291" s="26"/>
       <c r="C291" s="49"/>
       <c r="D291" s="14" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E291" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F291" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G291" s="51"/>
       <c r="H291" s="51"/>
     </row>
-    <row r="292" spans="1:8" s="132" customFormat="1" outlineLevel="1">
+    <row r="292" spans="1:8" s="132" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A292" s="128" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B292" s="129"/>
       <c r="C292" s="130"/>
@@ -23880,59 +23812,59 @@
       <c r="G292" s="42"/>
       <c r="H292" s="42"/>
     </row>
-    <row r="293" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="293" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A293" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B293" s="26"/>
       <c r="C293" s="49"/>
       <c r="D293" s="14"/>
       <c r="E293" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F293" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G293" s="51"/>
       <c r="H293" s="51"/>
     </row>
-    <row r="294" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="294" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A294" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B294" s="26"/>
       <c r="C294" s="49"/>
       <c r="D294" s="14"/>
       <c r="E294" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F294" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G294" s="51"/>
       <c r="H294" s="51"/>
     </row>
-    <row r="295" spans="1:8" s="22" customFormat="1" ht="57.6" outlineLevel="1">
+    <row r="295" spans="1:8" s="22" customFormat="1" ht="57.6" hidden="1" outlineLevel="1">
       <c r="A295" s="109" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B295" s="26"/>
       <c r="C295" s="110" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D295" s="214"/>
       <c r="E295" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F295" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G295" s="51"/>
       <c r="H295" s="51"/>
     </row>
-    <row r="296" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="296" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A296" s="10" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B296" s="26"/>
       <c r="C296" s="105">
@@ -23940,159 +23872,159 @@
       </c>
       <c r="D296" s="215"/>
       <c r="E296" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F296" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G296" s="51"/>
       <c r="H296" s="51"/>
     </row>
-    <row r="297" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="297" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A297" s="10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B297" s="26"/>
       <c r="C297" s="10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D297" s="215"/>
       <c r="E297" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F297" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G297" s="51"/>
       <c r="H297" s="51"/>
     </row>
-    <row r="298" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="298" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A298" s="10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B298" s="26"/>
       <c r="C298" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D298" s="215"/>
       <c r="E298" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F298" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G298" s="51"/>
       <c r="H298" s="51"/>
     </row>
-    <row r="299" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="299" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A299" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B299" s="26"/>
       <c r="C299" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D299" s="215"/>
       <c r="E299" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F299" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G299" s="51"/>
       <c r="H299" s="51"/>
     </row>
-    <row r="300" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="300" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A300" s="10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B300" s="26"/>
       <c r="C300" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D300" s="215"/>
       <c r="E300" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F300" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G300" s="51"/>
       <c r="H300" s="51"/>
     </row>
-    <row r="301" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="301" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A301" s="10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B301" s="26"/>
       <c r="C301" s="10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D301" s="215"/>
       <c r="E301" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F301" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G301" s="51"/>
       <c r="H301" s="51"/>
     </row>
-    <row r="302" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="302" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A302" s="10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B302" s="26"/>
       <c r="C302" s="10"/>
       <c r="D302" s="215"/>
       <c r="E302" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F302" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G302" s="51"/>
       <c r="H302" s="51"/>
     </row>
-    <row r="303" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="303" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A303" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B303" s="26"/>
       <c r="C303" s="108" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D303" s="215"/>
       <c r="E303" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F303" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G303" s="51"/>
       <c r="H303" s="51"/>
     </row>
-    <row r="304" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="304" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A304" s="112" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B304" s="26"/>
       <c r="C304" s="114" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D304" s="14"/>
       <c r="E304" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F304" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G304" s="51"/>
       <c r="H304" s="51"/>
     </row>
-    <row r="305" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="305" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A305" s="31" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B305" s="26"/>
       <c r="C305" s="10">
@@ -24100,33 +24032,33 @@
       </c>
       <c r="D305" s="14"/>
       <c r="E305" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F305" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G305" s="51"/>
       <c r="H305" s="51"/>
     </row>
-    <row r="306" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="306" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A306" s="31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B306" s="26"/>
       <c r="C306" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D306" s="14"/>
       <c r="E306" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F306" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G306" s="51"/>
       <c r="H306" s="51"/>
     </row>
-    <row r="307" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="307" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A307" s="31"/>
       <c r="B307" s="26"/>
       <c r="C307" s="30"/>
@@ -24136,9 +24068,9 @@
       <c r="G307" s="51"/>
       <c r="H307" s="51"/>
     </row>
-    <row r="308" spans="1:8" s="64" customFormat="1" ht="28.8" collapsed="1">
+    <row r="308" spans="1:8" s="64" customFormat="1" ht="28.8">
       <c r="A308" s="133" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B308" s="123"/>
       <c r="C308" s="125"/>
@@ -24148,45 +24080,45 @@
       <c r="G308" s="127"/>
       <c r="H308" s="127"/>
     </row>
-    <row r="309" spans="1:8" s="22" customFormat="1" ht="14.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="309" spans="1:8" s="22" customFormat="1" ht="14.4" customHeight="1" outlineLevel="1">
       <c r="A309" s="10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B309" s="26" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C309" s="30" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D309" s="264"/>
       <c r="E309" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F309" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G309" s="51"/>
       <c r="H309" s="51"/>
     </row>
-    <row r="310" spans="1:8" s="22" customFormat="1" ht="18.600000000000001" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="310" spans="1:8" s="22" customFormat="1" ht="18.600000000000001" customHeight="1" outlineLevel="1">
       <c r="A310" s="10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B310" s="26"/>
       <c r="C310" s="30"/>
       <c r="D310" s="266"/>
       <c r="E310" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F310" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="G310" s="51"/>
       <c r="H310" s="51"/>
     </row>
-    <row r="311" spans="1:8" s="29" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="311" spans="1:8" s="29" customFormat="1" outlineLevel="1">
       <c r="A311" s="128" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B311" s="39"/>
       <c r="C311" s="40"/>
@@ -24196,163 +24128,163 @@
       <c r="G311" s="42"/>
       <c r="H311" s="42"/>
     </row>
-    <row r="312" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="312" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A312" s="31" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B312" s="26"/>
       <c r="C312" s="30"/>
       <c r="D312" s="14"/>
       <c r="E312" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F312" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G312" s="51"/>
       <c r="H312" s="51"/>
     </row>
-    <row r="313" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="313" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A313" s="31" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B313" s="141"/>
       <c r="C313" s="218"/>
       <c r="D313" s="14"/>
       <c r="E313" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F313" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G313" s="51"/>
       <c r="H313" s="51"/>
     </row>
-    <row r="314" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="314" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A314" s="31" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B314" s="26"/>
       <c r="C314" s="30"/>
       <c r="D314" s="14"/>
       <c r="E314" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F314" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G314" s="51"/>
       <c r="H314" s="51"/>
     </row>
-    <row r="315" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="315" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A315" s="31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B315" s="26"/>
       <c r="C315" s="30"/>
       <c r="D315" s="14"/>
       <c r="E315" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F315" s="51" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="G315" s="51"/>
       <c r="H315" s="51"/>
     </row>
-    <row r="316" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="316" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A316" s="31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B316" s="26"/>
       <c r="C316" s="14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D316" s="14"/>
       <c r="E316" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F316" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G316" s="51"/>
       <c r="H316" s="51"/>
     </row>
-    <row r="317" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="317" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A317" s="31" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B317" s="26"/>
       <c r="C317" s="14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D317" s="14"/>
       <c r="E317" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F317" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G317" s="51"/>
       <c r="H317" s="51"/>
     </row>
-    <row r="318" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
+    <row r="318" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
       <c r="A318" s="31" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B318" s="26"/>
       <c r="C318" s="14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D318" s="14"/>
       <c r="E318" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F318" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G318" s="51"/>
       <c r="H318" s="51"/>
     </row>
-    <row r="319" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="319" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A319" s="31" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B319" s="26"/>
       <c r="C319" s="111" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D319" s="14"/>
       <c r="E319" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F319" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="G319" s="51"/>
       <c r="H319" s="51"/>
     </row>
-    <row r="320" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="320" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A320" s="112" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B320" s="26"/>
       <c r="C320" s="114" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D320" s="14"/>
       <c r="E320" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F320" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G320" s="51"/>
       <c r="H320" s="51"/>
     </row>
-    <row r="321" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="321" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A321" s="31" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B321" s="26"/>
       <c r="C321" s="10">
@@ -24360,53 +24292,53 @@
       </c>
       <c r="D321" s="14"/>
       <c r="E321" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F321" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G321" s="51"/>
       <c r="H321" s="51"/>
     </row>
-    <row r="322" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
+    <row r="322" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
       <c r="A322" s="31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B322" s="26"/>
       <c r="C322" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D322" s="14"/>
       <c r="E322" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F322" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G322" s="51"/>
       <c r="H322" s="51"/>
     </row>
-    <row r="323" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="323" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A323" s="31" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B323" s="26"/>
       <c r="C323" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D323" s="14"/>
       <c r="E323" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F323" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G323" s="51"/>
       <c r="H323" s="51"/>
     </row>
     <row r="324" spans="1:8" s="64" customFormat="1" ht="28.8" collapsed="1">
       <c r="A324" s="133" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B324" s="123"/>
       <c r="C324" s="125"/>
@@ -24418,107 +24350,107 @@
     </row>
     <row r="325" spans="1:8" s="22" customFormat="1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A325" s="10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B325" s="27" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C325" s="49"/>
       <c r="D325" s="218"/>
       <c r="E325" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F325" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G325" s="51"/>
       <c r="H325" s="51"/>
     </row>
     <row r="326" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A326" s="10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B326" s="26"/>
       <c r="C326" s="49"/>
       <c r="D326" s="219"/>
       <c r="E326" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F326" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G326" s="51"/>
       <c r="H326" s="51"/>
     </row>
     <row r="327" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A327" s="31" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B327" s="26"/>
       <c r="C327" s="49"/>
       <c r="D327" s="219"/>
       <c r="E327" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F327" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G327" s="51"/>
       <c r="H327" s="51"/>
     </row>
     <row r="328" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A328" s="31" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B328" s="26"/>
       <c r="C328" s="49"/>
       <c r="D328" s="219"/>
       <c r="E328" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F328" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G328" s="51"/>
       <c r="H328" s="51"/>
     </row>
     <row r="329" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A329" s="31" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B329" s="26"/>
       <c r="C329" s="49"/>
       <c r="D329" s="219"/>
       <c r="E329" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F329" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G329" s="51"/>
       <c r="H329" s="51"/>
     </row>
     <row r="330" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A330" s="31" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B330" s="26"/>
       <c r="C330" s="49"/>
       <c r="D330" s="14" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E330" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F330" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G330" s="51"/>
       <c r="H330" s="51"/>
     </row>
     <row r="331" spans="1:8" s="132" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A331" s="128" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B331" s="129"/>
       <c r="C331" s="130"/>
@@ -24530,57 +24462,57 @@
     </row>
     <row r="332" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A332" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B332" s="26"/>
       <c r="C332" s="49"/>
       <c r="D332" s="14"/>
       <c r="E332" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F332" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G332" s="51"/>
       <c r="H332" s="51"/>
     </row>
     <row r="333" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A333" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B333" s="26"/>
       <c r="C333" s="49"/>
       <c r="D333" s="14"/>
       <c r="E333" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F333" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G333" s="51"/>
       <c r="H333" s="51"/>
     </row>
     <row r="334" spans="1:8" s="22" customFormat="1" ht="57.6" hidden="1" outlineLevel="1">
       <c r="A334" s="109" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B334" s="26"/>
       <c r="C334" s="110" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D334" s="214"/>
       <c r="E334" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F334" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G334" s="51"/>
       <c r="H334" s="51"/>
     </row>
     <row r="335" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A335" s="10" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B335" s="26"/>
       <c r="C335" s="105">
@@ -24588,159 +24520,159 @@
       </c>
       <c r="D335" s="215"/>
       <c r="E335" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F335" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G335" s="51"/>
       <c r="H335" s="51"/>
     </row>
     <row r="336" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A336" s="10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B336" s="26"/>
       <c r="C336" s="10" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="D336" s="215"/>
       <c r="E336" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F336" s="51" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="G336" s="51"/>
       <c r="H336" s="51"/>
     </row>
     <row r="337" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A337" s="10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B337" s="26"/>
       <c r="C337" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D337" s="215"/>
       <c r="E337" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F337" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G337" s="51"/>
       <c r="H337" s="51"/>
     </row>
     <row r="338" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A338" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B338" s="26"/>
       <c r="C338" s="236" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="D338" s="215"/>
       <c r="E338" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F338" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G338" s="51"/>
       <c r="H338" s="51"/>
     </row>
     <row r="339" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A339" s="10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B339" s="26"/>
       <c r="C339" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D339" s="215"/>
       <c r="E339" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F339" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G339" s="51"/>
       <c r="H339" s="51"/>
     </row>
     <row r="340" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A340" s="10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B340" s="26"/>
       <c r="C340" s="10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D340" s="215"/>
       <c r="E340" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F340" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G340" s="51"/>
       <c r="H340" s="51"/>
     </row>
     <row r="341" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A341" s="10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B341" s="26"/>
       <c r="C341" s="10"/>
       <c r="D341" s="215"/>
       <c r="E341" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F341" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G341" s="51"/>
       <c r="H341" s="51"/>
     </row>
     <row r="342" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A342" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B342" s="26"/>
       <c r="C342" s="108" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D342" s="215"/>
       <c r="E342" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F342" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G342" s="51"/>
       <c r="H342" s="51"/>
     </row>
     <row r="343" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A343" s="112" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B343" s="26"/>
       <c r="C343" s="114" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D343" s="14"/>
       <c r="E343" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F343" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G343" s="51"/>
       <c r="H343" s="51"/>
     </row>
     <row r="344" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A344" s="31" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B344" s="26"/>
       <c r="C344" s="10">
@@ -24748,28 +24680,28 @@
       </c>
       <c r="D344" s="14"/>
       <c r="E344" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F344" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G344" s="51"/>
       <c r="H344" s="51"/>
     </row>
     <row r="345" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A345" s="31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B345" s="26"/>
       <c r="C345" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D345" s="14"/>
       <c r="E345" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F345" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G345" s="51"/>
       <c r="H345" s="51"/>
@@ -24780,17 +24712,17 @@
       <c r="C346" s="30"/>
       <c r="D346" s="14"/>
       <c r="E346" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F346" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G346" s="51"/>
       <c r="H346" s="51"/>
     </row>
     <row r="347" spans="1:8" s="64" customFormat="1" ht="28.8" collapsed="1">
       <c r="A347" s="133" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B347" s="123"/>
       <c r="C347" s="125"/>
@@ -24802,43 +24734,43 @@
     </row>
     <row r="348" spans="1:8" s="22" customFormat="1" ht="25.2" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A348" s="10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B348" s="26" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C348" s="203" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D348" s="216"/>
       <c r="E348" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F348" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G348" s="51"/>
       <c r="H348" s="51"/>
     </row>
     <row r="349" spans="1:8" s="22" customFormat="1" ht="20.399999999999999" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A349" s="10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B349" s="26"/>
       <c r="C349" s="30"/>
       <c r="D349" s="217"/>
       <c r="E349" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F349" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="G349" s="51"/>
       <c r="H349" s="51"/>
     </row>
     <row r="350" spans="1:8" s="29" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A350" s="128" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B350" s="39"/>
       <c r="C350" s="40"/>
@@ -24850,161 +24782,161 @@
     </row>
     <row r="351" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A351" s="31" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B351" s="26"/>
       <c r="C351" s="30"/>
       <c r="D351" s="14"/>
       <c r="E351" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F351" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G351" s="51"/>
       <c r="H351" s="51"/>
     </row>
     <row r="352" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A352" s="31" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B352" s="141"/>
       <c r="C352" s="218"/>
       <c r="D352" s="14"/>
       <c r="E352" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F352" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G352" s="51"/>
       <c r="H352" s="51"/>
     </row>
     <row r="353" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A353" s="31" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B353" s="26"/>
       <c r="C353" s="30"/>
       <c r="D353" s="14"/>
       <c r="E353" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F353" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G353" s="51"/>
       <c r="H353" s="51"/>
     </row>
     <row r="354" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A354" s="31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B354" s="26"/>
       <c r="C354" s="228"/>
       <c r="D354" s="14"/>
       <c r="E354" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F354" s="51" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="G354" s="51"/>
       <c r="H354" s="51"/>
     </row>
     <row r="355" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A355" s="31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B355" s="26"/>
       <c r="C355" s="14" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D355" s="14"/>
       <c r="E355" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F355" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G355" s="51"/>
       <c r="H355" s="51"/>
     </row>
     <row r="356" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A356" s="31" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B356" s="26"/>
       <c r="C356" s="236" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D356" s="14"/>
       <c r="E356" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F356" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G356" s="51"/>
       <c r="H356" s="51"/>
     </row>
     <row r="357" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A357" s="31" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B357" s="26"/>
       <c r="C357" s="14" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="D357" s="14"/>
       <c r="E357" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F357" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G357" s="51"/>
       <c r="H357" s="51"/>
     </row>
     <row r="358" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A358" s="31" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B358" s="26"/>
       <c r="C358" s="111" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D358" s="14"/>
       <c r="E358" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F358" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="G358" s="51"/>
       <c r="H358" s="51"/>
     </row>
     <row r="359" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A359" s="112" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B359" s="26"/>
       <c r="C359" s="114" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D359" s="14"/>
       <c r="E359" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F359" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G359" s="51"/>
       <c r="H359" s="51"/>
     </row>
     <row r="360" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A360" s="31" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B360" s="26"/>
       <c r="C360" s="10">
@@ -25012,46 +24944,46 @@
       </c>
       <c r="D360" s="14"/>
       <c r="E360" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F360" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G360" s="51"/>
       <c r="H360" s="51"/>
     </row>
     <row r="361" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A361" s="31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B361" s="26"/>
       <c r="C361" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D361" s="14"/>
       <c r="E361" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F361" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G361" s="51"/>
       <c r="H361" s="51"/>
     </row>
     <row r="362" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A362" s="31" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B362" s="26"/>
       <c r="C362" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D362" s="14"/>
       <c r="E362" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F362" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G362" s="51"/>
       <c r="H362" s="51"/>
@@ -25068,7 +25000,7 @@
     </row>
     <row r="364" spans="1:8" s="64" customFormat="1" ht="28.8">
       <c r="A364" s="133" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B364" s="123"/>
       <c r="C364" s="125"/>
@@ -25080,107 +25012,107 @@
     </row>
     <row r="365" spans="1:8" s="22" customFormat="1" ht="19.2" customHeight="1" outlineLevel="1">
       <c r="A365" s="10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B365" s="27" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C365" s="49"/>
       <c r="D365" s="228"/>
       <c r="E365" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F365" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G365" s="51"/>
       <c r="H365" s="51"/>
     </row>
     <row r="366" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A366" s="10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B366" s="26"/>
       <c r="C366" s="49"/>
       <c r="D366" s="229"/>
       <c r="E366" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F366" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G366" s="51"/>
       <c r="H366" s="51"/>
     </row>
     <row r="367" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A367" s="31" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B367" s="26"/>
       <c r="C367" s="49"/>
       <c r="D367" s="229"/>
       <c r="E367" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F367" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G367" s="51"/>
       <c r="H367" s="51"/>
     </row>
     <row r="368" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A368" s="31" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B368" s="26"/>
       <c r="C368" s="49"/>
       <c r="D368" s="229"/>
       <c r="E368" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F368" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G368" s="51"/>
       <c r="H368" s="51"/>
     </row>
     <row r="369" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A369" s="31" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B369" s="26"/>
       <c r="C369" s="49"/>
       <c r="D369" s="229"/>
       <c r="E369" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F369" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G369" s="51"/>
       <c r="H369" s="51"/>
     </row>
     <row r="370" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A370" s="31" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B370" s="26"/>
       <c r="C370" s="49"/>
       <c r="D370" s="14" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E370" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F370" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G370" s="51"/>
       <c r="H370" s="51"/>
     </row>
     <row r="371" spans="1:8" s="132" customFormat="1" outlineLevel="1" collapsed="1">
       <c r="A371" s="128" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B371" s="129"/>
       <c r="C371" s="130"/>
@@ -25192,57 +25124,57 @@
     </row>
     <row r="372" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A372" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B372" s="26"/>
       <c r="C372" s="49"/>
       <c r="D372" s="14"/>
       <c r="E372" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F372" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G372" s="51"/>
       <c r="H372" s="51"/>
     </row>
     <row r="373" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A373" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B373" s="26"/>
       <c r="C373" s="49"/>
       <c r="D373" s="14"/>
       <c r="E373" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F373" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G373" s="51"/>
       <c r="H373" s="51"/>
     </row>
     <row r="374" spans="1:8" s="22" customFormat="1" ht="57.6" hidden="1" outlineLevel="2">
       <c r="A374" s="109" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B374" s="26"/>
       <c r="C374" s="110" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D374" s="230"/>
       <c r="E374" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F374" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G374" s="51"/>
       <c r="H374" s="51"/>
     </row>
     <row r="375" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A375" s="10" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B375" s="26"/>
       <c r="C375" s="105">
@@ -25250,159 +25182,159 @@
       </c>
       <c r="D375" s="231"/>
       <c r="E375" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F375" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G375" s="51"/>
       <c r="H375" s="51"/>
     </row>
     <row r="376" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A376" s="10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B376" s="26"/>
       <c r="C376" s="10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D376" s="231"/>
       <c r="E376" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F376" s="51" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="G376" s="51"/>
       <c r="H376" s="51"/>
     </row>
     <row r="377" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A377" s="10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B377" s="26"/>
       <c r="C377" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D377" s="231"/>
       <c r="E377" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F377" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G377" s="51"/>
       <c r="H377" s="51"/>
     </row>
     <row r="378" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A378" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B378" s="26"/>
       <c r="C378" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D378" s="231"/>
       <c r="E378" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F378" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G378" s="51"/>
       <c r="H378" s="51"/>
     </row>
     <row r="379" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A379" s="10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B379" s="26"/>
       <c r="C379" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D379" s="231"/>
       <c r="E379" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F379" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G379" s="51"/>
       <c r="H379" s="51"/>
     </row>
     <row r="380" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A380" s="10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B380" s="26"/>
       <c r="C380" s="10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D380" s="231"/>
       <c r="E380" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F380" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G380" s="51"/>
       <c r="H380" s="51"/>
     </row>
     <row r="381" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A381" s="10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B381" s="26"/>
       <c r="C381" s="10"/>
       <c r="D381" s="231"/>
       <c r="E381" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F381" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G381" s="51"/>
       <c r="H381" s="51"/>
     </row>
     <row r="382" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A382" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B382" s="26"/>
       <c r="C382" s="108" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D382" s="231"/>
       <c r="E382" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F382" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G382" s="51"/>
       <c r="H382" s="51"/>
     </row>
     <row r="383" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A383" s="112" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B383" s="26"/>
       <c r="C383" s="114" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D383" s="14"/>
       <c r="E383" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F383" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G383" s="51"/>
       <c r="H383" s="51"/>
     </row>
     <row r="384" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A384" s="31" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B384" s="26"/>
       <c r="C384" s="10">
@@ -25410,28 +25342,28 @@
       </c>
       <c r="D384" s="14"/>
       <c r="E384" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F384" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G384" s="51"/>
       <c r="H384" s="51"/>
     </row>
     <row r="385" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="2">
       <c r="A385" s="31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B385" s="26"/>
       <c r="C385" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D385" s="14"/>
       <c r="E385" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F385" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G385" s="51"/>
       <c r="H385" s="51"/>
@@ -25446,9 +25378,9 @@
       <c r="G386" s="51"/>
       <c r="H386" s="51"/>
     </row>
-    <row r="387" spans="1:8" s="64" customFormat="1" ht="28.8" collapsed="1">
+    <row r="387" spans="1:8" s="64" customFormat="1" ht="28.8">
       <c r="A387" s="133" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B387" s="123"/>
       <c r="C387" s="125"/>
@@ -25458,45 +25390,45 @@
       <c r="G387" s="127"/>
       <c r="H387" s="127"/>
     </row>
-    <row r="388" spans="1:8" s="22" customFormat="1" ht="14.4" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="388" spans="1:8" s="22" customFormat="1" ht="14.4" customHeight="1" outlineLevel="1">
       <c r="A388" s="10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B388" s="26" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C388" s="236" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D388" s="232"/>
       <c r="E388" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F388" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="G388" s="51"/>
       <c r="H388" s="51"/>
     </row>
-    <row r="389" spans="1:8" s="22" customFormat="1" ht="24" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="389" spans="1:8" s="22" customFormat="1" ht="24" customHeight="1" outlineLevel="1">
       <c r="A389" s="10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B389" s="26"/>
       <c r="C389" s="30"/>
       <c r="D389" s="234"/>
       <c r="E389" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F389" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="G389" s="51"/>
       <c r="H389" s="51"/>
     </row>
-    <row r="390" spans="1:8" s="29" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="390" spans="1:8" s="29" customFormat="1" outlineLevel="1">
       <c r="A390" s="128" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B390" s="39"/>
       <c r="C390" s="40"/>
@@ -25506,167 +25438,167 @@
       <c r="G390" s="42"/>
       <c r="H390" s="42"/>
     </row>
-    <row r="391" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="391" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A391" s="31" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B391" s="26"/>
       <c r="C391" s="30" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="D391" s="14"/>
       <c r="E391" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F391" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G391" s="51"/>
       <c r="H391" s="51"/>
     </row>
-    <row r="392" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="392" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A392" s="31" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B392" s="141"/>
       <c r="C392" s="228" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D392" s="14"/>
       <c r="E392" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F392" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G392" s="51"/>
       <c r="H392" s="51"/>
     </row>
-    <row r="393" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="393" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A393" s="31" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B393" s="26"/>
       <c r="C393" s="30"/>
       <c r="D393" s="14"/>
       <c r="E393" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F393" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G393" s="51"/>
       <c r="H393" s="51"/>
     </row>
-    <row r="394" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="394" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A394" s="31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B394" s="26"/>
       <c r="C394" s="30"/>
       <c r="D394" s="14"/>
       <c r="E394" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F394" s="51" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="G394" s="51"/>
       <c r="H394" s="51"/>
     </row>
-    <row r="395" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="395" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A395" s="31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B395" s="26"/>
       <c r="C395" s="14" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="D395" s="14"/>
       <c r="E395" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F395" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G395" s="51"/>
       <c r="H395" s="51"/>
     </row>
-    <row r="396" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="396" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A396" s="31" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B396" s="26"/>
       <c r="C396" s="14" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D396" s="14"/>
       <c r="E396" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F396" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G396" s="51"/>
       <c r="H396" s="51"/>
     </row>
-    <row r="397" spans="1:8" s="241" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="397" spans="1:8" s="241" customFormat="1" outlineLevel="1">
       <c r="A397" s="31" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B397" s="141"/>
       <c r="C397" s="236" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D397" s="14"/>
       <c r="E397" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F397" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G397" s="240"/>
       <c r="H397" s="240"/>
     </row>
-    <row r="398" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="398" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A398" s="31" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B398" s="26"/>
       <c r="C398" s="111" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D398" s="14"/>
       <c r="E398" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F398" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="G398" s="51"/>
       <c r="H398" s="51"/>
     </row>
-    <row r="399" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="399" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A399" s="112" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B399" s="26"/>
       <c r="C399" s="114" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="D399" s="14"/>
       <c r="E399" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F399" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G399" s="51"/>
       <c r="H399" s="51"/>
     </row>
-    <row r="400" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="400" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A400" s="31" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B400" s="26"/>
       <c r="C400" s="10">
@@ -25674,53 +25606,53 @@
       </c>
       <c r="D400" s="14"/>
       <c r="E400" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F400" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G400" s="51"/>
       <c r="H400" s="51"/>
     </row>
-    <row r="401" spans="1:8" s="244" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="401" spans="1:8" s="244" customFormat="1" outlineLevel="1">
       <c r="A401" s="224" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B401" s="242"/>
       <c r="C401" s="109" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D401" s="109"/>
       <c r="E401" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F401" s="223" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G401" s="243"/>
       <c r="H401" s="243"/>
     </row>
-    <row r="402" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="402" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A402" s="31" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B402" s="26"/>
       <c r="C402" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D402" s="14"/>
       <c r="E402" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F402" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G402" s="51"/>
       <c r="H402" s="51"/>
     </row>
     <row r="403" spans="1:8" s="88" customFormat="1" ht="34.200000000000003" customHeight="1">
       <c r="A403" s="179" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B403" s="83"/>
       <c r="C403" s="84"/>
@@ -25731,7 +25663,7 @@
     </row>
     <row r="404" spans="1:8" s="99" customFormat="1" ht="28.8" collapsed="1">
       <c r="A404" s="70" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B404" s="96"/>
       <c r="C404" s="97"/>
@@ -25742,101 +25674,101 @@
     </row>
     <row r="405" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A405" s="10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B405" s="27" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C405" s="14"/>
       <c r="D405" s="232"/>
       <c r="E405" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F405" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H405" s="37"/>
     </row>
     <row r="406" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A406" s="10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B406" s="27"/>
       <c r="C406" s="14"/>
       <c r="D406" s="233"/>
       <c r="E406" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F406" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H406" s="37"/>
     </row>
     <row r="407" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A407" s="31" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B407" s="27"/>
       <c r="C407" s="14"/>
       <c r="D407" s="233"/>
       <c r="E407" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F407" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H407" s="37"/>
     </row>
     <row r="408" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A408" s="31" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B408" s="27"/>
       <c r="C408" s="14"/>
       <c r="D408" s="233"/>
       <c r="E408" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F408" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H408" s="37"/>
     </row>
     <row r="409" spans="1:8" s="25" customFormat="1" ht="27" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A409" s="31" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B409" s="27"/>
       <c r="C409" s="14"/>
       <c r="D409" s="234"/>
       <c r="E409" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F409" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H409" s="37"/>
     </row>
     <row r="410" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A410" s="31" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B410" s="27"/>
       <c r="C410" s="14"/>
       <c r="D410" s="33" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E410" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F410" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H410" s="37"/>
     </row>
     <row r="411" spans="1:8" s="94" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A411" s="106" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B411" s="90"/>
       <c r="C411" s="91"/>
@@ -25847,55 +25779,55 @@
     </row>
     <row r="412" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A412" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D412" s="262" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E412" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F412" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="413" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A413" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B413" s="10"/>
       <c r="C413" s="10"/>
       <c r="D413" s="263"/>
       <c r="E413" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F413" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G413" s="22"/>
       <c r="H413" s="19"/>
     </row>
     <row r="414" spans="1:8" s="15" customFormat="1" ht="57.6" hidden="1" outlineLevel="2">
       <c r="A414" s="109" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B414" s="10"/>
       <c r="C414" s="110" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D414" s="263"/>
       <c r="E414" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F414" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G414" s="22"/>
       <c r="H414" s="19"/>
     </row>
     <row r="415" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A415" s="10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B415" s="10"/>
       <c r="C415" s="105">
@@ -25903,150 +25835,150 @@
       </c>
       <c r="D415" s="263"/>
       <c r="E415" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F415" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G415" s="22"/>
       <c r="H415" s="19"/>
     </row>
     <row r="416" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A416" s="10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B416" s="10"/>
       <c r="C416" s="10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D416" s="263"/>
       <c r="E416" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F416" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G416" s="22"/>
       <c r="H416" s="19"/>
     </row>
     <row r="417" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A417" s="10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B417" s="10"/>
       <c r="C417" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D417" s="263"/>
       <c r="E417" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F417" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G417" s="22"/>
       <c r="H417" s="19"/>
     </row>
     <row r="418" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A418" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B418" s="10"/>
       <c r="C418" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D418" s="263"/>
       <c r="E418" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F418" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G418" s="22"/>
       <c r="H418" s="19"/>
     </row>
     <row r="419" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A419" s="10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B419" s="10"/>
       <c r="C419" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D419" s="263"/>
       <c r="E419" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F419" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G419" s="22"/>
       <c r="H419" s="19"/>
     </row>
     <row r="420" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A420" s="10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B420" s="10"/>
       <c r="C420" s="10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D420" s="263"/>
       <c r="E420" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F420" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G420" s="22"/>
       <c r="H420" s="19"/>
     </row>
     <row r="421" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A421" s="10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B421" s="10"/>
       <c r="C421" s="10"/>
       <c r="D421" s="263"/>
       <c r="E421" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F421" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G421" s="22"/>
       <c r="H421" s="19"/>
     </row>
     <row r="422" spans="1:8" s="15" customFormat="1" ht="15.6" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A422" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B422" s="10"/>
       <c r="C422" s="108" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D422" s="263"/>
       <c r="E422" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F422" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G422" s="22"/>
       <c r="H422" s="19"/>
     </row>
     <row r="423" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A423" s="31" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B423" s="27"/>
       <c r="C423" s="14"/>
       <c r="D423" s="10"/>
       <c r="E423" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F423" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H423" s="37"/>
     </row>
@@ -26056,50 +25988,50 @@
       <c r="C424" s="14"/>
       <c r="D424" s="10"/>
       <c r="E424" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F424" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H424" s="37"/>
     </row>
     <row r="425" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A425" s="31" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B425" s="27"/>
       <c r="C425" s="111" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D425" s="10"/>
       <c r="E425" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F425" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H425" s="37"/>
     </row>
     <row r="426" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A426" s="112" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B426" s="27"/>
       <c r="C426" s="114" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D426" s="10"/>
       <c r="E426" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F426" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H426" s="37"/>
     </row>
     <row r="427" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A427" s="31" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B427" s="27"/>
       <c r="C427" s="10">
@@ -26107,33 +26039,33 @@
       </c>
       <c r="D427" s="10"/>
       <c r="E427" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F427" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H427" s="37"/>
     </row>
     <row r="428" spans="1:8" s="25" customFormat="1" ht="28.8" hidden="1" outlineLevel="2">
       <c r="A428" s="31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B428" s="27"/>
       <c r="C428" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D428" s="10"/>
       <c r="E428" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F428" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H428" s="37"/>
     </row>
     <row r="429" spans="1:8" s="99" customFormat="1" ht="28.8" collapsed="1">
       <c r="A429" s="70" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B429" s="96"/>
       <c r="C429" s="97"/>
@@ -26144,41 +26076,41 @@
     </row>
     <row r="430" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A430" s="10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B430" s="27" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C430" s="14" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D430" s="10"/>
       <c r="E430" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F430" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H430" s="37"/>
     </row>
     <row r="431" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A431" s="10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B431" s="27"/>
       <c r="C431" s="14"/>
       <c r="D431" s="10"/>
       <c r="E431" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F431" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H431" s="37"/>
     </row>
     <row r="432" spans="1:8" s="47" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A432" s="52" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B432" s="28"/>
       <c r="C432" s="44"/>
@@ -26189,154 +26121,154 @@
     </row>
     <row r="433" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A433" s="31" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B433" s="27" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C433" s="14"/>
       <c r="D433" s="10"/>
       <c r="E433" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F433" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H433" s="37"/>
     </row>
     <row r="434" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A434" s="31" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B434" s="27"/>
       <c r="C434" s="14"/>
       <c r="D434" s="10"/>
       <c r="E434" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F434" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H434" s="37"/>
     </row>
     <row r="435" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A435" s="31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B435" s="27"/>
       <c r="C435" s="14"/>
       <c r="D435" s="10"/>
       <c r="E435" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F435" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H435" s="37"/>
     </row>
     <row r="436" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A436" s="31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B436" s="27"/>
       <c r="C436" s="14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D436" s="10"/>
       <c r="E436" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F436" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H436" s="37"/>
     </row>
     <row r="437" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A437" s="31" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B437" s="27"/>
       <c r="C437" s="14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D437" s="10"/>
       <c r="E437" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F437" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H437" s="37"/>
     </row>
     <row r="438" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A438" s="31" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B438" s="27"/>
       <c r="C438" s="14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D438" s="10"/>
       <c r="E438" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F438" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H438" s="37"/>
     </row>
     <row r="439" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A439" s="31" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B439" s="27"/>
       <c r="C439" s="14"/>
       <c r="D439" s="10"/>
       <c r="E439" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F439" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H439" s="37"/>
     </row>
     <row r="440" spans="1:8" s="25" customFormat="1" ht="21.6" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A440" s="31" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B440" s="27"/>
       <c r="C440" s="111" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D440" s="10"/>
       <c r="E440" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F440" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H440" s="37"/>
     </row>
     <row r="441" spans="1:8" s="115" customFormat="1" ht="33.6" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A441" s="112" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B441" s="114"/>
       <c r="C441" s="114" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D441" s="109"/>
       <c r="E441" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F441" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H441" s="116"/>
     </row>
     <row r="442" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A442" s="31" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B442" s="27"/>
       <c r="C442" s="10">
@@ -26344,50 +26276,50 @@
       </c>
       <c r="D442" s="10"/>
       <c r="E442" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F442" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H442" s="37"/>
     </row>
     <row r="443" spans="1:8" s="25" customFormat="1" ht="28.8" hidden="1" outlineLevel="2">
       <c r="A443" s="31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B443" s="27"/>
       <c r="C443" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D443" s="10"/>
       <c r="E443" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F443" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H443" s="37"/>
     </row>
     <row r="444" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A444" s="31" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B444" s="27"/>
       <c r="C444" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D444" s="10"/>
       <c r="E444" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F444" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H444" s="37"/>
     </row>
     <row r="445" spans="1:8" s="121" customFormat="1" ht="38.4" customHeight="1">
       <c r="A445" s="180" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B445" s="118"/>
       <c r="C445" s="82"/>
@@ -26398,7 +26330,7 @@
     </row>
     <row r="446" spans="1:8" s="99" customFormat="1" collapsed="1">
       <c r="A446" s="70" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B446" s="96"/>
       <c r="C446" s="97"/>
@@ -26409,63 +26341,63 @@
     </row>
     <row r="447" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A447" s="31" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B447" s="10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C447" s="14"/>
       <c r="D447" s="10"/>
       <c r="E447" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F447" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H447" s="37"/>
     </row>
     <row r="448" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A448" s="31" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B448" s="27"/>
       <c r="C448" s="14"/>
       <c r="D448" s="10"/>
       <c r="E448" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F448" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H448" s="37"/>
     </row>
     <row r="449" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A449" s="31" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B449" s="27"/>
       <c r="C449" s="14"/>
       <c r="D449" s="10"/>
       <c r="E449" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F449" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H449" s="37"/>
     </row>
     <row r="450" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A450" s="31" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B450" s="27"/>
       <c r="C450" s="14"/>
       <c r="D450" s="213"/>
       <c r="E450" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F450" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H450" s="37"/>
     </row>
@@ -26480,7 +26412,7 @@
     </row>
     <row r="452" spans="1:8" s="29" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A452" s="52" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B452" s="44"/>
       <c r="C452" s="44"/>
@@ -26491,137 +26423,137 @@
     </row>
     <row r="453" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A453" s="31" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B453" s="27"/>
       <c r="C453" s="14"/>
       <c r="D453" s="10"/>
       <c r="E453" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F453" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H453" s="37"/>
     </row>
     <row r="454" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A454" s="31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B454" s="27"/>
       <c r="C454" s="14"/>
       <c r="D454" s="10"/>
       <c r="E454" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F454" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H454" s="37"/>
     </row>
     <row r="455" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A455" s="31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B455" s="27"/>
       <c r="C455" s="14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D455" s="10"/>
       <c r="E455" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F455" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H455" s="37"/>
     </row>
     <row r="456" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A456" s="31" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B456" s="27"/>
       <c r="C456" s="14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D456" s="10"/>
       <c r="E456" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F456" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H456" s="37"/>
     </row>
     <row r="457" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A457" s="31" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B457" s="27"/>
       <c r="C457" s="14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D457" s="10"/>
       <c r="E457" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F457" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H457" s="37"/>
     </row>
     <row r="458" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A458" s="31" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B458" s="27"/>
       <c r="C458" s="14"/>
       <c r="D458" s="10"/>
       <c r="E458" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F458" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H458" s="37"/>
     </row>
     <row r="459" spans="1:8" s="25" customFormat="1" ht="21.6" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A459" s="31" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B459" s="27"/>
       <c r="C459" s="111" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D459" s="10"/>
       <c r="E459" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F459" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H459" s="37"/>
     </row>
     <row r="460" spans="1:8" s="115" customFormat="1" ht="33.6" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A460" s="112" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B460" s="114"/>
       <c r="C460" s="114" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D460" s="109"/>
       <c r="E460" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F460" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H460" s="116"/>
     </row>
     <row r="461" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A461" s="31" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B461" s="27"/>
       <c r="C461" s="10">
@@ -26629,50 +26561,50 @@
       </c>
       <c r="D461" s="10"/>
       <c r="E461" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F461" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H461" s="37"/>
     </row>
     <row r="462" spans="1:8" s="25" customFormat="1" ht="28.8" hidden="1" outlineLevel="2">
       <c r="A462" s="31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B462" s="27"/>
       <c r="C462" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D462" s="10"/>
       <c r="E462" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F462" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H462" s="37"/>
     </row>
     <row r="463" spans="1:8" s="25" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A463" s="31" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B463" s="27"/>
       <c r="C463" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D463" s="10"/>
       <c r="E463" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F463" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H463" s="37"/>
     </row>
     <row r="464" spans="1:8" s="99" customFormat="1" ht="28.8" collapsed="1">
       <c r="A464" s="70" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B464" s="96"/>
       <c r="C464" s="97"/>
@@ -26683,107 +26615,107 @@
     </row>
     <row r="465" spans="1:8" s="38" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A465" s="10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B465" s="11"/>
       <c r="C465" s="14"/>
       <c r="D465" s="264" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E465" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F465" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G465" s="25"/>
       <c r="H465" s="37"/>
     </row>
     <row r="466" spans="1:8" s="104" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A466" s="10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B466" s="59"/>
       <c r="C466" s="33"/>
       <c r="D466" s="265"/>
       <c r="E466" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F466" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G466" s="103"/>
       <c r="H466" s="35"/>
     </row>
     <row r="467" spans="1:8" s="104" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A467" s="31" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B467" s="59"/>
       <c r="C467" s="33"/>
       <c r="D467" s="265"/>
       <c r="E467" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F467" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G467" s="103"/>
       <c r="H467" s="35"/>
     </row>
     <row r="468" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A468" s="31" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B468" s="32"/>
       <c r="C468" s="33"/>
       <c r="D468" s="265"/>
       <c r="E468" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F468" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G468" s="22"/>
       <c r="H468" s="35"/>
     </row>
     <row r="469" spans="1:8" s="15" customFormat="1" ht="120" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A469" s="31" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B469" s="32"/>
       <c r="C469" s="33"/>
       <c r="D469" s="266"/>
       <c r="E469" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F469" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G469" s="22"/>
       <c r="H469" s="35"/>
     </row>
     <row r="470" spans="1:8" s="15" customFormat="1" ht="14.4" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A470" s="31" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B470" s="32"/>
       <c r="C470" s="33"/>
       <c r="D470" s="33" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E470" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F470" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G470" s="22"/>
       <c r="H470" s="35"/>
     </row>
     <row r="471" spans="1:8" s="29" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A471" s="52" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B471" s="44"/>
       <c r="C471" s="44"/>
@@ -26794,53 +26726,53 @@
     </row>
     <row r="472" spans="1:8" hidden="1" outlineLevel="2">
       <c r="A472" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D472" s="230"/>
       <c r="E472" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F472" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="473" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A473" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B473" s="10"/>
       <c r="C473" s="10"/>
       <c r="D473" s="231"/>
       <c r="E473" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F473" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G473" s="22"/>
       <c r="H473" s="19"/>
     </row>
     <row r="474" spans="1:8" s="15" customFormat="1" ht="57.6" hidden="1" outlineLevel="2">
       <c r="A474" s="109" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B474" s="10"/>
       <c r="C474" s="110" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D474" s="231"/>
       <c r="E474" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F474" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G474" s="22"/>
       <c r="H474" s="19"/>
     </row>
     <row r="475" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A475" s="10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B475" s="10"/>
       <c r="C475" s="105">
@@ -26848,141 +26780,141 @@
       </c>
       <c r="D475" s="231"/>
       <c r="E475" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F475" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G475" s="22"/>
       <c r="H475" s="19"/>
     </row>
     <row r="476" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A476" s="10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B476" s="10"/>
       <c r="C476" s="10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D476" s="231"/>
       <c r="E476" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F476" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G476" s="22"/>
       <c r="H476" s="19"/>
     </row>
     <row r="477" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A477" s="10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B477" s="10"/>
       <c r="C477" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D477" s="231"/>
       <c r="E477" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F477" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G477" s="22"/>
       <c r="H477" s="19"/>
     </row>
     <row r="478" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A478" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B478" s="10"/>
       <c r="C478" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D478" s="231"/>
       <c r="E478" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F478" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G478" s="22"/>
       <c r="H478" s="19"/>
     </row>
     <row r="479" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A479" s="10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B479" s="10"/>
       <c r="C479" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D479" s="231"/>
       <c r="E479" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F479" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G479" s="22"/>
       <c r="H479" s="19"/>
     </row>
     <row r="480" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A480" s="10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B480" s="10"/>
       <c r="C480" s="10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D480" s="231"/>
       <c r="E480" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F480" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G480" s="22"/>
       <c r="H480" s="19"/>
     </row>
     <row r="481" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A481" s="10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B481" s="10"/>
       <c r="C481" s="10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D481" s="231"/>
       <c r="E481" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F481" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G481" s="22"/>
       <c r="H481" s="19"/>
     </row>
     <row r="482" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A482" s="10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B482" s="10"/>
       <c r="C482" s="10"/>
       <c r="D482" s="231"/>
       <c r="E482" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F482" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G482" s="22"/>
       <c r="H482" s="19"/>
     </row>
     <row r="483" spans="1:8" s="15" customFormat="1" ht="15.6" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A483" s="10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B483" s="10"/>
       <c r="C483" s="10">
@@ -26990,46 +26922,46 @@
       </c>
       <c r="D483" s="231"/>
       <c r="E483" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F483" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G483" s="22"/>
       <c r="H483" s="19"/>
     </row>
     <row r="484" spans="1:8" s="15" customFormat="1" ht="15.6" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A484" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B484" s="10"/>
       <c r="C484" s="108" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D484" s="231"/>
       <c r="E484" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F484" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G484" s="22"/>
       <c r="H484" s="19"/>
     </row>
     <row r="485" spans="1:8" s="15" customFormat="1" ht="43.2" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A485" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B485" s="10"/>
       <c r="C485" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D485" s="235"/>
       <c r="E485" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F485" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G485" s="22"/>
       <c r="H485" s="19"/>
@@ -27040,17 +26972,17 @@
       <c r="C486" s="10"/>
       <c r="D486" s="10"/>
       <c r="E486" s="225" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F486" s="36" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G486" s="22"/>
       <c r="H486" s="19"/>
     </row>
     <row r="487" spans="1:8" s="99" customFormat="1" ht="28.8" collapsed="1">
       <c r="A487" s="70" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B487" s="96"/>
       <c r="C487" s="97"/>
@@ -27061,18 +26993,18 @@
     </row>
     <row r="488" spans="1:8">
       <c r="A488" s="202" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E488" s="198" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F488" s="220" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="489" spans="1:8" s="99" customFormat="1" ht="28.8" collapsed="1">
       <c r="A489" s="70" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B489" s="96"/>
       <c r="C489" s="97"/>
@@ -27083,15 +27015,15 @@
     </row>
     <row r="490" spans="1:8" s="22" customFormat="1" ht="67.2" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A490" s="10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B490" s="10" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C490" s="201"/>
       <c r="D490" s="10"/>
       <c r="E490" s="212" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F490" s="51"/>
       <c r="G490" s="51"/>
@@ -27099,13 +27031,13 @@
     </row>
     <row r="491" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A491" s="10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B491" s="141"/>
       <c r="C491" s="201"/>
       <c r="D491" s="213"/>
       <c r="E491" s="212" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F491" s="51"/>
       <c r="G491" s="51"/>
@@ -27113,13 +27045,13 @@
     </row>
     <row r="492" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A492" s="31" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B492" s="141"/>
       <c r="C492" s="201"/>
       <c r="D492" s="213"/>
       <c r="E492" s="212" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F492" s="51"/>
       <c r="G492" s="51"/>
@@ -27127,13 +27059,13 @@
     </row>
     <row r="493" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A493" s="31" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B493" s="141"/>
       <c r="C493" s="201"/>
       <c r="D493" s="213"/>
       <c r="E493" s="212" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F493" s="51"/>
       <c r="G493" s="51"/>
@@ -27141,13 +27073,13 @@
     </row>
     <row r="494" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A494" s="31" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B494" s="141"/>
       <c r="C494" s="201"/>
       <c r="D494" s="213"/>
       <c r="E494" s="212" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F494" s="51"/>
       <c r="G494" s="51"/>
@@ -27155,15 +27087,15 @@
     </row>
     <row r="495" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A495" s="31" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B495" s="141"/>
       <c r="C495" s="201"/>
       <c r="D495" s="14" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E495" s="212" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F495" s="51"/>
       <c r="G495" s="51"/>
@@ -27171,7 +27103,7 @@
     </row>
     <row r="496" spans="1:8" s="132" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A496" s="128" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B496" s="129"/>
       <c r="C496" s="130"/>
@@ -27183,7 +27115,7 @@
     </row>
     <row r="497" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A497" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B497" s="141"/>
       <c r="C497" s="201"/>
@@ -27195,7 +27127,7 @@
     </row>
     <row r="498" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A498" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B498" s="141"/>
       <c r="C498" s="201"/>
@@ -27207,11 +27139,11 @@
     </row>
     <row r="499" spans="1:8" s="22" customFormat="1" ht="57.6" hidden="1" outlineLevel="1">
       <c r="A499" s="109" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B499" s="141"/>
       <c r="C499" s="110" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D499" s="237"/>
       <c r="E499" s="50"/>
@@ -27221,7 +27153,7 @@
     </row>
     <row r="500" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A500" s="10" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B500" s="141"/>
       <c r="C500" s="105">
@@ -27235,11 +27167,11 @@
     </row>
     <row r="501" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A501" s="10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B501" s="141"/>
       <c r="C501" s="10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D501" s="238"/>
       <c r="E501" s="50"/>
@@ -27249,11 +27181,11 @@
     </row>
     <row r="502" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A502" s="10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B502" s="141"/>
       <c r="C502" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D502" s="238"/>
       <c r="E502" s="50"/>
@@ -27263,11 +27195,11 @@
     </row>
     <row r="503" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A503" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B503" s="141"/>
       <c r="C503" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D503" s="238"/>
       <c r="E503" s="50"/>
@@ -27277,11 +27209,11 @@
     </row>
     <row r="504" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A504" s="10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B504" s="141"/>
       <c r="C504" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D504" s="238"/>
       <c r="E504" s="50"/>
@@ -27291,11 +27223,11 @@
     </row>
     <row r="505" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A505" s="10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B505" s="141"/>
       <c r="C505" s="10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D505" s="238"/>
       <c r="E505" s="50"/>
@@ -27305,7 +27237,7 @@
     </row>
     <row r="506" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A506" s="10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B506" s="141"/>
       <c r="C506" s="10"/>
@@ -27317,11 +27249,11 @@
     </row>
     <row r="507" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A507" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B507" s="141"/>
       <c r="C507" s="108" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D507" s="239"/>
       <c r="E507" s="50"/>
@@ -27331,11 +27263,11 @@
     </row>
     <row r="508" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A508" s="112" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B508" s="141"/>
       <c r="C508" s="114" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D508" s="14"/>
       <c r="E508" s="50"/>
@@ -27345,7 +27277,7 @@
     </row>
     <row r="509" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A509" s="31" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B509" s="141"/>
       <c r="C509" s="10">
@@ -27359,11 +27291,11 @@
     </row>
     <row r="510" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A510" s="31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B510" s="141"/>
       <c r="C510" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D510" s="14"/>
       <c r="E510" s="50"/>
@@ -27405,14 +27337,14 @@
     <hyperlink ref="C263" r:id="rId14"/>
     <hyperlink ref="C278" r:id="rId15"/>
     <hyperlink ref="C70" r:id="rId16"/>
-    <hyperlink ref="C16" r:id="rId17"/>
-    <hyperlink ref="C49" r:id="rId18"/>
-    <hyperlink ref="C158" r:id="rId19"/>
-    <hyperlink ref="C137" r:id="rId20"/>
-    <hyperlink ref="C185" r:id="rId21"/>
-    <hyperlink ref="C507" r:id="rId22"/>
-    <hyperlink ref="C240" r:id="rId23"/>
-    <hyperlink ref="C100" r:id="rId24"/>
+    <hyperlink ref="C49" r:id="rId17"/>
+    <hyperlink ref="C158" r:id="rId18"/>
+    <hyperlink ref="C137" r:id="rId19"/>
+    <hyperlink ref="C185" r:id="rId20"/>
+    <hyperlink ref="C507" r:id="rId21"/>
+    <hyperlink ref="C240" r:id="rId22"/>
+    <hyperlink ref="C100" r:id="rId23"/>
+    <hyperlink ref="C15" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId25"/>
@@ -27437,107 +27369,107 @@
     <row r="1" spans="1:2" ht="21">
       <c r="A1" s="183"/>
       <c r="B1" s="184" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="185" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B2" s="186" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="187" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B3" s="188" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="187" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B4" s="188" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="189" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B5" s="190"/>
     </row>
     <row r="7" spans="1:2" ht="15.6">
       <c r="A7" s="267" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B7" s="268"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="191" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B8" s="192" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="191" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B9" s="193" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="194" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B10" s="193" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="195" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B11" s="193" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="196" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B12" s="193" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="196" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B13" s="193" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="197" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B14" s="193" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="197" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B15" s="192" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/чек-лист.xlsx
+++ b/чек-лист.xlsx
@@ -3319,8 +3319,8 @@
   </sheetPr>
   <dimension ref="A1:XFD506"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -3902,7 +3902,7 @@
       <c r="G42" s="56"/>
       <c r="H42" s="56"/>
     </row>
-    <row r="43" spans="1:8" s="147" customFormat="1" ht="43.2">
+    <row r="43" spans="1:8" s="147" customFormat="1" ht="43.2" collapsed="1">
       <c r="A43" s="149" t="s">
         <v>230</v>
       </c>
@@ -3913,7 +3913,7 @@
       <c r="F43" s="152"/>
       <c r="H43" s="153"/>
     </row>
-    <row r="44" spans="1:8" s="269" customFormat="1" ht="29.4" customHeight="1" outlineLevel="1">
+    <row r="44" spans="1:8" s="269" customFormat="1" ht="29.4" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A44" s="108" t="s">
         <v>265</v>
       </c>
@@ -3927,7 +3927,7 @@
       <c r="G44" s="268"/>
       <c r="H44" s="243"/>
     </row>
-    <row r="45" spans="1:8" s="15" customFormat="1" ht="36.6" customHeight="1" outlineLevel="1">
+    <row r="45" spans="1:8" s="15" customFormat="1" ht="36.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A45" s="266" t="s">
         <v>267</v>
       </c>
@@ -3942,7 +3942,7 @@
       <c r="G45" s="22"/>
       <c r="H45" s="19"/>
     </row>
-    <row r="46" spans="1:8" s="15" customFormat="1" ht="29.4" customHeight="1" outlineLevel="1">
+    <row r="46" spans="1:8" s="15" customFormat="1" ht="29.4" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A46" s="214" t="s">
         <v>266</v>
       </c>
@@ -3956,7 +3956,7 @@
       <c r="G46" s="22"/>
       <c r="H46" s="19"/>
     </row>
-    <row r="47" spans="1:8" s="15" customFormat="1" ht="29.4" customHeight="1" outlineLevel="1">
+    <row r="47" spans="1:8" s="15" customFormat="1" ht="29.4" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A47" s="271" t="s">
         <v>264</v>
       </c>
@@ -3970,7 +3970,7 @@
       <c r="G47" s="22"/>
       <c r="H47" s="19"/>
     </row>
-    <row r="48" spans="1:8" s="15" customFormat="1" ht="29.4" customHeight="1" outlineLevel="1">
+    <row r="48" spans="1:8" s="15" customFormat="1" ht="29.4" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A48" s="272"/>
       <c r="B48" s="282"/>
       <c r="C48" s="218"/>
@@ -3980,7 +3980,7 @@
       <c r="G48" s="22"/>
       <c r="H48" s="19"/>
     </row>
-    <row r="49" spans="1:8" s="168" customFormat="1" ht="43.95" customHeight="1" outlineLevel="1">
+    <row r="49" spans="1:8" s="168" customFormat="1" ht="43.95" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A49" s="170" t="s">
         <v>89</v>
       </c>
@@ -3991,7 +3991,7 @@
       <c r="F49" s="167"/>
       <c r="H49" s="169"/>
     </row>
-    <row r="50" spans="1:8" s="15" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
+    <row r="50" spans="1:8" s="15" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A50" s="10" t="s">
         <v>269</v>
       </c>
@@ -4005,7 +4005,7 @@
       <c r="G50" s="22"/>
       <c r="H50" s="19"/>
     </row>
-    <row r="51" spans="1:8" s="15" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
+    <row r="51" spans="1:8" s="15" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A51" s="214" t="s">
         <v>270</v>
       </c>
@@ -4017,7 +4017,7 @@
       <c r="G51" s="22"/>
       <c r="H51" s="19"/>
     </row>
-    <row r="52" spans="1:8" s="15" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
+    <row r="52" spans="1:8" s="15" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A52" s="10" t="s">
         <v>272</v>
       </c>
@@ -4029,7 +4029,7 @@
       <c r="G52" s="22"/>
       <c r="H52" s="19"/>
     </row>
-    <row r="53" spans="1:8" s="15" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
+    <row r="53" spans="1:8" s="15" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A53" s="10" t="s">
         <v>217</v>
       </c>
@@ -4041,7 +4041,7 @@
       <c r="G53" s="22"/>
       <c r="H53" s="19"/>
     </row>
-    <row r="54" spans="1:8" s="15" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
+    <row r="54" spans="1:8" s="15" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A54" s="108" t="s">
         <v>219</v>
       </c>
@@ -4053,7 +4053,7 @@
       <c r="G54" s="22"/>
       <c r="H54" s="19"/>
     </row>
-    <row r="55" spans="1:8" s="15" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
+    <row r="55" spans="1:8" s="15" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A55" s="108" t="s">
         <v>243</v>
       </c>
@@ -4065,7 +4065,7 @@
       <c r="G55" s="22"/>
       <c r="H55" s="19"/>
     </row>
-    <row r="56" spans="1:8" s="22" customFormat="1" ht="21.6" customHeight="1" outlineLevel="1">
+    <row r="56" spans="1:8" s="22" customFormat="1" ht="21.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A56" s="10" t="s">
         <v>244</v>
       </c>
@@ -4078,7 +4078,7 @@
       <c r="F56" s="17"/>
       <c r="H56" s="19"/>
     </row>
-    <row r="57" spans="1:8" s="22" customFormat="1" ht="42" customHeight="1" outlineLevel="1">
+    <row r="57" spans="1:8" s="22" customFormat="1" ht="42" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A57" s="10" t="s">
         <v>277</v>
       </c>
@@ -4093,7 +4093,7 @@
       <c r="F57" s="17"/>
       <c r="H57" s="19"/>
     </row>
-    <row r="58" spans="1:8" s="22" customFormat="1" ht="42" customHeight="1" outlineLevel="1">
+    <row r="58" spans="1:8" s="22" customFormat="1" ht="42" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A58" s="10" t="s">
         <v>278</v>
       </c>
@@ -4104,7 +4104,7 @@
       <c r="F58" s="17"/>
       <c r="H58" s="19"/>
     </row>
-    <row r="59" spans="1:8" s="22" customFormat="1" ht="21.6" customHeight="1" outlineLevel="1">
+    <row r="59" spans="1:8" s="22" customFormat="1" ht="21.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A59" s="10" t="s">
         <v>274</v>
       </c>
@@ -4117,7 +4117,7 @@
       <c r="F59" s="17"/>
       <c r="H59" s="19"/>
     </row>
-    <row r="60" spans="1:8" s="22" customFormat="1" ht="48.6" customHeight="1" outlineLevel="1">
+    <row r="60" spans="1:8" s="22" customFormat="1" ht="48.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A60" s="10" t="s">
         <v>276</v>
       </c>
@@ -4128,7 +4128,7 @@
       <c r="F60" s="17"/>
       <c r="H60" s="19"/>
     </row>
-    <row r="61" spans="1:8" s="22" customFormat="1" ht="28.8" customHeight="1" outlineLevel="1">
+    <row r="61" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A61" s="10"/>
       <c r="B61" s="140"/>
       <c r="C61" s="14"/>
@@ -4137,7 +4137,7 @@
       <c r="F61" s="17"/>
       <c r="H61" s="19"/>
     </row>
-    <row r="62" spans="1:8" s="22" customFormat="1" ht="21.6" customHeight="1" outlineLevel="1" thickBot="1">
+    <row r="62" spans="1:8" s="22" customFormat="1" ht="21.6" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="A62" s="108" t="s">
         <v>222</v>
       </c>
@@ -4150,7 +4150,7 @@
       <c r="F62" s="17"/>
       <c r="H62" s="19"/>
     </row>
-    <row r="63" spans="1:8" s="22" customFormat="1" ht="21.6" customHeight="1" outlineLevel="1" thickBot="1">
+    <row r="63" spans="1:8" s="22" customFormat="1" ht="21.6" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="A63" s="245" t="s">
         <v>223</v>
       </c>
@@ -4163,7 +4163,7 @@
       <c r="F63" s="17"/>
       <c r="H63" s="19"/>
     </row>
-    <row r="64" spans="1:8" s="22" customFormat="1" ht="21.6" customHeight="1" outlineLevel="1" thickBot="1">
+    <row r="64" spans="1:8" s="22" customFormat="1" ht="21.6" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="A64" s="108" t="s">
         <v>238</v>
       </c>
@@ -4176,7 +4176,7 @@
       <c r="F64" s="17"/>
       <c r="H64" s="19"/>
     </row>
-    <row r="65" spans="1:8" s="22" customFormat="1" ht="21.6" customHeight="1" outlineLevel="1" thickBot="1">
+    <row r="65" spans="1:8" s="22" customFormat="1" ht="21.6" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="A65" s="245" t="s">
         <v>236</v>
       </c>
@@ -4189,7 +4189,7 @@
       <c r="F65" s="17"/>
       <c r="H65" s="19"/>
     </row>
-    <row r="66" spans="1:8" s="22" customFormat="1" ht="21.6" customHeight="1" outlineLevel="1" thickBot="1">
+    <row r="66" spans="1:8" s="22" customFormat="1" ht="21.6" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="A66" s="245" t="s">
         <v>224</v>
       </c>
@@ -4202,7 +4202,7 @@
       <c r="F66" s="17"/>
       <c r="H66" s="19"/>
     </row>
-    <row r="67" spans="1:8" s="22" customFormat="1" ht="21.6" customHeight="1" outlineLevel="1">
+    <row r="67" spans="1:8" s="22" customFormat="1" ht="21.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A67" s="10" t="s">
         <v>215</v>
       </c>
@@ -4215,7 +4215,7 @@
       <c r="F67" s="17"/>
       <c r="H67" s="19"/>
     </row>
-    <row r="68" spans="1:8" s="22" customFormat="1" ht="21.6" customHeight="1" outlineLevel="1">
+    <row r="68" spans="1:8" s="22" customFormat="1" ht="21.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A68" s="10" t="s">
         <v>23</v>
       </c>
@@ -4226,7 +4226,7 @@
       <c r="F68" s="17"/>
       <c r="H68" s="19"/>
     </row>
-    <row r="69" spans="1:8" s="22" customFormat="1" ht="21.6" customHeight="1" outlineLevel="1">
+    <row r="69" spans="1:8" s="22" customFormat="1" ht="21.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A69" s="10" t="s">
         <v>216</v>
       </c>
@@ -4237,7 +4237,7 @@
       <c r="F69" s="17"/>
       <c r="H69" s="19"/>
     </row>
-    <row r="70" spans="1:8" s="22" customFormat="1" ht="21.6" customHeight="1" outlineLevel="1">
+    <row r="70" spans="1:8" s="22" customFormat="1" ht="21.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A70" s="10"/>
       <c r="B70" s="140"/>
       <c r="C70" s="14"/>
@@ -4246,7 +4246,7 @@
       <c r="F70" s="17"/>
       <c r="H70" s="19"/>
     </row>
-    <row r="71" spans="1:8" s="22" customFormat="1" ht="21.6" customHeight="1" outlineLevel="1">
+    <row r="71" spans="1:8" s="22" customFormat="1" ht="21.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A71" s="108" t="s">
         <v>218</v>
       </c>
@@ -4257,7 +4257,7 @@
       <c r="F71" s="17"/>
       <c r="H71" s="19"/>
     </row>
-    <row r="72" spans="1:8" s="22" customFormat="1" ht="21.6" customHeight="1" outlineLevel="1">
+    <row r="72" spans="1:8" s="22" customFormat="1" ht="21.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A72" s="108" t="s">
         <v>221</v>
       </c>
@@ -4268,7 +4268,7 @@
       <c r="F72" s="17"/>
       <c r="H72" s="19"/>
     </row>
-    <row r="73" spans="1:8" s="22" customFormat="1" ht="21.6" customHeight="1" outlineLevel="1">
+    <row r="73" spans="1:8" s="22" customFormat="1" ht="21.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A73" s="108"/>
       <c r="B73" s="140"/>
       <c r="C73" s="14"/>
@@ -4277,7 +4277,7 @@
       <c r="F73" s="17"/>
       <c r="H73" s="19"/>
     </row>
-    <row r="74" spans="1:8" s="22" customFormat="1" ht="21.6" customHeight="1" outlineLevel="1">
+    <row r="74" spans="1:8" s="22" customFormat="1" ht="21.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A74" s="108"/>
       <c r="B74" s="140"/>
       <c r="C74" s="14"/>
@@ -4286,7 +4286,7 @@
       <c r="F74" s="17"/>
       <c r="H74" s="19"/>
     </row>
-    <row r="75" spans="1:8" s="22" customFormat="1" ht="21.6" customHeight="1" outlineLevel="1">
+    <row r="75" spans="1:8" s="22" customFormat="1" ht="21.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A75" s="108"/>
       <c r="B75" s="140"/>
       <c r="C75" s="14"/>
@@ -4295,7 +4295,7 @@
       <c r="F75" s="17"/>
       <c r="H75" s="19"/>
     </row>
-    <row r="76" spans="1:8" s="22" customFormat="1" ht="21.6" customHeight="1" outlineLevel="1">
+    <row r="76" spans="1:8" s="22" customFormat="1" ht="21.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A76" s="10"/>
       <c r="B76" s="140"/>
       <c r="C76" s="14"/>
@@ -4304,7 +4304,7 @@
       <c r="F76" s="17"/>
       <c r="H76" s="19"/>
     </row>
-    <row r="77" spans="1:8" s="22" customFormat="1" ht="21.6" customHeight="1" outlineLevel="1">
+    <row r="77" spans="1:8" s="22" customFormat="1" ht="21.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A77" s="31"/>
       <c r="B77" s="140"/>
       <c r="C77" s="14"/>
@@ -4313,7 +4313,7 @@
       <c r="F77" s="17"/>
       <c r="H77" s="19"/>
     </row>
-    <row r="78" spans="1:8" s="22" customFormat="1" ht="21.6" customHeight="1" outlineLevel="1">
+    <row r="78" spans="1:8" s="22" customFormat="1" ht="21.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A78" s="31"/>
       <c r="B78" s="140"/>
       <c r="C78" s="14"/>
@@ -4322,7 +4322,7 @@
       <c r="F78" s="17"/>
       <c r="H78" s="19"/>
     </row>
-    <row r="79" spans="1:8" s="22" customFormat="1" ht="21.6" customHeight="1" outlineLevel="1">
+    <row r="79" spans="1:8" s="22" customFormat="1" ht="21.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A79" s="31"/>
       <c r="B79" s="140"/>
       <c r="C79" s="14"/>
@@ -4331,7 +4331,7 @@
       <c r="F79" s="17"/>
       <c r="H79" s="19"/>
     </row>
-    <row r="80" spans="1:8" s="22" customFormat="1" ht="21.6" customHeight="1" outlineLevel="1">
+    <row r="80" spans="1:8" s="22" customFormat="1" ht="21.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A80" s="31"/>
       <c r="B80" s="140"/>
       <c r="C80" s="14"/>
@@ -4340,7 +4340,7 @@
       <c r="F80" s="17"/>
       <c r="H80" s="19"/>
     </row>
-    <row r="81" spans="1:8" s="64" customFormat="1" ht="49.2" customHeight="1" collapsed="1">
+    <row r="81" spans="1:8" s="64" customFormat="1" ht="49.2" customHeight="1">
       <c r="A81" s="132" t="s">
         <v>250</v>
       </c>
@@ -4351,7 +4351,7 @@
       <c r="F81" s="68"/>
       <c r="H81" s="69"/>
     </row>
-    <row r="82" spans="1:8" s="22" customFormat="1" ht="28.95" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="82" spans="1:8" s="22" customFormat="1" ht="28.95" customHeight="1" outlineLevel="1">
       <c r="A82" s="254" t="s">
         <v>252</v>
       </c>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="H82" s="19"/>
     </row>
-    <row r="83" spans="1:8" s="22" customFormat="1" ht="28.95" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="83" spans="1:8" s="22" customFormat="1" ht="28.95" customHeight="1" outlineLevel="1">
       <c r="A83" s="254" t="s">
         <v>86</v>
       </c>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="H83" s="19"/>
     </row>
-    <row r="84" spans="1:8" s="260" customFormat="1" ht="28.95" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="84" spans="1:8" s="260" customFormat="1" ht="28.95" customHeight="1" outlineLevel="1">
       <c r="A84" s="255" t="s">
         <v>75</v>
       </c>
@@ -4394,7 +4394,7 @@
       <c r="F84" s="259"/>
       <c r="H84" s="261"/>
     </row>
-    <row r="85" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="85" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A85" s="31" t="s">
         <v>68</v>
       </c>
@@ -4410,7 +4410,7 @@
       <c r="G85" s="51"/>
       <c r="H85" s="51"/>
     </row>
-    <row r="86" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="86" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A86" s="31" t="s">
         <v>138</v>
       </c>
@@ -4426,7 +4426,7 @@
       <c r="G86" s="51"/>
       <c r="H86" s="51"/>
     </row>
-    <row r="87" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="87" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A87" s="31" t="s">
         <v>139</v>
       </c>
@@ -4442,7 +4442,7 @@
       <c r="G87" s="51"/>
       <c r="H87" s="51"/>
     </row>
-    <row r="88" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="88" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A88" s="31" t="s">
         <v>26</v>
       </c>
@@ -4458,7 +4458,7 @@
       <c r="G88" s="51"/>
       <c r="H88" s="51"/>
     </row>
-    <row r="89" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="89" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A89" s="31" t="s">
         <v>42</v>
       </c>
@@ -4476,7 +4476,7 @@
       <c r="G89" s="51"/>
       <c r="H89" s="51"/>
     </row>
-    <row r="90" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="90" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A90" s="31" t="s">
         <v>53</v>
       </c>
@@ -4494,7 +4494,7 @@
       <c r="G90" s="51"/>
       <c r="H90" s="51"/>
     </row>
-    <row r="91" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
+    <row r="91" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
       <c r="A91" s="31" t="s">
         <v>144</v>
       </c>
@@ -4512,7 +4512,7 @@
       <c r="G91" s="51"/>
       <c r="H91" s="51"/>
     </row>
-    <row r="92" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="92" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A92" s="31" t="s">
         <v>58</v>
       </c>
@@ -4530,7 +4530,7 @@
       <c r="G92" s="51"/>
       <c r="H92" s="51"/>
     </row>
-    <row r="93" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="93" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A93" s="111" t="s">
         <v>60</v>
       </c>
@@ -4548,7 +4548,7 @@
       <c r="G93" s="51"/>
       <c r="H93" s="51"/>
     </row>
-    <row r="94" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="94" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A94" s="31" t="s">
         <v>14</v>
       </c>
@@ -4566,7 +4566,7 @@
       <c r="G94" s="51"/>
       <c r="H94" s="51"/>
     </row>
-    <row r="95" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
+    <row r="95" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
       <c r="A95" s="31" t="s">
         <v>29</v>
       </c>
@@ -4584,7 +4584,7 @@
       <c r="G95" s="51"/>
       <c r="H95" s="51"/>
     </row>
-    <row r="96" spans="1:8" s="22" customFormat="1" ht="16.2" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="96" spans="1:8" s="22" customFormat="1" ht="16.2" customHeight="1" outlineLevel="1">
       <c r="A96" s="31" t="s">
         <v>19</v>
       </c>
@@ -4602,7 +4602,7 @@
       <c r="G96" s="51"/>
       <c r="H96" s="51"/>
     </row>
-    <row r="97" spans="1:8" s="64" customFormat="1" ht="49.2" customHeight="1">
+    <row r="97" spans="1:8" s="64" customFormat="1" ht="49.2" customHeight="1" collapsed="1">
       <c r="A97" s="132" t="s">
         <v>173</v>
       </c>
@@ -4613,7 +4613,7 @@
       <c r="F97" s="68"/>
       <c r="H97" s="69"/>
     </row>
-    <row r="98" spans="1:8" s="22" customFormat="1" ht="16.2" customHeight="1" outlineLevel="1">
+    <row r="98" spans="1:8" s="22" customFormat="1" ht="16.2" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A98" s="31" t="s">
         <v>174</v>
       </c>
@@ -4629,7 +4629,7 @@
       <c r="G98" s="133"/>
       <c r="H98" s="51"/>
     </row>
-    <row r="99" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="99" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A99" s="31" t="s">
         <v>253</v>
       </c>
@@ -4645,7 +4645,7 @@
       <c r="G99" s="21"/>
       <c r="H99" s="51"/>
     </row>
-    <row r="100" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="100" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A100" s="31" t="s">
         <v>254</v>
       </c>
@@ -4661,7 +4661,7 @@
       <c r="G100" s="21"/>
       <c r="H100" s="51"/>
     </row>
-    <row r="101" spans="1:8" s="22" customFormat="1" ht="40.200000000000003" customHeight="1" outlineLevel="1">
+    <row r="101" spans="1:8" s="22" customFormat="1" ht="40.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A101" s="31" t="s">
         <v>255</v>
       </c>
@@ -4679,7 +4679,7 @@
       <c r="G101" s="21"/>
       <c r="H101" s="51"/>
     </row>
-    <row r="102" spans="1:8" s="22" customFormat="1" ht="37.200000000000003" customHeight="1" outlineLevel="1">
+    <row r="102" spans="1:8" s="22" customFormat="1" ht="37.200000000000003" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A102" s="31" t="s">
         <v>256</v>
       </c>
@@ -4697,7 +4697,7 @@
       <c r="G102" s="21"/>
       <c r="H102" s="51"/>
     </row>
-    <row r="103" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="103" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A103" s="31" t="s">
         <v>258</v>
       </c>
@@ -4713,7 +4713,7 @@
       <c r="G103" s="21"/>
       <c r="H103" s="51"/>
     </row>
-    <row r="104" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="104" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A104" s="31" t="s">
         <v>257</v>
       </c>
@@ -4729,7 +4729,7 @@
       <c r="G104" s="21"/>
       <c r="H104" s="51"/>
     </row>
-    <row r="105" spans="1:8" s="22" customFormat="1" ht="31.2" customHeight="1" outlineLevel="1">
+    <row r="105" spans="1:8" s="22" customFormat="1" ht="31.2" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A105" s="241" t="s">
         <v>251</v>
       </c>
@@ -4741,7 +4741,7 @@
       <c r="G105" s="21"/>
       <c r="H105" s="51"/>
     </row>
-    <row r="106" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="106" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A106" s="31" t="s">
         <v>204</v>
       </c>
@@ -4757,7 +4757,7 @@
       <c r="G106" s="21"/>
       <c r="H106" s="51"/>
     </row>
-    <row r="107" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="107" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A107" s="31" t="s">
         <v>205</v>
       </c>
@@ -4773,7 +4773,7 @@
       <c r="G107" s="21"/>
       <c r="H107" s="51"/>
     </row>
-    <row r="108" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="108" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A108" s="31" t="s">
         <v>206</v>
       </c>
@@ -4789,7 +4789,7 @@
       <c r="G108" s="21"/>
       <c r="H108" s="51"/>
     </row>
-    <row r="109" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="109" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A109" s="31" t="s">
         <v>207</v>
       </c>
@@ -4805,7 +4805,7 @@
       <c r="G109" s="21"/>
       <c r="H109" s="51"/>
     </row>
-    <row r="110" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="110" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A110" s="31" t="s">
         <v>208</v>
       </c>
@@ -4821,7 +4821,7 @@
       <c r="G110" s="21"/>
       <c r="H110" s="51"/>
     </row>
-    <row r="111" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="111" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A111" s="31" t="s">
         <v>209</v>
       </c>
@@ -4837,7 +4837,7 @@
       <c r="G111" s="21"/>
       <c r="H111" s="51"/>
     </row>
-    <row r="112" spans="1:8" s="131" customFormat="1" outlineLevel="1">
+    <row r="112" spans="1:8" s="131" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A112" s="127" t="s">
         <v>175</v>
       </c>
@@ -4849,7 +4849,7 @@
       <c r="G112" s="42"/>
       <c r="H112" s="42"/>
     </row>
-    <row r="113" spans="1:8" s="237" customFormat="1" outlineLevel="1">
+    <row r="113" spans="1:8" s="237" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A113" s="31" t="s">
         <v>259</v>
       </c>
@@ -4867,7 +4867,7 @@
       <c r="G113" s="133"/>
       <c r="H113" s="51"/>
     </row>
-    <row r="114" spans="1:8" s="237" customFormat="1" outlineLevel="1">
+    <row r="114" spans="1:8" s="237" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A114" s="31" t="s">
         <v>210</v>
       </c>
@@ -4885,7 +4885,7 @@
       <c r="G114" s="133"/>
       <c r="H114" s="51"/>
     </row>
-    <row r="115" spans="1:8" s="237" customFormat="1" outlineLevel="1">
+    <row r="115" spans="1:8" s="237" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A115" s="31" t="s">
         <v>211</v>
       </c>
@@ -4903,7 +4903,7 @@
       <c r="G115" s="133"/>
       <c r="H115" s="51"/>
     </row>
-    <row r="116" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="116" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A116" s="31" t="s">
         <v>201</v>
       </c>
@@ -4919,7 +4919,7 @@
       <c r="G116" s="133"/>
       <c r="H116" s="51"/>
     </row>
-    <row r="117" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="117" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A117" s="31" t="s">
         <v>202</v>
       </c>
@@ -4937,7 +4937,7 @@
       <c r="G117" s="133"/>
       <c r="H117" s="51"/>
     </row>
-    <row r="118" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="118" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A118" s="31" t="s">
         <v>200</v>
       </c>
@@ -4955,7 +4955,7 @@
       <c r="G118" s="133"/>
       <c r="H118" s="51"/>
     </row>
-    <row r="119" spans="1:8" s="22" customFormat="1" ht="17.399999999999999" customHeight="1" outlineLevel="1">
+    <row r="119" spans="1:8" s="22" customFormat="1" ht="17.399999999999999" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A119" s="31" t="s">
         <v>203</v>
       </c>
@@ -4973,7 +4973,7 @@
       <c r="G119" s="133"/>
       <c r="H119" s="51"/>
     </row>
-    <row r="120" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="120" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A120" s="31" t="s">
         <v>196</v>
       </c>
@@ -4991,7 +4991,7 @@
       <c r="G120" s="133"/>
       <c r="H120" s="51"/>
     </row>
-    <row r="121" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="121" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A121" s="31" t="s">
         <v>197</v>
       </c>
@@ -5009,7 +5009,7 @@
       <c r="G121" s="133"/>
       <c r="H121" s="51"/>
     </row>
-    <row r="122" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="122" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A122" s="31" t="s">
         <v>198</v>
       </c>
@@ -5027,7 +5027,7 @@
       <c r="G122" s="133"/>
       <c r="H122" s="51"/>
     </row>
-    <row r="123" spans="1:8" s="22" customFormat="1" ht="30.6" customHeight="1" outlineLevel="1">
+    <row r="123" spans="1:8" s="22" customFormat="1" ht="30.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A123" s="31" t="s">
         <v>199</v>
       </c>
@@ -5045,7 +5045,7 @@
       <c r="G123" s="133"/>
       <c r="H123" s="51"/>
     </row>
-    <row r="124" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="124" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A124" s="31" t="s">
         <v>176</v>
       </c>
@@ -5061,7 +5061,7 @@
       <c r="G124" s="133"/>
       <c r="H124" s="51"/>
     </row>
-    <row r="125" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="125" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A125" s="31" t="s">
         <v>178</v>
       </c>
@@ -5077,7 +5077,7 @@
       <c r="G125" s="133"/>
       <c r="H125" s="51"/>
     </row>
-    <row r="126" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="126" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A126" s="31" t="s">
         <v>177</v>
       </c>
@@ -5093,7 +5093,7 @@
       <c r="G126" s="133"/>
       <c r="H126" s="51"/>
     </row>
-    <row r="127" spans="1:8" s="22" customFormat="1" ht="16.8" customHeight="1" outlineLevel="1">
+    <row r="127" spans="1:8" s="22" customFormat="1" ht="16.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A127" s="31" t="s">
         <v>193</v>
       </c>
@@ -5109,7 +5109,7 @@
       <c r="G127" s="133"/>
       <c r="H127" s="51"/>
     </row>
-    <row r="128" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="128" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A128" s="31" t="s">
         <v>191</v>
       </c>
@@ -5125,7 +5125,7 @@
       <c r="G128" s="133"/>
       <c r="H128" s="51"/>
     </row>
-    <row r="129" spans="1:8" s="22" customFormat="1" ht="16.8" customHeight="1" outlineLevel="1">
+    <row r="129" spans="1:8" s="22" customFormat="1" ht="16.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A129" s="31" t="s">
         <v>192</v>
       </c>
@@ -5141,7 +5141,7 @@
       <c r="G129" s="133"/>
       <c r="H129" s="51"/>
     </row>
-    <row r="130" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="130" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A130" s="31" t="s">
         <v>186</v>
       </c>
@@ -5157,7 +5157,7 @@
       <c r="G130" s="133"/>
       <c r="H130" s="51"/>
     </row>
-    <row r="131" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="131" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A131" s="31" t="s">
         <v>187</v>
       </c>
@@ -5173,7 +5173,7 @@
       <c r="G131" s="133"/>
       <c r="H131" s="51"/>
     </row>
-    <row r="132" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="132" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A132" s="31" t="s">
         <v>188</v>
       </c>
@@ -5189,7 +5189,7 @@
       <c r="G132" s="133"/>
       <c r="H132" s="51"/>
     </row>
-    <row r="133" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="133" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A133" s="31" t="s">
         <v>195</v>
       </c>
@@ -5205,7 +5205,7 @@
       <c r="G133" s="133"/>
       <c r="H133" s="51"/>
     </row>
-    <row r="134" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="134" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A134" s="31" t="s">
         <v>189</v>
       </c>
@@ -5221,7 +5221,7 @@
       <c r="G134" s="133"/>
       <c r="H134" s="51"/>
     </row>
-    <row r="135" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="135" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A135" s="31" t="s">
         <v>190</v>
       </c>
@@ -5237,7 +5237,7 @@
       <c r="G135" s="133"/>
       <c r="H135" s="51"/>
     </row>
-    <row r="136" spans="1:8" s="22" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+    <row r="136" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A136" s="31"/>
       <c r="B136" s="140"/>
       <c r="C136" s="10"/>
@@ -5247,7 +5247,7 @@
       <c r="G136" s="133"/>
       <c r="H136" s="51"/>
     </row>
-    <row r="137" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="137" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A137" s="31"/>
       <c r="B137" s="140"/>
       <c r="C137" s="10"/>
@@ -5257,7 +5257,7 @@
       <c r="G137" s="133"/>
       <c r="H137" s="51"/>
     </row>
-    <row r="138" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="138" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A138" s="31"/>
       <c r="B138" s="140"/>
       <c r="C138" s="10"/>
@@ -5344,7 +5344,7 @@
       <c r="F144" s="17"/>
       <c r="H144" s="19"/>
     </row>
-    <row r="145" spans="1:8" s="64" customFormat="1" ht="28.8">
+    <row r="145" spans="1:8" s="64" customFormat="1" ht="28.8" collapsed="1">
       <c r="A145" s="132" t="s">
         <v>249</v>
       </c>
@@ -5356,7 +5356,7 @@
       <c r="G145" s="134"/>
       <c r="H145" s="126"/>
     </row>
-    <row r="146" spans="1:8" s="22" customFormat="1" ht="18.600000000000001" customHeight="1" outlineLevel="1">
+    <row r="146" spans="1:8" s="22" customFormat="1" ht="18.600000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A146" s="254" t="s">
         <v>252</v>
       </c>
@@ -5372,7 +5372,7 @@
       </c>
       <c r="H146" s="19"/>
     </row>
-    <row r="147" spans="1:8" s="22" customFormat="1" ht="19.8" customHeight="1" outlineLevel="1">
+    <row r="147" spans="1:8" s="22" customFormat="1" ht="19.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A147" s="254" t="s">
         <v>86</v>
       </c>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="H147" s="19"/>
     </row>
-    <row r="148" spans="1:8" s="64" customFormat="1" ht="28.95" customHeight="1" outlineLevel="1">
+    <row r="148" spans="1:8" s="64" customFormat="1" ht="28.95" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A148" s="253" t="s">
         <v>75</v>
       </c>
@@ -5398,7 +5398,7 @@
       <c r="F148" s="68"/>
       <c r="H148" s="69"/>
     </row>
-    <row r="149" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="149" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A149" s="31" t="s">
         <v>68</v>
       </c>
@@ -5414,7 +5414,7 @@
       <c r="G149" s="51"/>
       <c r="H149" s="51"/>
     </row>
-    <row r="150" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="150" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A150" s="31" t="s">
         <v>138</v>
       </c>
@@ -5430,7 +5430,7 @@
       <c r="G150" s="51"/>
       <c r="H150" s="51"/>
     </row>
-    <row r="151" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="151" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A151" s="31" t="s">
         <v>139</v>
       </c>
@@ -5446,7 +5446,7 @@
       <c r="G151" s="51"/>
       <c r="H151" s="51"/>
     </row>
-    <row r="152" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="152" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A152" s="31" t="s">
         <v>26</v>
       </c>
@@ -5462,7 +5462,7 @@
       <c r="G152" s="51"/>
       <c r="H152" s="51"/>
     </row>
-    <row r="153" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="153" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A153" s="31" t="s">
         <v>42</v>
       </c>
@@ -5480,7 +5480,7 @@
       <c r="G153" s="51"/>
       <c r="H153" s="51"/>
     </row>
-    <row r="154" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="154" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A154" s="31" t="s">
         <v>53</v>
       </c>
@@ -5498,7 +5498,7 @@
       <c r="G154" s="51"/>
       <c r="H154" s="51"/>
     </row>
-    <row r="155" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="155" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A155" s="31" t="s">
         <v>144</v>
       </c>
@@ -5516,7 +5516,7 @@
       <c r="G155" s="51"/>
       <c r="H155" s="51"/>
     </row>
-    <row r="156" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="156" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A156" s="31" t="s">
         <v>261</v>
       </c>
@@ -5534,7 +5534,7 @@
       <c r="G156" s="51"/>
       <c r="H156" s="51"/>
     </row>
-    <row r="157" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="157" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A157" s="111" t="s">
         <v>60</v>
       </c>
@@ -5552,7 +5552,7 @@
       <c r="G157" s="51"/>
       <c r="H157" s="51"/>
     </row>
-    <row r="158" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="158" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A158" s="31" t="s">
         <v>14</v>
       </c>
@@ -5570,7 +5570,7 @@
       <c r="G158" s="51"/>
       <c r="H158" s="51"/>
     </row>
-    <row r="159" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="159" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A159" s="31" t="s">
         <v>29</v>
       </c>
@@ -5588,7 +5588,7 @@
       <c r="G159" s="51"/>
       <c r="H159" s="51"/>
     </row>
-    <row r="160" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="160" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A160" s="31" t="s">
         <v>19</v>
       </c>
@@ -5988,7 +5988,7 @@
       <c r="G183" s="51"/>
       <c r="H183" s="51"/>
     </row>
-    <row r="184" spans="1:8" s="64" customFormat="1" ht="28.8">
+    <row r="184" spans="1:8" s="64" customFormat="1" ht="28.8" collapsed="1">
       <c r="A184" s="135" t="s">
         <v>81</v>
       </c>
@@ -6000,7 +6000,7 @@
       <c r="G184" s="134"/>
       <c r="H184" s="74"/>
     </row>
-    <row r="185" spans="1:8" s="22" customFormat="1" ht="20.399999999999999" customHeight="1" outlineLevel="1">
+    <row r="185" spans="1:8" s="22" customFormat="1" ht="20.399999999999999" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A185" s="10" t="s">
         <v>38</v>
       </c>
@@ -6020,7 +6020,7 @@
       <c r="G185" s="51"/>
       <c r="H185" s="51"/>
     </row>
-    <row r="186" spans="1:8" s="22" customFormat="1" ht="23.4" customHeight="1" outlineLevel="1">
+    <row r="186" spans="1:8" s="22" customFormat="1" ht="23.4" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A186" s="10" t="s">
         <v>67</v>
       </c>
@@ -6036,7 +6036,7 @@
       <c r="G186" s="51"/>
       <c r="H186" s="51"/>
     </row>
-    <row r="187" spans="1:8" s="29" customFormat="1" outlineLevel="1">
+    <row r="187" spans="1:8" s="29" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A187" s="127" t="s">
         <v>75</v>
       </c>
@@ -6048,7 +6048,7 @@
       <c r="G187" s="42"/>
       <c r="H187" s="42"/>
     </row>
-    <row r="188" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="188" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A188" s="31" t="s">
         <v>68</v>
       </c>
@@ -6064,7 +6064,7 @@
       <c r="G188" s="51"/>
       <c r="H188" s="51"/>
     </row>
-    <row r="189" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="189" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A189" s="31" t="s">
         <v>138</v>
       </c>
@@ -6080,7 +6080,7 @@
       <c r="G189" s="51"/>
       <c r="H189" s="51"/>
     </row>
-    <row r="190" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="190" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A190" s="31" t="s">
         <v>139</v>
       </c>
@@ -6096,7 +6096,7 @@
       <c r="G190" s="51"/>
       <c r="H190" s="51"/>
     </row>
-    <row r="191" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="191" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A191" s="31" t="s">
         <v>26</v>
       </c>
@@ -6112,7 +6112,7 @@
       <c r="G191" s="51"/>
       <c r="H191" s="51"/>
     </row>
-    <row r="192" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="192" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A192" s="31" t="s">
         <v>42</v>
       </c>
@@ -6130,7 +6130,7 @@
       <c r="G192" s="51"/>
       <c r="H192" s="51"/>
     </row>
-    <row r="193" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="193" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A193" s="31" t="s">
         <v>53</v>
       </c>
@@ -6148,7 +6148,7 @@
       <c r="G193" s="51"/>
       <c r="H193" s="51"/>
     </row>
-    <row r="194" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="194" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A194" s="31" t="s">
         <v>144</v>
       </c>
@@ -6166,7 +6166,7 @@
       <c r="G194" s="51"/>
       <c r="H194" s="51"/>
     </row>
-    <row r="195" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="195" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A195" s="31" t="s">
         <v>58</v>
       </c>
@@ -6184,7 +6184,7 @@
       <c r="G195" s="51"/>
       <c r="H195" s="51"/>
     </row>
-    <row r="196" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="196" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A196" s="111" t="s">
         <v>60</v>
       </c>
@@ -6202,7 +6202,7 @@
       <c r="G196" s="51"/>
       <c r="H196" s="51"/>
     </row>
-    <row r="197" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="197" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A197" s="31" t="s">
         <v>14</v>
       </c>
@@ -6220,7 +6220,7 @@
       <c r="G197" s="51"/>
       <c r="H197" s="51"/>
     </row>
-    <row r="198" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="198" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A198" s="31" t="s">
         <v>29</v>
       </c>
@@ -6238,7 +6238,7 @@
       <c r="G198" s="51"/>
       <c r="H198" s="51"/>
     </row>
-    <row r="199" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="199" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A199" s="31" t="s">
         <v>19</v>
       </c>
@@ -6642,7 +6642,7 @@
       <c r="G222" s="133"/>
       <c r="H222" s="51"/>
     </row>
-    <row r="223" spans="1:8" s="64" customFormat="1" ht="43.2" collapsed="1">
+    <row r="223" spans="1:8" s="64" customFormat="1" ht="43.2">
       <c r="A223" s="132" t="s">
         <v>84</v>
       </c>
@@ -6654,7 +6654,7 @@
       <c r="G223" s="134"/>
       <c r="H223" s="126"/>
     </row>
-    <row r="224" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="224" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A224" s="10" t="s">
         <v>38</v>
       </c>
@@ -6674,7 +6674,7 @@
       <c r="G224" s="133"/>
       <c r="H224" s="51"/>
     </row>
-    <row r="225" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="225" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A225" s="10" t="s">
         <v>67</v>
       </c>
@@ -6690,7 +6690,7 @@
       <c r="G225" s="133"/>
       <c r="H225" s="51"/>
     </row>
-    <row r="226" spans="1:8" s="29" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="226" spans="1:8" s="29" customFormat="1" outlineLevel="1">
       <c r="A226" s="127" t="s">
         <v>75</v>
       </c>
@@ -6702,7 +6702,7 @@
       <c r="G226" s="42"/>
       <c r="H226" s="42"/>
     </row>
-    <row r="227" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="227" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A227" s="31" t="s">
         <v>68</v>
       </c>
@@ -6718,7 +6718,7 @@
       <c r="G227" s="51"/>
       <c r="H227" s="51"/>
     </row>
-    <row r="228" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="228" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A228" s="31" t="s">
         <v>138</v>
       </c>
@@ -6734,7 +6734,7 @@
       <c r="G228" s="51"/>
       <c r="H228" s="51"/>
     </row>
-    <row r="229" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="229" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A229" s="31" t="s">
         <v>139</v>
       </c>
@@ -6750,7 +6750,7 @@
       <c r="G229" s="51"/>
       <c r="H229" s="51"/>
     </row>
-    <row r="230" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="230" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A230" s="31" t="s">
         <v>26</v>
       </c>
@@ -6766,7 +6766,7 @@
       <c r="G230" s="51"/>
       <c r="H230" s="51"/>
     </row>
-    <row r="231" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="231" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A231" s="31" t="s">
         <v>44</v>
       </c>
@@ -6782,7 +6782,7 @@
       <c r="G231" s="51"/>
       <c r="H231" s="51"/>
     </row>
-    <row r="232" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="232" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A232" s="31" t="s">
         <v>42</v>
       </c>
@@ -6800,7 +6800,7 @@
       <c r="G232" s="51"/>
       <c r="H232" s="51"/>
     </row>
-    <row r="233" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="233" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A233" s="31" t="s">
         <v>53</v>
       </c>
@@ -6818,7 +6818,7 @@
       <c r="G233" s="51"/>
       <c r="H233" s="51"/>
     </row>
-    <row r="234" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
+    <row r="234" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
       <c r="A234" s="31" t="s">
         <v>146</v>
       </c>
@@ -6836,7 +6836,7 @@
       <c r="G234" s="51"/>
       <c r="H234" s="51"/>
     </row>
-    <row r="235" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="235" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A235" s="31" t="s">
         <v>58</v>
       </c>
@@ -6854,7 +6854,7 @@
       <c r="G235" s="51"/>
       <c r="H235" s="51"/>
     </row>
-    <row r="236" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="236" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A236" s="111" t="s">
         <v>60</v>
       </c>
@@ -6872,7 +6872,7 @@
       <c r="G236" s="51"/>
       <c r="H236" s="51"/>
     </row>
-    <row r="237" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="237" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A237" s="31" t="s">
         <v>14</v>
       </c>
@@ -6890,7 +6890,7 @@
       <c r="G237" s="51"/>
       <c r="H237" s="51"/>
     </row>
-    <row r="238" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
+    <row r="238" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
       <c r="A238" s="31" t="s">
         <v>29</v>
       </c>
@@ -6908,7 +6908,7 @@
       <c r="G238" s="51"/>
       <c r="H238" s="51"/>
     </row>
-    <row r="239" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="239" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A239" s="31" t="s">
         <v>19</v>
       </c>
@@ -26044,7 +26044,7 @@
       </c>
       <c r="H405" s="37"/>
     </row>
-    <row r="406" spans="1:8" s="93" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="406" spans="1:8" s="93" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A406" s="105" t="s">
         <v>65</v>
       </c>

--- a/чек-лист.xlsx
+++ b/чек-лист.xlsx
@@ -3006,6 +3006,53 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3048,53 +3095,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3389,8 +3389,8 @@
   </sheetPr>
   <dimension ref="A1:XFD548"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+    <sheetView tabSelected="1" topLeftCell="A321" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B350" sqref="B350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -3772,7 +3772,7 @@
       <c r="F28" s="159"/>
       <c r="H28" s="161"/>
     </row>
-    <row r="29" spans="1:8" s="291" customFormat="1" ht="72" hidden="1" outlineLevel="2">
+    <row r="29" spans="1:8" s="277" customFormat="1" ht="72" hidden="1" outlineLevel="2">
       <c r="A29" s="107" t="s">
         <v>225</v>
       </c>
@@ -3783,10 +3783,10 @@
         <v>227</v>
       </c>
       <c r="D29" s="107"/>
-      <c r="E29" s="287"/>
-      <c r="F29" s="288"/>
-      <c r="G29" s="289"/>
-      <c r="H29" s="290"/>
+      <c r="E29" s="273"/>
+      <c r="F29" s="274"/>
+      <c r="G29" s="275"/>
+      <c r="H29" s="276"/>
     </row>
     <row r="30" spans="1:8" s="57" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A30" s="10" t="s">
@@ -3819,7 +3819,7 @@
         <v>206</v>
       </c>
       <c r="B32" s="14"/>
-      <c r="C32" s="286"/>
+      <c r="C32" s="272"/>
       <c r="D32" s="14"/>
       <c r="E32" s="16"/>
       <c r="F32" s="17"/>
@@ -3831,7 +3831,7 @@
         <v>204</v>
       </c>
       <c r="B33" s="14"/>
-      <c r="C33" s="286"/>
+      <c r="C33" s="272"/>
       <c r="D33" s="14"/>
       <c r="E33" s="16"/>
       <c r="F33" s="17"/>
@@ -3869,7 +3869,7 @@
     <row r="36" spans="1:8" s="57" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A36" s="10"/>
       <c r="B36" s="14"/>
-      <c r="C36" s="286"/>
+      <c r="C36" s="272"/>
       <c r="D36" s="14"/>
       <c r="E36" s="16"/>
       <c r="F36" s="17"/>
@@ -3879,7 +3879,7 @@
     <row r="37" spans="1:8" s="57" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A37" s="10"/>
       <c r="B37" s="14"/>
-      <c r="C37" s="286"/>
+      <c r="C37" s="272"/>
       <c r="D37" s="14"/>
       <c r="E37" s="16"/>
       <c r="F37" s="17"/>
@@ -4300,26 +4300,26 @@
       <c r="H67" s="19"/>
     </row>
     <row r="68" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A68" s="272" t="s">
+      <c r="A68" s="287" t="s">
         <v>265</v>
       </c>
-      <c r="B68" s="282" t="s">
+      <c r="B68" s="297" t="s">
         <v>266</v>
       </c>
       <c r="C68" s="210"/>
       <c r="D68" s="14"/>
-      <c r="E68" s="274"/>
-      <c r="F68" s="276"/>
+      <c r="E68" s="289"/>
+      <c r="F68" s="291"/>
       <c r="G68" s="22"/>
       <c r="H68" s="19"/>
     </row>
     <row r="69" spans="1:8" s="15" customFormat="1" ht="42.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A69" s="273"/>
-      <c r="B69" s="283"/>
+      <c r="A69" s="288"/>
+      <c r="B69" s="298"/>
       <c r="C69" s="210"/>
       <c r="D69" s="14"/>
-      <c r="E69" s="275"/>
-      <c r="F69" s="275"/>
+      <c r="E69" s="290"/>
+      <c r="F69" s="290"/>
       <c r="G69" s="22"/>
       <c r="H69" s="19"/>
     </row>
@@ -6008,17 +6008,17 @@
       <c r="G186" s="132"/>
       <c r="H186" s="50"/>
     </row>
-    <row r="187" spans="1:8" s="299" customFormat="1" ht="28.8">
+    <row r="187" spans="1:8" s="285" customFormat="1" ht="28.8">
       <c r="A187" s="242" t="s">
         <v>232</v>
       </c>
-      <c r="B187" s="293"/>
-      <c r="C187" s="294"/>
-      <c r="D187" s="295"/>
-      <c r="E187" s="296"/>
-      <c r="F187" s="297"/>
-      <c r="G187" s="298"/>
-      <c r="H187" s="297"/>
+      <c r="B187" s="279"/>
+      <c r="C187" s="280"/>
+      <c r="D187" s="281"/>
+      <c r="E187" s="282"/>
+      <c r="F187" s="283"/>
+      <c r="G187" s="284"/>
+      <c r="H187" s="283"/>
     </row>
     <row r="188" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A188" s="243" t="s">
@@ -6444,7 +6444,7 @@
       <c r="C214" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="D214" s="277" t="s">
+      <c r="D214" s="292" t="s">
         <v>38</v>
       </c>
       <c r="E214" s="207" t="s">
@@ -6464,7 +6464,7 @@
       <c r="C215" s="103">
         <v>2147483647</v>
       </c>
-      <c r="D215" s="278"/>
+      <c r="D215" s="293"/>
       <c r="E215" s="207" t="s">
         <v>113</v>
       </c>
@@ -6482,7 +6482,7 @@
       <c r="C216" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D216" s="278"/>
+      <c r="D216" s="293"/>
       <c r="E216" s="207" t="s">
         <v>113</v>
       </c>
@@ -6500,7 +6500,7 @@
       <c r="C217" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D217" s="278"/>
+      <c r="D217" s="293"/>
       <c r="E217" s="207" t="s">
         <v>113</v>
       </c>
@@ -6518,7 +6518,7 @@
       <c r="C218" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D218" s="278"/>
+      <c r="D218" s="293"/>
       <c r="E218" s="207" t="s">
         <v>113</v>
       </c>
@@ -6536,7 +6536,7 @@
       <c r="C219" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D219" s="278"/>
+      <c r="D219" s="293"/>
       <c r="E219" s="207" t="s">
         <v>113</v>
       </c>
@@ -6554,7 +6554,7 @@
       <c r="C220" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D220" s="278"/>
+      <c r="D220" s="293"/>
       <c r="E220" s="207" t="s">
         <v>113</v>
       </c>
@@ -6570,7 +6570,7 @@
       </c>
       <c r="B221" s="139"/>
       <c r="C221" s="10"/>
-      <c r="D221" s="278"/>
+      <c r="D221" s="293"/>
       <c r="E221" s="207" t="s">
         <v>113</v>
       </c>
@@ -6588,7 +6588,7 @@
       <c r="C222" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="D222" s="278"/>
+      <c r="D222" s="293"/>
       <c r="E222" s="207" t="s">
         <v>113</v>
       </c>
@@ -25010,7 +25010,7 @@
       <c r="G344" s="50"/>
       <c r="H344" s="50"/>
     </row>
-    <row r="345" spans="1:8" s="63" customFormat="1" ht="28.8">
+    <row r="345" spans="1:8" s="63" customFormat="1" ht="28.8" collapsed="1">
       <c r="A345" s="131" t="s">
         <v>89</v>
       </c>
@@ -25022,7 +25022,7 @@
       <c r="G345" s="125"/>
       <c r="H345" s="125"/>
     </row>
-    <row r="346" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="346" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A346" s="10" t="s">
         <v>36</v>
       </c>
@@ -25032,7 +25032,7 @@
       <c r="C346" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="D346" s="279"/>
+      <c r="D346" s="294"/>
       <c r="E346" s="181" t="s">
         <v>103</v>
       </c>
@@ -25042,13 +25042,13 @@
       <c r="G346" s="50"/>
       <c r="H346" s="50"/>
     </row>
-    <row r="347" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="347" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A347" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B347" s="25"/>
       <c r="C347" s="29"/>
-      <c r="D347" s="281"/>
+      <c r="D347" s="296"/>
       <c r="E347" s="181" t="s">
         <v>103</v>
       </c>
@@ -25058,7 +25058,7 @@
       <c r="G347" s="50"/>
       <c r="H347" s="50"/>
     </row>
-    <row r="348" spans="1:8" s="28" customFormat="1" outlineLevel="1">
+    <row r="348" spans="1:8" s="28" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A348" s="126" t="s">
         <v>73</v>
       </c>
@@ -25070,7 +25070,7 @@
       <c r="G348" s="41"/>
       <c r="H348" s="41"/>
     </row>
-    <row r="349" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="349" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A349" s="30" t="s">
         <v>66</v>
       </c>
@@ -25086,7 +25086,7 @@
       <c r="G349" s="50"/>
       <c r="H349" s="50"/>
     </row>
-    <row r="350" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="350" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A350" s="30" t="s">
         <v>145</v>
       </c>
@@ -25102,7 +25102,7 @@
       <c r="G350" s="50"/>
       <c r="H350" s="50"/>
     </row>
-    <row r="351" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="351" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A351" s="30" t="s">
         <v>146</v>
       </c>
@@ -25118,7 +25118,7 @@
       <c r="G351" s="50"/>
       <c r="H351" s="50"/>
     </row>
-    <row r="352" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="352" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A352" s="30" t="s">
         <v>24</v>
       </c>
@@ -25134,7 +25134,7 @@
       <c r="G352" s="50"/>
       <c r="H352" s="50"/>
     </row>
-    <row r="353" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="353" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A353" s="30" t="s">
         <v>40</v>
       </c>
@@ -25152,7 +25152,7 @@
       <c r="G353" s="50"/>
       <c r="H353" s="50"/>
     </row>
-    <row r="354" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="354" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A354" s="30" t="s">
         <v>51</v>
       </c>
@@ -25170,7 +25170,7 @@
       <c r="G354" s="50"/>
       <c r="H354" s="50"/>
     </row>
-    <row r="355" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="355" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A355" s="30" t="s">
         <v>147</v>
       </c>
@@ -25188,7 +25188,7 @@
       <c r="G355" s="50"/>
       <c r="H355" s="50"/>
     </row>
-    <row r="356" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="356" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A356" s="30" t="s">
         <v>56</v>
       </c>
@@ -25206,7 +25206,7 @@
       <c r="G356" s="50"/>
       <c r="H356" s="50"/>
     </row>
-    <row r="357" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="357" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A357" s="110" t="s">
         <v>58</v>
       </c>
@@ -25224,7 +25224,7 @@
       <c r="G357" s="50"/>
       <c r="H357" s="50"/>
     </row>
-    <row r="358" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="358" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A358" s="30" t="s">
         <v>12</v>
       </c>
@@ -25242,7 +25242,7 @@
       <c r="G358" s="50"/>
       <c r="H358" s="50"/>
     </row>
-    <row r="359" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="359" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A359" s="30" t="s">
         <v>27</v>
       </c>
@@ -25260,7 +25260,7 @@
       <c r="G359" s="50"/>
       <c r="H359" s="50"/>
     </row>
-    <row r="360" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="360" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A360" s="30" t="s">
         <v>17</v>
       </c>
@@ -25940,7 +25940,7 @@
       <c r="G400" s="50"/>
       <c r="H400" s="50"/>
     </row>
-    <row r="401" spans="1:8" s="63" customFormat="1" ht="28.8">
+    <row r="401" spans="1:8" s="63" customFormat="1" ht="28.8" collapsed="1">
       <c r="A401" s="131" t="s">
         <v>92</v>
       </c>
@@ -25952,7 +25952,7 @@
       <c r="G401" s="125"/>
       <c r="H401" s="125"/>
     </row>
-    <row r="402" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="402" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A402" s="10" t="s">
         <v>16</v>
       </c>
@@ -25970,7 +25970,7 @@
       <c r="G402" s="50"/>
       <c r="H402" s="50"/>
     </row>
-    <row r="403" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="403" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A403" s="10" t="s">
         <v>18</v>
       </c>
@@ -25986,7 +25986,7 @@
       <c r="G403" s="50"/>
       <c r="H403" s="50"/>
     </row>
-    <row r="404" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="404" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A404" s="30" t="s">
         <v>29</v>
       </c>
@@ -26002,7 +26002,7 @@
       <c r="G404" s="50"/>
       <c r="H404" s="50"/>
     </row>
-    <row r="405" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="405" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A405" s="30" t="s">
         <v>19</v>
       </c>
@@ -26018,7 +26018,7 @@
       <c r="G405" s="50"/>
       <c r="H405" s="50"/>
     </row>
-    <row r="406" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="406" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A406" s="30" t="s">
         <v>13</v>
       </c>
@@ -26034,7 +26034,7 @@
       <c r="G406" s="50"/>
       <c r="H406" s="50"/>
     </row>
-    <row r="407" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="407" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A407" s="30" t="s">
         <v>74</v>
       </c>
@@ -26052,7 +26052,7 @@
       <c r="G407" s="50"/>
       <c r="H407" s="50"/>
     </row>
-    <row r="408" spans="1:8" s="130" customFormat="1" outlineLevel="1">
+    <row r="408" spans="1:8" s="130" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A408" s="126" t="s">
         <v>76</v>
       </c>
@@ -26064,7 +26064,7 @@
       <c r="G408" s="41"/>
       <c r="H408" s="41"/>
     </row>
-    <row r="409" spans="1:8" s="22" customFormat="1" outlineLevel="2">
+    <row r="409" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A409" s="10" t="s">
         <v>14</v>
       </c>
@@ -26080,7 +26080,7 @@
       <c r="G409" s="50"/>
       <c r="H409" s="50"/>
     </row>
-    <row r="410" spans="1:8" s="22" customFormat="1" outlineLevel="2">
+    <row r="410" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A410" s="10" t="s">
         <v>71</v>
       </c>
@@ -26096,7 +26096,7 @@
       <c r="G410" s="50"/>
       <c r="H410" s="50"/>
     </row>
-    <row r="411" spans="1:8" s="22" customFormat="1" ht="57.6" outlineLevel="2">
+    <row r="411" spans="1:8" s="22" customFormat="1" ht="57.6" hidden="1" outlineLevel="2">
       <c r="A411" s="107" t="s">
         <v>47</v>
       </c>
@@ -26114,7 +26114,7 @@
       <c r="G411" s="50"/>
       <c r="H411" s="50"/>
     </row>
-    <row r="412" spans="1:8" s="22" customFormat="1" outlineLevel="2">
+    <row r="412" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A412" s="10" t="s">
         <v>128</v>
       </c>
@@ -26132,7 +26132,7 @@
       <c r="G412" s="50"/>
       <c r="H412" s="50"/>
     </row>
-    <row r="413" spans="1:8" s="22" customFormat="1" outlineLevel="2">
+    <row r="413" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A413" s="10" t="s">
         <v>24</v>
       </c>
@@ -26150,7 +26150,7 @@
       <c r="G413" s="50"/>
       <c r="H413" s="50"/>
     </row>
-    <row r="414" spans="1:8" s="22" customFormat="1" outlineLevel="2">
+    <row r="414" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A414" s="10" t="s">
         <v>22</v>
       </c>
@@ -26168,7 +26168,7 @@
       <c r="G414" s="50"/>
       <c r="H414" s="50"/>
     </row>
-    <row r="415" spans="1:8" s="22" customFormat="1" outlineLevel="2">
+    <row r="415" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A415" s="10" t="s">
         <v>49</v>
       </c>
@@ -26186,7 +26186,7 @@
       <c r="G415" s="50"/>
       <c r="H415" s="50"/>
     </row>
-    <row r="416" spans="1:8" s="22" customFormat="1" outlineLevel="2">
+    <row r="416" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A416" s="10" t="s">
         <v>17</v>
       </c>
@@ -26204,7 +26204,7 @@
       <c r="G416" s="50"/>
       <c r="H416" s="50"/>
     </row>
-    <row r="417" spans="1:8" s="22" customFormat="1" outlineLevel="2">
+    <row r="417" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A417" s="10" t="s">
         <v>31</v>
       </c>
@@ -26222,7 +26222,7 @@
       <c r="G417" s="50"/>
       <c r="H417" s="50"/>
     </row>
-    <row r="418" spans="1:8" s="22" customFormat="1" outlineLevel="2">
+    <row r="418" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A418" s="10" t="s">
         <v>11</v>
       </c>
@@ -26238,7 +26238,7 @@
       <c r="G418" s="50"/>
       <c r="H418" s="50"/>
     </row>
-    <row r="419" spans="1:8" s="22" customFormat="1" outlineLevel="2">
+    <row r="419" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A419" s="10" t="s">
         <v>21</v>
       </c>
@@ -26256,7 +26256,7 @@
       <c r="G419" s="50"/>
       <c r="H419" s="50"/>
     </row>
-    <row r="420" spans="1:8" s="22" customFormat="1" outlineLevel="2">
+    <row r="420" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A420" s="110" t="s">
         <v>58</v>
       </c>
@@ -26274,7 +26274,7 @@
       <c r="G420" s="50"/>
       <c r="H420" s="50"/>
     </row>
-    <row r="421" spans="1:8" s="22" customFormat="1" outlineLevel="2">
+    <row r="421" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A421" s="30" t="s">
         <v>12</v>
       </c>
@@ -26292,7 +26292,7 @@
       <c r="G421" s="50"/>
       <c r="H421" s="50"/>
     </row>
-    <row r="422" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="2">
+    <row r="422" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="2">
       <c r="A422" s="30" t="s">
         <v>27</v>
       </c>
@@ -26310,7 +26310,7 @@
       <c r="G422" s="50"/>
       <c r="H422" s="50"/>
     </row>
-    <row r="423" spans="1:8" s="22" customFormat="1" outlineLevel="2">
+    <row r="423" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
       <c r="A423" s="30"/>
       <c r="B423" s="25"/>
       <c r="C423" s="29"/>
@@ -26339,7 +26339,7 @@
       <c r="B425" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C425" s="292" t="s">
+      <c r="C425" s="278" t="s">
         <v>282</v>
       </c>
       <c r="D425" s="214"/>
@@ -26723,7 +26723,7 @@
       <c r="A449" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D449" s="277" t="s">
+      <c r="D449" s="292" t="s">
         <v>38</v>
       </c>
       <c r="E449" s="207" t="s">
@@ -26739,7 +26739,7 @@
       </c>
       <c r="B450" s="10"/>
       <c r="C450" s="10"/>
-      <c r="D450" s="278"/>
+      <c r="D450" s="293"/>
       <c r="E450" s="207" t="s">
         <v>113</v>
       </c>
@@ -26757,7 +26757,7 @@
       <c r="C451" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="D451" s="278"/>
+      <c r="D451" s="293"/>
       <c r="E451" s="207" t="s">
         <v>113</v>
       </c>
@@ -26775,7 +26775,7 @@
       <c r="C452" s="103">
         <v>2147483648</v>
       </c>
-      <c r="D452" s="278"/>
+      <c r="D452" s="293"/>
       <c r="E452" s="207" t="s">
         <v>113</v>
       </c>
@@ -26793,7 +26793,7 @@
       <c r="C453" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D453" s="278"/>
+      <c r="D453" s="293"/>
       <c r="E453" s="207" t="s">
         <v>113</v>
       </c>
@@ -26811,7 +26811,7 @@
       <c r="C454" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D454" s="278"/>
+      <c r="D454" s="293"/>
       <c r="E454" s="207" t="s">
         <v>113</v>
       </c>
@@ -26829,7 +26829,7 @@
       <c r="C455" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D455" s="278"/>
+      <c r="D455" s="293"/>
       <c r="E455" s="207" t="s">
         <v>113</v>
       </c>
@@ -26847,7 +26847,7 @@
       <c r="C456" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D456" s="278"/>
+      <c r="D456" s="293"/>
       <c r="E456" s="207" t="s">
         <v>113</v>
       </c>
@@ -26865,7 +26865,7 @@
       <c r="C457" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D457" s="278"/>
+      <c r="D457" s="293"/>
       <c r="E457" s="207" t="s">
         <v>113</v>
       </c>
@@ -26881,7 +26881,7 @@
       </c>
       <c r="B458" s="10"/>
       <c r="C458" s="10"/>
-      <c r="D458" s="278"/>
+      <c r="D458" s="293"/>
       <c r="E458" s="207" t="s">
         <v>113</v>
       </c>
@@ -26899,7 +26899,7 @@
       <c r="C459" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="D459" s="278"/>
+      <c r="D459" s="293"/>
       <c r="E459" s="207" t="s">
         <v>113</v>
       </c>
@@ -27271,7 +27271,7 @@
       <c r="H482" s="120"/>
     </row>
     <row r="483" spans="1:8" s="97" customFormat="1" ht="28.8" customHeight="1" collapsed="1">
-      <c r="A483" s="300" t="s">
+      <c r="A483" s="286" t="s">
         <v>34</v>
       </c>
       <c r="B483" s="94"/>
@@ -27561,7 +27561,7 @@
       </c>
       <c r="B502" s="11"/>
       <c r="C502" s="14"/>
-      <c r="D502" s="279" t="s">
+      <c r="D502" s="294" t="s">
         <v>37</v>
       </c>
       <c r="E502" s="181" t="s">
@@ -27579,7 +27579,7 @@
       </c>
       <c r="B503" s="58"/>
       <c r="C503" s="32"/>
-      <c r="D503" s="280"/>
+      <c r="D503" s="295"/>
       <c r="E503" s="181" t="s">
         <v>103</v>
       </c>
@@ -27595,7 +27595,7 @@
       </c>
       <c r="B504" s="58"/>
       <c r="C504" s="32"/>
-      <c r="D504" s="280"/>
+      <c r="D504" s="295"/>
       <c r="E504" s="181" t="s">
         <v>103</v>
       </c>
@@ -27611,7 +27611,7 @@
       </c>
       <c r="B505" s="31"/>
       <c r="C505" s="32"/>
-      <c r="D505" s="280"/>
+      <c r="D505" s="295"/>
       <c r="E505" s="181" t="s">
         <v>103</v>
       </c>
@@ -27627,7 +27627,7 @@
       </c>
       <c r="B506" s="31"/>
       <c r="C506" s="32"/>
-      <c r="D506" s="281"/>
+      <c r="D506" s="296"/>
       <c r="E506" s="181" t="s">
         <v>103</v>
       </c>
@@ -28349,10 +28349,10 @@
       <c r="B5" s="173"/>
     </row>
     <row r="7" spans="1:2" ht="15.6">
-      <c r="A7" s="284" t="s">
+      <c r="A7" s="299" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="285"/>
+      <c r="B7" s="300"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="174" t="s">

--- a/чек-лист.xlsx
+++ b/чек-лист.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Тест-кейсы" sheetId="2" r:id="rId1"/>
-    <sheet name="Легенда" sheetId="3" r:id="rId2"/>
+    <sheet name="МДМ" sheetId="4" r:id="rId2"/>
+    <sheet name="Легенда" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -664,7 +665,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="310">
   <si>
     <t>Название тестового сценария</t>
   </si>
@@ -1601,6 +1602,110 @@
   <si>
     <t xml:space="preserve">Минимальное количество символов в атрибутах </t>
   </si>
+  <si>
+    <t>4. Изменение номенклатуры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+5. Вывод в архив номенклатуры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+6. Снятие пометки на удаление???</t>
+  </si>
+  <si>
+    <t>Обновление данных номенклатуры из МДМ</t>
+  </si>
+  <si>
+    <t>8. Обновление справочника единицы измерения</t>
+  </si>
+  <si>
+    <t>9. Обновление справочника ЕОП</t>
+  </si>
+  <si>
+    <t>10. Обновление справочника ОКВЕД2</t>
+  </si>
+  <si>
+    <t>11. Обновление справочника ТНВЕД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+12. Обновление справочника ОКПД2</t>
+  </si>
+  <si>
+    <t>13. Обновление номенклатуры (когда меняется номенклатуру, чтобы проверить, что она пришла в систему подписчик)</t>
+  </si>
+  <si>
+    <t>Настройка подключения к МДМ системе</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Создание новой номенклатуры через подбор существующей  МДМ позиции
+</t>
+  </si>
+  <si>
+    <t>Создание номенклатуры</t>
+  </si>
+  <si>
+    <t>Открылся раздел со списком справочников</t>
+  </si>
+  <si>
+    <t>1. В боковом меню выбрать пункт “Справочники”</t>
+  </si>
+  <si>
+    <t>2. В разделе “Товары и услуги”, кликнуть на пункт “Номенклатура”</t>
+  </si>
+  <si>
+    <t>Номенклатура добавлена в список.</t>
+  </si>
+  <si>
+    <t>3. Кликнуть на кнопку “Создать”, в открывшейся форме, заполнить необ-ходимые реквизиты но-менклатуры.  Нажать на кнопку “Записать и закрыть”</t>
+  </si>
+  <si>
+    <t>Проверка формирования заявки на добавление записи в МДМ системе</t>
+  </si>
+  <si>
+    <t>Откроется форма со списком заявок на изменение</t>
+  </si>
+  <si>
+    <t>Заявка отправлена в МДМ систему.  При успешной отправке статус изменился на “Отправлена”</t>
+  </si>
+  <si>
+    <t>1. В боковом меню выбрать пункт “МДМ”, кликнуть на пункт “Заявка на изменение”</t>
+  </si>
+  <si>
+    <t>2.  Выбрать из списка созданную заявку, в от-крывшейся форме клик-нуть на кнопку “Отправить в МДМ”</t>
+  </si>
+  <si>
+    <t>3. Проверить отображение отправленной заявки в МДМ системе</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Открылся раздел </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Номенклатура” со списком наименований номенклатуры</t>
+    </r>
+  </si>
+  <si>
+    <t>Формирование заявки на добавление записи</t>
+  </si>
 </sst>
 </file>
 
@@ -1609,7 +1714,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000000"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1835,6 +1940,20 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="19">
     <fill>
@@ -1942,7 +2061,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2148,6 +2267,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2169,7 +2321,7 @@
     <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="329">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3053,6 +3205,54 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3090,6 +3290,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3389,8 +3601,8 @@
   </sheetPr>
   <dimension ref="A1:XFD548"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B350" sqref="B350"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -4300,26 +4512,26 @@
       <c r="H67" s="19"/>
     </row>
     <row r="68" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A68" s="287" t="s">
+      <c r="A68" s="309" t="s">
         <v>265</v>
       </c>
-      <c r="B68" s="297" t="s">
+      <c r="B68" s="319" t="s">
         <v>266</v>
       </c>
       <c r="C68" s="210"/>
       <c r="D68" s="14"/>
-      <c r="E68" s="289"/>
-      <c r="F68" s="291"/>
+      <c r="E68" s="311"/>
+      <c r="F68" s="313"/>
       <c r="G68" s="22"/>
       <c r="H68" s="19"/>
     </row>
     <row r="69" spans="1:8" s="15" customFormat="1" ht="42.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A69" s="288"/>
-      <c r="B69" s="298"/>
+      <c r="A69" s="310"/>
+      <c r="B69" s="320"/>
       <c r="C69" s="210"/>
       <c r="D69" s="14"/>
-      <c r="E69" s="290"/>
-      <c r="F69" s="290"/>
+      <c r="E69" s="312"/>
+      <c r="F69" s="312"/>
       <c r="G69" s="22"/>
       <c r="H69" s="19"/>
     </row>
@@ -5079,7 +5291,7 @@
       <c r="F128" s="17"/>
       <c r="H128" s="19"/>
     </row>
-    <row r="129" spans="1:8" s="63" customFormat="1" ht="43.2">
+    <row r="129" spans="1:8" s="63" customFormat="1" ht="43.2" collapsed="1">
       <c r="A129" s="131" t="s">
         <v>233</v>
       </c>
@@ -5090,7 +5302,7 @@
       <c r="F129" s="67"/>
       <c r="H129" s="68"/>
     </row>
-    <row r="130" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="130" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A130" s="243" t="s">
         <v>235</v>
       </c>
@@ -5108,7 +5320,7 @@
       <c r="G130" s="24"/>
       <c r="H130" s="19"/>
     </row>
-    <row r="131" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="131" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A131" s="243" t="s">
         <v>84</v>
       </c>
@@ -5124,7 +5336,7 @@
       <c r="G131" s="24"/>
       <c r="H131" s="19"/>
     </row>
-    <row r="132" spans="1:8" s="249" customFormat="1" outlineLevel="1">
+    <row r="132" spans="1:8" s="249" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A132" s="244" t="s">
         <v>73</v>
       </c>
@@ -5135,7 +5347,7 @@
       <c r="F132" s="248"/>
       <c r="H132" s="250"/>
     </row>
-    <row r="133" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="133" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A133" s="30" t="s">
         <v>66</v>
       </c>
@@ -5151,7 +5363,7 @@
       <c r="G133" s="50"/>
       <c r="H133" s="50"/>
     </row>
-    <row r="134" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="134" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A134" s="30" t="s">
         <v>129</v>
       </c>
@@ -5167,7 +5379,7 @@
       <c r="G134" s="50"/>
       <c r="H134" s="50"/>
     </row>
-    <row r="135" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="135" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A135" s="30" t="s">
         <v>130</v>
       </c>
@@ -5183,7 +5395,7 @@
       <c r="G135" s="50"/>
       <c r="H135" s="50"/>
     </row>
-    <row r="136" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="136" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A136" s="30" t="s">
         <v>24</v>
       </c>
@@ -5199,7 +5411,7 @@
       <c r="G136" s="50"/>
       <c r="H136" s="50"/>
     </row>
-    <row r="137" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="137" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A137" s="30" t="s">
         <v>40</v>
       </c>
@@ -5217,7 +5429,7 @@
       <c r="G137" s="50"/>
       <c r="H137" s="50"/>
     </row>
-    <row r="138" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="138" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A138" s="30" t="s">
         <v>51</v>
       </c>
@@ -5235,7 +5447,7 @@
       <c r="G138" s="50"/>
       <c r="H138" s="50"/>
     </row>
-    <row r="139" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="139" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A139" s="30" t="s">
         <v>135</v>
       </c>
@@ -5253,7 +5465,7 @@
       <c r="G139" s="50"/>
       <c r="H139" s="50"/>
     </row>
-    <row r="140" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="140" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A140" s="30" t="s">
         <v>56</v>
       </c>
@@ -5271,7 +5483,7 @@
       <c r="G140" s="50"/>
       <c r="H140" s="50"/>
     </row>
-    <row r="141" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="141" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A141" s="110" t="s">
         <v>58</v>
       </c>
@@ -5289,7 +5501,7 @@
       <c r="G141" s="50"/>
       <c r="H141" s="50"/>
     </row>
-    <row r="142" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="142" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A142" s="30" t="s">
         <v>12</v>
       </c>
@@ -5307,7 +5519,7 @@
       <c r="G142" s="50"/>
       <c r="H142" s="50"/>
     </row>
-    <row r="143" spans="1:8" s="22" customFormat="1" ht="43.2" outlineLevel="1">
+    <row r="143" spans="1:8" s="22" customFormat="1" ht="43.2" hidden="1" outlineLevel="1">
       <c r="A143" s="30" t="s">
         <v>281</v>
       </c>
@@ -5325,7 +5537,7 @@
       <c r="G143" s="50"/>
       <c r="H143" s="50"/>
     </row>
-    <row r="144" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="144" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A144" s="30" t="s">
         <v>17</v>
       </c>
@@ -5343,7 +5555,7 @@
       <c r="G144" s="50"/>
       <c r="H144" s="50"/>
     </row>
-    <row r="145" spans="1:8" s="63" customFormat="1" ht="28.8">
+    <row r="145" spans="1:8" s="63" customFormat="1" ht="28.8" collapsed="1">
       <c r="A145" s="131" t="s">
         <v>163</v>
       </c>
@@ -5354,7 +5566,7 @@
       <c r="F145" s="67"/>
       <c r="H145" s="68"/>
     </row>
-    <row r="146" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="146" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A146" s="30" t="s">
         <v>164</v>
       </c>
@@ -5370,7 +5582,7 @@
       <c r="G146" s="132"/>
       <c r="H146" s="50"/>
     </row>
-    <row r="147" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="147" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A147" s="30" t="s">
         <v>236</v>
       </c>
@@ -5386,7 +5598,7 @@
       <c r="G147" s="21"/>
       <c r="H147" s="50"/>
     </row>
-    <row r="148" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="148" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A148" s="30" t="s">
         <v>237</v>
       </c>
@@ -5402,7 +5614,7 @@
       <c r="G148" s="21"/>
       <c r="H148" s="50"/>
     </row>
-    <row r="149" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="149" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A149" s="30" t="s">
         <v>238</v>
       </c>
@@ -5420,7 +5632,7 @@
       <c r="G149" s="21"/>
       <c r="H149" s="50"/>
     </row>
-    <row r="150" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="150" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A150" s="30" t="s">
         <v>239</v>
       </c>
@@ -5438,7 +5650,7 @@
       <c r="G150" s="21"/>
       <c r="H150" s="50"/>
     </row>
-    <row r="151" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="151" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A151" s="30" t="s">
         <v>241</v>
       </c>
@@ -5454,7 +5666,7 @@
       <c r="G151" s="21"/>
       <c r="H151" s="50"/>
     </row>
-    <row r="152" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="152" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A152" s="30" t="s">
         <v>240</v>
       </c>
@@ -5470,7 +5682,7 @@
       <c r="G152" s="21"/>
       <c r="H152" s="50"/>
     </row>
-    <row r="153" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="153" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A153" s="231" t="s">
         <v>234</v>
       </c>
@@ -5482,7 +5694,7 @@
       <c r="G153" s="21"/>
       <c r="H153" s="50"/>
     </row>
-    <row r="154" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="154" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A154" s="30" t="s">
         <v>194</v>
       </c>
@@ -5498,7 +5710,7 @@
       <c r="G154" s="21"/>
       <c r="H154" s="50"/>
     </row>
-    <row r="155" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="155" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A155" s="30" t="s">
         <v>195</v>
       </c>
@@ -5514,7 +5726,7 @@
       <c r="G155" s="21"/>
       <c r="H155" s="50"/>
     </row>
-    <row r="156" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="156" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A156" s="30" t="s">
         <v>196</v>
       </c>
@@ -5530,7 +5742,7 @@
       <c r="G156" s="21"/>
       <c r="H156" s="50"/>
     </row>
-    <row r="157" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="157" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A157" s="30" t="s">
         <v>197</v>
       </c>
@@ -5546,7 +5758,7 @@
       <c r="G157" s="21"/>
       <c r="H157" s="50"/>
     </row>
-    <row r="158" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="158" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A158" s="30" t="s">
         <v>198</v>
       </c>
@@ -5562,7 +5774,7 @@
       <c r="G158" s="21"/>
       <c r="H158" s="50"/>
     </row>
-    <row r="159" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="159" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A159" s="30" t="s">
         <v>199</v>
       </c>
@@ -5578,7 +5790,7 @@
       <c r="G159" s="21"/>
       <c r="H159" s="50"/>
     </row>
-    <row r="160" spans="1:8" s="130" customFormat="1" outlineLevel="1">
+    <row r="160" spans="1:8" s="130" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A160" s="126" t="s">
         <v>165</v>
       </c>
@@ -5590,7 +5802,7 @@
       <c r="G160" s="41"/>
       <c r="H160" s="41"/>
     </row>
-    <row r="161" spans="1:8" s="228" customFormat="1" outlineLevel="1">
+    <row r="161" spans="1:8" s="228" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A161" s="30" t="s">
         <v>242</v>
       </c>
@@ -5608,7 +5820,7 @@
       <c r="G161" s="21"/>
       <c r="H161" s="50"/>
     </row>
-    <row r="162" spans="1:8" s="228" customFormat="1" outlineLevel="1">
+    <row r="162" spans="1:8" s="228" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A162" s="30" t="s">
         <v>200</v>
       </c>
@@ -5626,7 +5838,7 @@
       <c r="G162" s="21"/>
       <c r="H162" s="50"/>
     </row>
-    <row r="163" spans="1:8" s="228" customFormat="1" outlineLevel="1">
+    <row r="163" spans="1:8" s="228" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A163" s="30" t="s">
         <v>201</v>
       </c>
@@ -5644,7 +5856,7 @@
       <c r="G163" s="21"/>
       <c r="H163" s="50"/>
     </row>
-    <row r="164" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="164" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A164" s="30" t="s">
         <v>191</v>
       </c>
@@ -5660,7 +5872,7 @@
       <c r="G164" s="21"/>
       <c r="H164" s="50"/>
     </row>
-    <row r="165" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="165" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A165" s="30" t="s">
         <v>192</v>
       </c>
@@ -5678,7 +5890,7 @@
       <c r="G165" s="21"/>
       <c r="H165" s="50"/>
     </row>
-    <row r="166" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="166" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A166" s="30" t="s">
         <v>190</v>
       </c>
@@ -5696,7 +5908,7 @@
       <c r="G166" s="21"/>
       <c r="H166" s="50"/>
     </row>
-    <row r="167" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="167" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A167" s="30" t="s">
         <v>193</v>
       </c>
@@ -5714,7 +5926,7 @@
       <c r="G167" s="21"/>
       <c r="H167" s="50"/>
     </row>
-    <row r="168" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="168" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A168" s="30" t="s">
         <v>186</v>
       </c>
@@ -5732,7 +5944,7 @@
       <c r="G168" s="21"/>
       <c r="H168" s="50"/>
     </row>
-    <row r="169" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="169" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A169" s="30" t="s">
         <v>187</v>
       </c>
@@ -5750,7 +5962,7 @@
       <c r="G169" s="21"/>
       <c r="H169" s="50"/>
     </row>
-    <row r="170" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="170" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A170" s="30" t="s">
         <v>188</v>
       </c>
@@ -5768,7 +5980,7 @@
       <c r="G170" s="21"/>
       <c r="H170" s="50"/>
     </row>
-    <row r="171" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="171" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A171" s="30" t="s">
         <v>189</v>
       </c>
@@ -5786,7 +5998,7 @@
       <c r="G171" s="21"/>
       <c r="H171" s="50"/>
     </row>
-    <row r="172" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="172" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A172" s="30" t="s">
         <v>166</v>
       </c>
@@ -5802,7 +6014,7 @@
       <c r="G172" s="21"/>
       <c r="H172" s="50"/>
     </row>
-    <row r="173" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="173" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A173" s="30" t="s">
         <v>168</v>
       </c>
@@ -5818,7 +6030,7 @@
       <c r="G173" s="21"/>
       <c r="H173" s="50"/>
     </row>
-    <row r="174" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="174" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A174" s="30" t="s">
         <v>167</v>
       </c>
@@ -5834,7 +6046,7 @@
       <c r="G174" s="21"/>
       <c r="H174" s="50"/>
     </row>
-    <row r="175" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="175" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A175" s="30" t="s">
         <v>183</v>
       </c>
@@ -5850,7 +6062,7 @@
       <c r="G175" s="21"/>
       <c r="H175" s="50"/>
     </row>
-    <row r="176" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="176" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A176" s="30" t="s">
         <v>181</v>
       </c>
@@ -5866,7 +6078,7 @@
       <c r="G176" s="21"/>
       <c r="H176" s="50"/>
     </row>
-    <row r="177" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="177" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A177" s="30" t="s">
         <v>182</v>
       </c>
@@ -5882,7 +6094,7 @@
       <c r="G177" s="21"/>
       <c r="H177" s="50"/>
     </row>
-    <row r="178" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="178" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A178" s="30" t="s">
         <v>176</v>
       </c>
@@ -5898,7 +6110,7 @@
       <c r="G178" s="21"/>
       <c r="H178" s="50"/>
     </row>
-    <row r="179" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="179" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A179" s="30" t="s">
         <v>177</v>
       </c>
@@ -5914,7 +6126,7 @@
       <c r="G179" s="21"/>
       <c r="H179" s="50"/>
     </row>
-    <row r="180" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="180" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A180" s="30" t="s">
         <v>178</v>
       </c>
@@ -5930,7 +6142,7 @@
       <c r="G180" s="21"/>
       <c r="H180" s="50"/>
     </row>
-    <row r="181" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="181" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A181" s="30" t="s">
         <v>185</v>
       </c>
@@ -5946,7 +6158,7 @@
       <c r="G181" s="21"/>
       <c r="H181" s="50"/>
     </row>
-    <row r="182" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="182" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A182" s="30" t="s">
         <v>179</v>
       </c>
@@ -5962,7 +6174,7 @@
       <c r="G182" s="21"/>
       <c r="H182" s="50"/>
     </row>
-    <row r="183" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="183" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A183" s="30" t="s">
         <v>180</v>
       </c>
@@ -5978,7 +6190,7 @@
       <c r="G183" s="21"/>
       <c r="H183" s="50"/>
     </row>
-    <row r="184" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="184" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A184" s="30"/>
       <c r="B184" s="139"/>
       <c r="C184" s="10"/>
@@ -5988,7 +6200,7 @@
       <c r="G184" s="21"/>
       <c r="H184" s="50"/>
     </row>
-    <row r="185" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="185" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A185" s="30"/>
       <c r="B185" s="139"/>
       <c r="C185" s="10"/>
@@ -5998,7 +6210,7 @@
       <c r="G185" s="21"/>
       <c r="H185" s="50"/>
     </row>
-    <row r="186" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="186" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A186" s="30"/>
       <c r="B186" s="139"/>
       <c r="C186" s="10"/>
@@ -6008,7 +6220,7 @@
       <c r="G186" s="132"/>
       <c r="H186" s="50"/>
     </row>
-    <row r="187" spans="1:8" s="285" customFormat="1" ht="28.8">
+    <row r="187" spans="1:8" s="285" customFormat="1" ht="28.8" collapsed="1">
       <c r="A187" s="242" t="s">
         <v>232</v>
       </c>
@@ -6020,7 +6232,7 @@
       <c r="G187" s="284"/>
       <c r="H187" s="283"/>
     </row>
-    <row r="188" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="188" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A188" s="243" t="s">
         <v>235</v>
       </c>
@@ -6036,7 +6248,7 @@
       </c>
       <c r="H188" s="19"/>
     </row>
-    <row r="189" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="189" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A189" s="243" t="s">
         <v>84</v>
       </c>
@@ -6051,7 +6263,7 @@
       </c>
       <c r="H189" s="19"/>
     </row>
-    <row r="190" spans="1:8" s="249" customFormat="1" outlineLevel="1">
+    <row r="190" spans="1:8" s="249" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A190" s="244" t="s">
         <v>73</v>
       </c>
@@ -6062,7 +6274,7 @@
       <c r="F190" s="248"/>
       <c r="H190" s="250"/>
     </row>
-    <row r="191" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="191" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A191" s="30" t="s">
         <v>66</v>
       </c>
@@ -6078,7 +6290,7 @@
       <c r="G191" s="50"/>
       <c r="H191" s="50"/>
     </row>
-    <row r="192" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="192" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A192" s="30" t="s">
         <v>129</v>
       </c>
@@ -6094,7 +6306,7 @@
       <c r="G192" s="50"/>
       <c r="H192" s="50"/>
     </row>
-    <row r="193" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="193" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A193" s="30" t="s">
         <v>130</v>
       </c>
@@ -6110,7 +6322,7 @@
       <c r="G193" s="50"/>
       <c r="H193" s="50"/>
     </row>
-    <row r="194" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="194" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A194" s="30" t="s">
         <v>24</v>
       </c>
@@ -6126,7 +6338,7 @@
       <c r="G194" s="50"/>
       <c r="H194" s="50"/>
     </row>
-    <row r="195" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="195" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A195" s="30" t="s">
         <v>40</v>
       </c>
@@ -6144,7 +6356,7 @@
       <c r="G195" s="50"/>
       <c r="H195" s="50"/>
     </row>
-    <row r="196" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="196" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A196" s="30" t="s">
         <v>51</v>
       </c>
@@ -6162,7 +6374,7 @@
       <c r="G196" s="50"/>
       <c r="H196" s="50"/>
     </row>
-    <row r="197" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="197" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A197" s="30" t="s">
         <v>135</v>
       </c>
@@ -6180,7 +6392,7 @@
       <c r="G197" s="50"/>
       <c r="H197" s="50"/>
     </row>
-    <row r="198" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="198" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A198" s="30" t="s">
         <v>244</v>
       </c>
@@ -6198,7 +6410,7 @@
       <c r="G198" s="50"/>
       <c r="H198" s="50"/>
     </row>
-    <row r="199" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="199" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A199" s="110" t="s">
         <v>58</v>
       </c>
@@ -6216,7 +6428,7 @@
       <c r="G199" s="50"/>
       <c r="H199" s="50"/>
     </row>
-    <row r="200" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="200" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A200" s="30" t="s">
         <v>12</v>
       </c>
@@ -6234,7 +6446,7 @@
       <c r="G200" s="50"/>
       <c r="H200" s="50"/>
     </row>
-    <row r="201" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="201" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A201" s="30" t="s">
         <v>27</v>
       </c>
@@ -6252,7 +6464,7 @@
       <c r="G201" s="50"/>
       <c r="H201" s="50"/>
     </row>
-    <row r="202" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="202" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A202" s="30" t="s">
         <v>17</v>
       </c>
@@ -6444,7 +6656,7 @@
       <c r="C214" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="D214" s="292" t="s">
+      <c r="D214" s="314" t="s">
         <v>38</v>
       </c>
       <c r="E214" s="207" t="s">
@@ -6464,7 +6676,7 @@
       <c r="C215" s="103">
         <v>2147483647</v>
       </c>
-      <c r="D215" s="293"/>
+      <c r="D215" s="315"/>
       <c r="E215" s="207" t="s">
         <v>113</v>
       </c>
@@ -6482,7 +6694,7 @@
       <c r="C216" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D216" s="293"/>
+      <c r="D216" s="315"/>
       <c r="E216" s="207" t="s">
         <v>113</v>
       </c>
@@ -6500,7 +6712,7 @@
       <c r="C217" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D217" s="293"/>
+      <c r="D217" s="315"/>
       <c r="E217" s="207" t="s">
         <v>113</v>
       </c>
@@ -6518,7 +6730,7 @@
       <c r="C218" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D218" s="293"/>
+      <c r="D218" s="315"/>
       <c r="E218" s="207" t="s">
         <v>113</v>
       </c>
@@ -6536,7 +6748,7 @@
       <c r="C219" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D219" s="293"/>
+      <c r="D219" s="315"/>
       <c r="E219" s="207" t="s">
         <v>113</v>
       </c>
@@ -6554,7 +6766,7 @@
       <c r="C220" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D220" s="293"/>
+      <c r="D220" s="315"/>
       <c r="E220" s="207" t="s">
         <v>113</v>
       </c>
@@ -6570,7 +6782,7 @@
       </c>
       <c r="B221" s="139"/>
       <c r="C221" s="10"/>
-      <c r="D221" s="293"/>
+      <c r="D221" s="315"/>
       <c r="E221" s="207" t="s">
         <v>113</v>
       </c>
@@ -6588,7 +6800,7 @@
       <c r="C222" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="D222" s="293"/>
+      <c r="D222" s="315"/>
       <c r="E222" s="207" t="s">
         <v>113</v>
       </c>
@@ -25032,7 +25244,7 @@
       <c r="C346" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="D346" s="294"/>
+      <c r="D346" s="316"/>
       <c r="E346" s="181" t="s">
         <v>103</v>
       </c>
@@ -25048,7 +25260,7 @@
       </c>
       <c r="B347" s="25"/>
       <c r="C347" s="29"/>
-      <c r="D347" s="296"/>
+      <c r="D347" s="318"/>
       <c r="E347" s="181" t="s">
         <v>103</v>
       </c>
@@ -26723,7 +26935,7 @@
       <c r="A449" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D449" s="292" t="s">
+      <c r="D449" s="314" t="s">
         <v>38</v>
       </c>
       <c r="E449" s="207" t="s">
@@ -26739,7 +26951,7 @@
       </c>
       <c r="B450" s="10"/>
       <c r="C450" s="10"/>
-      <c r="D450" s="293"/>
+      <c r="D450" s="315"/>
       <c r="E450" s="207" t="s">
         <v>113</v>
       </c>
@@ -26757,7 +26969,7 @@
       <c r="C451" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="D451" s="293"/>
+      <c r="D451" s="315"/>
       <c r="E451" s="207" t="s">
         <v>113</v>
       </c>
@@ -26775,7 +26987,7 @@
       <c r="C452" s="103">
         <v>2147483648</v>
       </c>
-      <c r="D452" s="293"/>
+      <c r="D452" s="315"/>
       <c r="E452" s="207" t="s">
         <v>113</v>
       </c>
@@ -26793,7 +27005,7 @@
       <c r="C453" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D453" s="293"/>
+      <c r="D453" s="315"/>
       <c r="E453" s="207" t="s">
         <v>113</v>
       </c>
@@ -26811,7 +27023,7 @@
       <c r="C454" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D454" s="293"/>
+      <c r="D454" s="315"/>
       <c r="E454" s="207" t="s">
         <v>113</v>
       </c>
@@ -26829,7 +27041,7 @@
       <c r="C455" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D455" s="293"/>
+      <c r="D455" s="315"/>
       <c r="E455" s="207" t="s">
         <v>113</v>
       </c>
@@ -26847,7 +27059,7 @@
       <c r="C456" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D456" s="293"/>
+      <c r="D456" s="315"/>
       <c r="E456" s="207" t="s">
         <v>113</v>
       </c>
@@ -26865,7 +27077,7 @@
       <c r="C457" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D457" s="293"/>
+      <c r="D457" s="315"/>
       <c r="E457" s="207" t="s">
         <v>113</v>
       </c>
@@ -26881,7 +27093,7 @@
       </c>
       <c r="B458" s="10"/>
       <c r="C458" s="10"/>
-      <c r="D458" s="293"/>
+      <c r="D458" s="315"/>
       <c r="E458" s="207" t="s">
         <v>113</v>
       </c>
@@ -26899,7 +27111,7 @@
       <c r="C459" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="D459" s="293"/>
+      <c r="D459" s="315"/>
       <c r="E459" s="207" t="s">
         <v>113</v>
       </c>
@@ -27561,7 +27773,7 @@
       </c>
       <c r="B502" s="11"/>
       <c r="C502" s="14"/>
-      <c r="D502" s="294" t="s">
+      <c r="D502" s="316" t="s">
         <v>37</v>
       </c>
       <c r="E502" s="181" t="s">
@@ -27579,7 +27791,7 @@
       </c>
       <c r="B503" s="58"/>
       <c r="C503" s="32"/>
-      <c r="D503" s="295"/>
+      <c r="D503" s="317"/>
       <c r="E503" s="181" t="s">
         <v>103</v>
       </c>
@@ -27595,7 +27807,7 @@
       </c>
       <c r="B504" s="58"/>
       <c r="C504" s="32"/>
-      <c r="D504" s="295"/>
+      <c r="D504" s="317"/>
       <c r="E504" s="181" t="s">
         <v>103</v>
       </c>
@@ -27611,7 +27823,7 @@
       </c>
       <c r="B505" s="31"/>
       <c r="C505" s="32"/>
-      <c r="D505" s="295"/>
+      <c r="D505" s="317"/>
       <c r="E505" s="181" t="s">
         <v>103</v>
       </c>
@@ -27627,7 +27839,7 @@
       </c>
       <c r="B506" s="31"/>
       <c r="C506" s="32"/>
-      <c r="D506" s="296"/>
+      <c r="D506" s="318"/>
       <c r="E506" s="181" t="s">
         <v>103</v>
       </c>
@@ -28299,6 +28511,211 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H35"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="45.5546875" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1"/>
+    <col min="3" max="3" width="44.44140625" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="15.6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" s="292" customFormat="1">
+      <c r="A3" s="292" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="292" customFormat="1" ht="36.6" customHeight="1">
+      <c r="A5" s="290" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" s="291"/>
+    </row>
+    <row r="6" spans="1:8" s="289" customFormat="1" ht="47.4" customHeight="1">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+    </row>
+    <row r="7" spans="1:8" s="175" customFormat="1"/>
+    <row r="8" spans="1:8" s="175" customFormat="1" ht="44.4" customHeight="1"/>
+    <row r="9" spans="1:8" s="299" customFormat="1" ht="30" customHeight="1">
+      <c r="A9" s="299" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="288" customFormat="1" ht="27" customHeight="1">
+      <c r="A10" s="321" t="s">
+        <v>309</v>
+      </c>
+      <c r="B10" s="324"/>
+      <c r="C10" s="304" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="301" t="s">
+        <v>297</v>
+      </c>
+      <c r="E10" s="289"/>
+    </row>
+    <row r="11" spans="1:8" s="288" customFormat="1" ht="39.6" customHeight="1">
+      <c r="A11" s="322"/>
+      <c r="B11" s="325"/>
+      <c r="C11" s="293" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" s="301" t="s">
+        <v>308</v>
+      </c>
+      <c r="E11" s="289"/>
+    </row>
+    <row r="12" spans="1:8" s="288" customFormat="1" ht="62.4" customHeight="1" thickBot="1">
+      <c r="A12" s="323"/>
+      <c r="B12" s="326"/>
+      <c r="C12" s="293" t="s">
+        <v>301</v>
+      </c>
+      <c r="D12" s="301" t="s">
+        <v>300</v>
+      </c>
+      <c r="E12" s="289"/>
+    </row>
+    <row r="13" spans="1:8" s="288" customFormat="1" ht="44.4" customHeight="1" thickBot="1">
+      <c r="A13" s="300" t="s">
+        <v>302</v>
+      </c>
+      <c r="B13" s="296"/>
+      <c r="C13" s="305" t="s">
+        <v>305</v>
+      </c>
+      <c r="D13" s="306" t="s">
+        <v>303</v>
+      </c>
+      <c r="E13" s="289"/>
+    </row>
+    <row r="14" spans="1:8" s="288" customFormat="1" ht="53.4" customHeight="1">
+      <c r="A14" s="294"/>
+      <c r="B14" s="297"/>
+      <c r="C14" s="307" t="s">
+        <v>306</v>
+      </c>
+      <c r="D14" s="303" t="s">
+        <v>304</v>
+      </c>
+      <c r="E14" s="289"/>
+    </row>
+    <row r="15" spans="1:8" s="288" customFormat="1" ht="56.4" customHeight="1">
+      <c r="A15" s="295"/>
+      <c r="B15" s="298"/>
+      <c r="C15" s="308" t="s">
+        <v>307</v>
+      </c>
+      <c r="D15" s="302"/>
+      <c r="E15" s="289"/>
+    </row>
+    <row r="16" spans="1:8" s="292" customFormat="1">
+      <c r="A16" s="292" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="287" customFormat="1"/>
+    <row r="18" spans="1:2" s="288" customFormat="1"/>
+    <row r="19" spans="1:2" s="292" customFormat="1" ht="28.8">
+      <c r="A19" s="291" t="s">
+        <v>285</v>
+      </c>
+      <c r="B19" s="291"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+    </row>
+    <row r="21" spans="1:2" s="292" customFormat="1" ht="28.8">
+      <c r="A21" s="291" t="s">
+        <v>286</v>
+      </c>
+      <c r="B21" s="291"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+    </row>
+    <row r="23" spans="1:2" s="292" customFormat="1">
+      <c r="A23" s="292" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="292" customFormat="1">
+      <c r="A25" s="292" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="292" customFormat="1">
+      <c r="A27" s="292" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="287" customFormat="1">
+      <c r="A29" s="287" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="292" customFormat="1">
+      <c r="A31" s="292" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="292" customFormat="1" ht="28.8">
+      <c r="A33" s="291" t="s">
+        <v>292</v>
+      </c>
+      <c r="B33" s="291"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+    </row>
+    <row r="35" spans="1:2" s="292" customFormat="1" ht="43.2">
+      <c r="A35" s="291" t="s">
+        <v>293</v>
+      </c>
+      <c r="B35" s="291"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -28349,10 +28766,10 @@
       <c r="B5" s="173"/>
     </row>
     <row r="7" spans="1:2" ht="15.6">
-      <c r="A7" s="299" t="s">
+      <c r="A7" s="327" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="300"/>
+      <c r="B7" s="328"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="174" t="s">

--- a/чек-лист.xlsx
+++ b/чек-лист.xlsx
@@ -3349,6 +3349,12 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3403,12 +3409,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3703,8 +3703,8 @@
   </sheetPr>
   <dimension ref="A1:XFD550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -4636,26 +4636,26 @@
       <c r="H67" s="19"/>
     </row>
     <row r="68" spans="1:8" s="15" customFormat="1" outlineLevel="1">
-      <c r="A68" s="308" t="s">
+      <c r="A68" s="310" t="s">
         <v>263</v>
       </c>
-      <c r="B68" s="318" t="s">
+      <c r="B68" s="320" t="s">
         <v>264</v>
       </c>
       <c r="C68" s="210"/>
       <c r="D68" s="14"/>
-      <c r="E68" s="310"/>
-      <c r="F68" s="312"/>
+      <c r="E68" s="312"/>
+      <c r="F68" s="314"/>
       <c r="G68" s="22"/>
       <c r="H68" s="19"/>
     </row>
     <row r="69" spans="1:8" s="15" customFormat="1" ht="42.6" customHeight="1" outlineLevel="1">
-      <c r="A69" s="309"/>
-      <c r="B69" s="319"/>
+      <c r="A69" s="311"/>
+      <c r="B69" s="321"/>
       <c r="C69" s="210"/>
       <c r="D69" s="14"/>
-      <c r="E69" s="311"/>
-      <c r="F69" s="311"/>
+      <c r="E69" s="313"/>
+      <c r="F69" s="313"/>
       <c r="G69" s="22"/>
       <c r="H69" s="19"/>
     </row>
@@ -6589,12 +6589,12 @@
       <c r="H201" s="50"/>
     </row>
     <row r="202" spans="1:8" s="22" customFormat="1" ht="15.6" hidden="1" outlineLevel="1">
-      <c r="A202" s="329" t="s">
+      <c r="A202" s="309" t="s">
         <v>310</v>
       </c>
       <c r="B202" s="139"/>
       <c r="C202" s="10"/>
-      <c r="D202" s="328"/>
+      <c r="D202" s="308"/>
       <c r="E202" s="207" t="s">
         <v>113</v>
       </c>
@@ -6605,12 +6605,12 @@
       <c r="H202" s="50"/>
     </row>
     <row r="203" spans="1:8" s="22" customFormat="1" ht="15.6" hidden="1" outlineLevel="1">
-      <c r="A203" s="329" t="s">
+      <c r="A203" s="309" t="s">
         <v>311</v>
       </c>
       <c r="B203" s="139"/>
       <c r="C203" s="10"/>
-      <c r="D203" s="328"/>
+      <c r="D203" s="308"/>
       <c r="E203" s="207" t="s">
         <v>113</v>
       </c>
@@ -6812,7 +6812,7 @@
       <c r="C216" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="D216" s="313" t="s">
+      <c r="D216" s="315" t="s">
         <v>38</v>
       </c>
       <c r="E216" s="207" t="s">
@@ -6832,7 +6832,7 @@
       <c r="C217" s="103">
         <v>2147483647</v>
       </c>
-      <c r="D217" s="314"/>
+      <c r="D217" s="316"/>
       <c r="E217" s="207" t="s">
         <v>113</v>
       </c>
@@ -6850,7 +6850,7 @@
       <c r="C218" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D218" s="314"/>
+      <c r="D218" s="316"/>
       <c r="E218" s="207" t="s">
         <v>113</v>
       </c>
@@ -6868,7 +6868,7 @@
       <c r="C219" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D219" s="314"/>
+      <c r="D219" s="316"/>
       <c r="E219" s="207" t="s">
         <v>113</v>
       </c>
@@ -6886,7 +6886,7 @@
       <c r="C220" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D220" s="314"/>
+      <c r="D220" s="316"/>
       <c r="E220" s="207" t="s">
         <v>113</v>
       </c>
@@ -6904,7 +6904,7 @@
       <c r="C221" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D221" s="314"/>
+      <c r="D221" s="316"/>
       <c r="E221" s="207" t="s">
         <v>113</v>
       </c>
@@ -6922,7 +6922,7 @@
       <c r="C222" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D222" s="314"/>
+      <c r="D222" s="316"/>
       <c r="E222" s="207" t="s">
         <v>113</v>
       </c>
@@ -6938,7 +6938,7 @@
       </c>
       <c r="B223" s="139"/>
       <c r="C223" s="10"/>
-      <c r="D223" s="314"/>
+      <c r="D223" s="316"/>
       <c r="E223" s="207" t="s">
         <v>113</v>
       </c>
@@ -6956,7 +6956,7 @@
       <c r="C224" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="D224" s="314"/>
+      <c r="D224" s="316"/>
       <c r="E224" s="207" t="s">
         <v>113</v>
       </c>
@@ -25400,7 +25400,7 @@
       <c r="C348" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="D348" s="315"/>
+      <c r="D348" s="317"/>
       <c r="E348" s="181" t="s">
         <v>103</v>
       </c>
@@ -25416,7 +25416,7 @@
       </c>
       <c r="B349" s="25"/>
       <c r="C349" s="29"/>
-      <c r="D349" s="317"/>
+      <c r="D349" s="319"/>
       <c r="E349" s="181" t="s">
         <v>103</v>
       </c>
@@ -27091,7 +27091,7 @@
       <c r="A451" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D451" s="313" t="s">
+      <c r="D451" s="315" t="s">
         <v>38</v>
       </c>
       <c r="E451" s="207" t="s">
@@ -27107,7 +27107,7 @@
       </c>
       <c r="B452" s="10"/>
       <c r="C452" s="10"/>
-      <c r="D452" s="314"/>
+      <c r="D452" s="316"/>
       <c r="E452" s="207" t="s">
         <v>113</v>
       </c>
@@ -27125,7 +27125,7 @@
       <c r="C453" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="D453" s="314"/>
+      <c r="D453" s="316"/>
       <c r="E453" s="207" t="s">
         <v>113</v>
       </c>
@@ -27143,7 +27143,7 @@
       <c r="C454" s="103">
         <v>2147483648</v>
       </c>
-      <c r="D454" s="314"/>
+      <c r="D454" s="316"/>
       <c r="E454" s="207" t="s">
         <v>113</v>
       </c>
@@ -27161,7 +27161,7 @@
       <c r="C455" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D455" s="314"/>
+      <c r="D455" s="316"/>
       <c r="E455" s="207" t="s">
         <v>113</v>
       </c>
@@ -27179,7 +27179,7 @@
       <c r="C456" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D456" s="314"/>
+      <c r="D456" s="316"/>
       <c r="E456" s="207" t="s">
         <v>113</v>
       </c>
@@ -27197,7 +27197,7 @@
       <c r="C457" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D457" s="314"/>
+      <c r="D457" s="316"/>
       <c r="E457" s="207" t="s">
         <v>113</v>
       </c>
@@ -27215,7 +27215,7 @@
       <c r="C458" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D458" s="314"/>
+      <c r="D458" s="316"/>
       <c r="E458" s="207" t="s">
         <v>113</v>
       </c>
@@ -27233,7 +27233,7 @@
       <c r="C459" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D459" s="314"/>
+      <c r="D459" s="316"/>
       <c r="E459" s="207" t="s">
         <v>113</v>
       </c>
@@ -27249,7 +27249,7 @@
       </c>
       <c r="B460" s="10"/>
       <c r="C460" s="10"/>
-      <c r="D460" s="314"/>
+      <c r="D460" s="316"/>
       <c r="E460" s="207" t="s">
         <v>113</v>
       </c>
@@ -27267,7 +27267,7 @@
       <c r="C461" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="D461" s="314"/>
+      <c r="D461" s="316"/>
       <c r="E461" s="207" t="s">
         <v>113</v>
       </c>
@@ -27929,7 +27929,7 @@
       </c>
       <c r="B504" s="11"/>
       <c r="C504" s="14"/>
-      <c r="D504" s="315" t="s">
+      <c r="D504" s="317" t="s">
         <v>37</v>
       </c>
       <c r="E504" s="181" t="s">
@@ -27947,7 +27947,7 @@
       </c>
       <c r="B505" s="58"/>
       <c r="C505" s="32"/>
-      <c r="D505" s="316"/>
+      <c r="D505" s="318"/>
       <c r="E505" s="181" t="s">
         <v>103</v>
       </c>
@@ -27963,7 +27963,7 @@
       </c>
       <c r="B506" s="58"/>
       <c r="C506" s="32"/>
-      <c r="D506" s="316"/>
+      <c r="D506" s="318"/>
       <c r="E506" s="181" t="s">
         <v>103</v>
       </c>
@@ -27979,7 +27979,7 @@
       </c>
       <c r="B507" s="31"/>
       <c r="C507" s="32"/>
-      <c r="D507" s="316"/>
+      <c r="D507" s="318"/>
       <c r="E507" s="181" t="s">
         <v>103</v>
       </c>
@@ -27995,7 +27995,7 @@
       </c>
       <c r="B508" s="31"/>
       <c r="C508" s="32"/>
-      <c r="D508" s="317"/>
+      <c r="D508" s="319"/>
       <c r="E508" s="181" t="s">
         <v>103</v>
       </c>
@@ -28725,10 +28725,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="287" customFormat="1" ht="27" customHeight="1">
-      <c r="A10" s="320" t="s">
+      <c r="A10" s="322" t="s">
         <v>307</v>
       </c>
-      <c r="B10" s="323"/>
+      <c r="B10" s="325"/>
       <c r="C10" s="303" t="s">
         <v>296</v>
       </c>
@@ -28738,8 +28738,8 @@
       <c r="E10" s="288"/>
     </row>
     <row r="11" spans="1:8" s="287" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A11" s="321"/>
-      <c r="B11" s="324"/>
+      <c r="A11" s="323"/>
+      <c r="B11" s="326"/>
       <c r="C11" s="292" t="s">
         <v>297</v>
       </c>
@@ -28749,8 +28749,8 @@
       <c r="E11" s="288"/>
     </row>
     <row r="12" spans="1:8" s="287" customFormat="1" ht="62.4" customHeight="1" thickBot="1">
-      <c r="A12" s="322"/>
-      <c r="B12" s="325"/>
+      <c r="A12" s="324"/>
+      <c r="B12" s="327"/>
       <c r="C12" s="292" t="s">
         <v>299</v>
       </c>
@@ -28922,10 +28922,10 @@
       <c r="B5" s="173"/>
     </row>
     <row r="7" spans="1:2" ht="15.6">
-      <c r="A7" s="326" t="s">
+      <c r="A7" s="328" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="327"/>
+      <c r="B7" s="329"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="174" t="s">

--- a/чек-лист.xlsx
+++ b/чек-лист.xlsx
@@ -3703,8 +3703,8 @@
   </sheetPr>
   <dimension ref="A1:XFD550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -4420,7 +4420,7 @@
       <c r="G51" s="55"/>
       <c r="H51" s="55"/>
     </row>
-    <row r="52" spans="1:8" s="141" customFormat="1" ht="43.2">
+    <row r="52" spans="1:8" s="141" customFormat="1" ht="43.2" collapsed="1">
       <c r="A52" s="142" t="s">
         <v>217</v>
       </c>
@@ -4431,7 +4431,7 @@
       <c r="F52" s="145"/>
       <c r="H52" s="146"/>
     </row>
-    <row r="53" spans="1:8" s="255" customFormat="1" outlineLevel="1">
+    <row r="53" spans="1:8" s="255" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A53" s="107" t="s">
         <v>255</v>
       </c>
@@ -4445,7 +4445,7 @@
       <c r="G53" s="254"/>
       <c r="H53" s="233"/>
     </row>
-    <row r="54" spans="1:8" s="255" customFormat="1" outlineLevel="1">
+    <row r="54" spans="1:8" s="255" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A54" s="107" t="s">
         <v>260</v>
       </c>
@@ -4459,7 +4459,7 @@
       <c r="G54" s="254"/>
       <c r="H54" s="233"/>
     </row>
-    <row r="55" spans="1:8" s="255" customFormat="1" outlineLevel="1">
+    <row r="55" spans="1:8" s="255" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A55" s="107" t="s">
         <v>261</v>
       </c>
@@ -4473,7 +4473,7 @@
       <c r="G55" s="254"/>
       <c r="H55" s="233"/>
     </row>
-    <row r="56" spans="1:8" s="255" customFormat="1" outlineLevel="1">
+    <row r="56" spans="1:8" s="255" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A56" s="107" t="s">
         <v>262</v>
       </c>
@@ -4487,7 +4487,7 @@
       <c r="G56" s="254"/>
       <c r="H56" s="233"/>
     </row>
-    <row r="57" spans="1:8" s="255" customFormat="1" outlineLevel="1">
+    <row r="57" spans="1:8" s="255" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A57" s="266" t="s">
         <v>269</v>
       </c>
@@ -4499,7 +4499,7 @@
       <c r="G57" s="254"/>
       <c r="H57" s="233"/>
     </row>
-    <row r="58" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="58" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A58" s="107" t="s">
         <v>255</v>
       </c>
@@ -4513,7 +4513,7 @@
       <c r="G58" s="22"/>
       <c r="H58" s="19"/>
     </row>
-    <row r="59" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="59" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A59" s="107" t="s">
         <v>260</v>
       </c>
@@ -4527,7 +4527,7 @@
       <c r="G59" s="22"/>
       <c r="H59" s="19"/>
     </row>
-    <row r="60" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="60" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A60" s="107" t="s">
         <v>261</v>
       </c>
@@ -4541,7 +4541,7 @@
       <c r="G60" s="22"/>
       <c r="H60" s="19"/>
     </row>
-    <row r="61" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="61" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A61" s="107" t="s">
         <v>262</v>
       </c>
@@ -4555,7 +4555,7 @@
       <c r="G61" s="22"/>
       <c r="H61" s="19"/>
     </row>
-    <row r="62" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="62" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A62" s="266" t="s">
         <v>281</v>
       </c>
@@ -4567,7 +4567,7 @@
       <c r="G62" s="22"/>
       <c r="H62" s="19"/>
     </row>
-    <row r="63" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="63" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A63" s="107" t="s">
         <v>255</v>
       </c>
@@ -4581,7 +4581,7 @@
       <c r="G63" s="22"/>
       <c r="H63" s="19"/>
     </row>
-    <row r="64" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="64" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A64" s="107" t="s">
         <v>260</v>
       </c>
@@ -4595,7 +4595,7 @@
       <c r="G64" s="22"/>
       <c r="H64" s="19"/>
     </row>
-    <row r="65" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="65" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A65" s="107" t="s">
         <v>261</v>
       </c>
@@ -4609,7 +4609,7 @@
       <c r="G65" s="22"/>
       <c r="H65" s="19"/>
     </row>
-    <row r="66" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="66" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A66" s="107" t="s">
         <v>262</v>
       </c>
@@ -4623,7 +4623,7 @@
       <c r="G66" s="22"/>
       <c r="H66" s="19"/>
     </row>
-    <row r="67" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="67" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A67" s="266" t="s">
         <v>245</v>
       </c>
@@ -4635,7 +4635,7 @@
       <c r="G67" s="22"/>
       <c r="H67" s="19"/>
     </row>
-    <row r="68" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="68" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A68" s="310" t="s">
         <v>263</v>
       </c>
@@ -4649,7 +4649,7 @@
       <c r="G68" s="22"/>
       <c r="H68" s="19"/>
     </row>
-    <row r="69" spans="1:8" s="15" customFormat="1" ht="42.6" customHeight="1" outlineLevel="1">
+    <row r="69" spans="1:8" s="15" customFormat="1" ht="42.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A69" s="311"/>
       <c r="B69" s="321"/>
       <c r="C69" s="210"/>
@@ -4659,7 +4659,7 @@
       <c r="G69" s="22"/>
       <c r="H69" s="19"/>
     </row>
-    <row r="70" spans="1:8" s="15" customFormat="1" ht="57.6" outlineLevel="1">
+    <row r="70" spans="1:8" s="15" customFormat="1" ht="57.6" hidden="1" outlineLevel="1">
       <c r="A70" s="107" t="s">
         <v>260</v>
       </c>
@@ -4673,7 +4673,7 @@
       <c r="G70" s="22"/>
       <c r="H70" s="19"/>
     </row>
-    <row r="71" spans="1:8" s="15" customFormat="1" ht="43.2" outlineLevel="1">
+    <row r="71" spans="1:8" s="15" customFormat="1" ht="43.2" hidden="1" outlineLevel="1">
       <c r="A71" s="107" t="s">
         <v>261</v>
       </c>
@@ -4687,7 +4687,7 @@
       <c r="G71" s="22"/>
       <c r="H71" s="19"/>
     </row>
-    <row r="72" spans="1:8" s="15" customFormat="1" ht="43.2" outlineLevel="1">
+    <row r="72" spans="1:8" s="15" customFormat="1" ht="43.2" hidden="1" outlineLevel="1">
       <c r="A72" s="107" t="s">
         <v>262</v>
       </c>
@@ -4701,7 +4701,7 @@
       <c r="G72" s="22"/>
       <c r="H72" s="19"/>
     </row>
-    <row r="73" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="73" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A73" s="267"/>
       <c r="B73" s="265"/>
       <c r="C73" s="258"/>
@@ -4711,7 +4711,7 @@
       <c r="G73" s="22"/>
       <c r="H73" s="19"/>
     </row>
-    <row r="74" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="74" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A74" s="267"/>
       <c r="B74" s="265"/>
       <c r="C74" s="258"/>
@@ -4721,7 +4721,7 @@
       <c r="G74" s="22"/>
       <c r="H74" s="19"/>
     </row>
-    <row r="75" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="75" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A75" s="267"/>
       <c r="B75" s="265"/>
       <c r="C75" s="258"/>
@@ -4731,7 +4731,7 @@
       <c r="G75" s="22"/>
       <c r="H75" s="19"/>
     </row>
-    <row r="76" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="76" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A76" s="256"/>
       <c r="B76" s="259"/>
       <c r="C76" s="258"/>
@@ -4741,7 +4741,7 @@
       <c r="G76" s="22"/>
       <c r="H76" s="19"/>
     </row>
-    <row r="77" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="77" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A77" s="256"/>
       <c r="B77" s="259"/>
       <c r="C77" s="258"/>
@@ -4751,7 +4751,7 @@
       <c r="G77" s="22"/>
       <c r="H77" s="19"/>
     </row>
-    <row r="78" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="78" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A78" s="256"/>
       <c r="B78" s="259"/>
       <c r="C78" s="258"/>
@@ -4761,7 +4761,7 @@
       <c r="G78" s="22"/>
       <c r="H78" s="19"/>
     </row>
-    <row r="79" spans="1:8" s="160" customFormat="1" outlineLevel="1">
+    <row r="79" spans="1:8" s="160" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A79" s="271" t="s">
         <v>270</v>
       </c>
@@ -4772,7 +4772,7 @@
       <c r="F79" s="159"/>
       <c r="H79" s="161"/>
     </row>
-    <row r="80" spans="1:8" s="15" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="80" spans="1:8" s="15" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A80" s="269" t="s">
         <v>246</v>
       </c>
@@ -4786,7 +4786,7 @@
       <c r="G80" s="22"/>
       <c r="H80" s="19"/>
     </row>
-    <row r="81" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="81" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A81" s="107" t="s">
         <v>255</v>
       </c>
@@ -4802,7 +4802,7 @@
       <c r="G81" s="22"/>
       <c r="H81" s="19"/>
     </row>
-    <row r="82" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="82" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A82" s="107" t="s">
         <v>260</v>
       </c>
@@ -4816,7 +4816,7 @@
       <c r="G82" s="22"/>
       <c r="H82" s="19"/>
     </row>
-    <row r="83" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="83" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A83" s="107" t="s">
         <v>261</v>
       </c>
@@ -4830,7 +4830,7 @@
       <c r="G83" s="22"/>
       <c r="H83" s="19"/>
     </row>
-    <row r="84" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="84" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A84" s="107" t="s">
         <v>262</v>
       </c>
@@ -4844,7 +4844,7 @@
       <c r="G84" s="22"/>
       <c r="H84" s="19"/>
     </row>
-    <row r="85" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="85" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A85" s="266" t="s">
         <v>267</v>
       </c>
@@ -4856,7 +4856,7 @@
       <c r="G85" s="22"/>
       <c r="H85" s="19"/>
     </row>
-    <row r="86" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="86" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A86" s="107" t="s">
         <v>255</v>
       </c>
@@ -4870,7 +4870,7 @@
       <c r="G86" s="22"/>
       <c r="H86" s="19"/>
     </row>
-    <row r="87" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="87" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A87" s="107" t="s">
         <v>260</v>
       </c>
@@ -4884,7 +4884,7 @@
       <c r="G87" s="22"/>
       <c r="H87" s="19"/>
     </row>
-    <row r="88" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="88" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A88" s="107" t="s">
         <v>261</v>
       </c>
@@ -4898,7 +4898,7 @@
       <c r="G88" s="22"/>
       <c r="H88" s="19"/>
     </row>
-    <row r="89" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="89" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A89" s="107" t="s">
         <v>262</v>
       </c>
@@ -4912,7 +4912,7 @@
       <c r="G89" s="22"/>
       <c r="H89" s="19"/>
     </row>
-    <row r="90" spans="1:8" s="15" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="90" spans="1:8" s="15" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A90" s="269" t="s">
         <v>268</v>
       </c>
@@ -4924,7 +4924,7 @@
       <c r="G90" s="22"/>
       <c r="H90" s="19"/>
     </row>
-    <row r="91" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="91" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A91" s="107" t="s">
         <v>255</v>
       </c>
@@ -4938,7 +4938,7 @@
       <c r="G91" s="22"/>
       <c r="H91" s="19"/>
     </row>
-    <row r="92" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="92" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A92" s="107" t="s">
         <v>260</v>
       </c>
@@ -4952,7 +4952,7 @@
       <c r="G92" s="22"/>
       <c r="H92" s="19"/>
     </row>
-    <row r="93" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="93" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A93" s="107" t="s">
         <v>261</v>
       </c>
@@ -4966,7 +4966,7 @@
       <c r="G93" s="22"/>
       <c r="H93" s="19"/>
     </row>
-    <row r="94" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="94" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A94" s="107" t="s">
         <v>262</v>
       </c>
@@ -4980,7 +4980,7 @@
       <c r="G94" s="22"/>
       <c r="H94" s="19"/>
     </row>
-    <row r="95" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="95" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A95" s="269" t="s">
         <v>204</v>
       </c>
@@ -4992,7 +4992,7 @@
       <c r="G95" s="22"/>
       <c r="H95" s="19"/>
     </row>
-    <row r="96" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="96" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A96" s="107" t="s">
         <v>255</v>
       </c>
@@ -5006,7 +5006,7 @@
       <c r="G96" s="22"/>
       <c r="H96" s="19"/>
     </row>
-    <row r="97" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="97" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A97" s="107" t="s">
         <v>260</v>
       </c>
@@ -5020,7 +5020,7 @@
       <c r="G97" s="22"/>
       <c r="H97" s="19"/>
     </row>
-    <row r="98" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="98" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A98" s="107" t="s">
         <v>261</v>
       </c>
@@ -5034,7 +5034,7 @@
       <c r="G98" s="22"/>
       <c r="H98" s="19"/>
     </row>
-    <row r="99" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="99" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A99" s="107" t="s">
         <v>262</v>
       </c>
@@ -5048,7 +5048,7 @@
       <c r="G99" s="22"/>
       <c r="H99" s="19"/>
     </row>
-    <row r="100" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="100" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A100" s="270" t="s">
         <v>206</v>
       </c>
@@ -5060,7 +5060,7 @@
       <c r="G100" s="22"/>
       <c r="H100" s="19"/>
     </row>
-    <row r="101" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="101" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A101" s="107" t="s">
         <v>255</v>
       </c>
@@ -5074,7 +5074,7 @@
       <c r="G101" s="22"/>
       <c r="H101" s="19"/>
     </row>
-    <row r="102" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="102" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A102" s="107" t="s">
         <v>260</v>
       </c>
@@ -5088,7 +5088,7 @@
       <c r="G102" s="22"/>
       <c r="H102" s="19"/>
     </row>
-    <row r="103" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="103" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A103" s="107" t="s">
         <v>261</v>
       </c>
@@ -5102,7 +5102,7 @@
       <c r="G103" s="22"/>
       <c r="H103" s="19"/>
     </row>
-    <row r="104" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="104" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A104" s="107" t="s">
         <v>262</v>
       </c>
@@ -5116,7 +5116,7 @@
       <c r="G104" s="22"/>
       <c r="H104" s="19"/>
     </row>
-    <row r="105" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="105" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A105" s="270" t="s">
         <v>272</v>
       </c>
@@ -5128,7 +5128,7 @@
       <c r="G105" s="22"/>
       <c r="H105" s="19"/>
     </row>
-    <row r="106" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="106" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A106" s="107" t="s">
         <v>255</v>
       </c>
@@ -5142,7 +5142,7 @@
       <c r="G106" s="22"/>
       <c r="H106" s="19"/>
     </row>
-    <row r="107" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="107" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A107" s="107" t="s">
         <v>260</v>
       </c>
@@ -5156,7 +5156,7 @@
       <c r="G107" s="22"/>
       <c r="H107" s="19"/>
     </row>
-    <row r="108" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="108" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A108" s="107" t="s">
         <v>261</v>
       </c>
@@ -5170,7 +5170,7 @@
       <c r="G108" s="22"/>
       <c r="H108" s="19"/>
     </row>
-    <row r="109" spans="1:8" s="15" customFormat="1" outlineLevel="1">
+    <row r="109" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A109" s="107" t="s">
         <v>262</v>
       </c>
@@ -5184,7 +5184,7 @@
       <c r="G109" s="22"/>
       <c r="H109" s="19"/>
     </row>
-    <row r="110" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="110" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A110" s="269" t="s">
         <v>271</v>
       </c>
@@ -5195,7 +5195,7 @@
       <c r="F110" s="17"/>
       <c r="H110" s="19"/>
     </row>
-    <row r="111" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="111" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A111" s="107" t="s">
         <v>248</v>
       </c>
@@ -5208,7 +5208,7 @@
       <c r="F111" s="17"/>
       <c r="H111" s="19"/>
     </row>
-    <row r="112" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="112" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A112" s="269" t="s">
         <v>273</v>
       </c>
@@ -5219,7 +5219,7 @@
       <c r="F112" s="17"/>
       <c r="H112" s="19"/>
     </row>
-    <row r="113" spans="1:8" s="22" customFormat="1" ht="43.2" outlineLevel="1">
+    <row r="113" spans="1:8" s="22" customFormat="1" ht="43.2" hidden="1" outlineLevel="1">
       <c r="A113" s="10" t="s">
         <v>276</v>
       </c>
@@ -5232,7 +5232,7 @@
       <c r="F113" s="17"/>
       <c r="H113" s="19"/>
     </row>
-    <row r="114" spans="1:8" s="22" customFormat="1" ht="43.2" outlineLevel="1">
+    <row r="114" spans="1:8" s="22" customFormat="1" ht="43.2" hidden="1" outlineLevel="1">
       <c r="A114" s="10" t="s">
         <v>275</v>
       </c>
@@ -5245,7 +5245,7 @@
       <c r="F114" s="17"/>
       <c r="H114" s="19"/>
     </row>
-    <row r="115" spans="1:8" s="22" customFormat="1" ht="43.2" outlineLevel="1">
+    <row r="115" spans="1:8" s="22" customFormat="1" ht="43.2" hidden="1" outlineLevel="1">
       <c r="A115" s="10" t="s">
         <v>277</v>
       </c>
@@ -5258,7 +5258,7 @@
       <c r="F115" s="17"/>
       <c r="H115" s="19"/>
     </row>
-    <row r="116" spans="1:8" s="22" customFormat="1" ht="43.2" outlineLevel="1">
+    <row r="116" spans="1:8" s="22" customFormat="1" ht="43.2" hidden="1" outlineLevel="1">
       <c r="A116" s="10" t="s">
         <v>278</v>
       </c>
@@ -5271,7 +5271,7 @@
       <c r="F116" s="17"/>
       <c r="H116" s="19"/>
     </row>
-    <row r="117" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="117" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A117" s="10"/>
       <c r="B117" s="139"/>
       <c r="C117" s="14"/>
@@ -5280,7 +5280,7 @@
       <c r="F117" s="17"/>
       <c r="H117" s="19"/>
     </row>
-    <row r="118" spans="1:8" s="22" customFormat="1" ht="15" outlineLevel="1" thickBot="1">
+    <row r="118" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A118" s="107" t="s">
         <v>209</v>
       </c>
@@ -5293,7 +5293,7 @@
       <c r="F118" s="17"/>
       <c r="H118" s="19"/>
     </row>
-    <row r="119" spans="1:8" s="22" customFormat="1" ht="15" outlineLevel="1" thickBot="1">
+    <row r="119" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A119" s="235" t="s">
         <v>210</v>
       </c>
@@ -5306,7 +5306,7 @@
       <c r="F119" s="17"/>
       <c r="H119" s="19"/>
     </row>
-    <row r="120" spans="1:8" s="22" customFormat="1" ht="15" outlineLevel="1" thickBot="1">
+    <row r="120" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A120" s="107" t="s">
         <v>224</v>
       </c>
@@ -5319,7 +5319,7 @@
       <c r="F120" s="17"/>
       <c r="H120" s="19"/>
     </row>
-    <row r="121" spans="1:8" s="22" customFormat="1" ht="15" outlineLevel="1" thickBot="1">
+    <row r="121" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A121" s="235" t="s">
         <v>222</v>
       </c>
@@ -5332,7 +5332,7 @@
       <c r="F121" s="17"/>
       <c r="H121" s="19"/>
     </row>
-    <row r="122" spans="1:8" s="22" customFormat="1" ht="15" outlineLevel="1" thickBot="1">
+    <row r="122" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A122" s="235" t="s">
         <v>211</v>
       </c>
@@ -5345,7 +5345,7 @@
       <c r="F122" s="17"/>
       <c r="H122" s="19"/>
     </row>
-    <row r="123" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="123" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A123" s="10" t="s">
         <v>203</v>
       </c>
@@ -5358,7 +5358,7 @@
       <c r="F123" s="17"/>
       <c r="H123" s="19"/>
     </row>
-    <row r="124" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="124" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A124" s="10" t="s">
         <v>21</v>
       </c>
@@ -5371,7 +5371,7 @@
       <c r="F124" s="17"/>
       <c r="H124" s="19"/>
     </row>
-    <row r="125" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="125" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A125" s="107" t="s">
         <v>205</v>
       </c>
@@ -5384,7 +5384,7 @@
       <c r="F125" s="17"/>
       <c r="H125" s="19"/>
     </row>
-    <row r="126" spans="1:8" s="22" customFormat="1" ht="43.2" outlineLevel="1">
+    <row r="126" spans="1:8" s="22" customFormat="1" ht="43.2" hidden="1" outlineLevel="1">
       <c r="A126" s="107" t="s">
         <v>208</v>
       </c>
@@ -5397,7 +5397,7 @@
       <c r="F126" s="17"/>
       <c r="H126" s="19"/>
     </row>
-    <row r="127" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="127" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A127" s="30"/>
       <c r="B127" s="139"/>
       <c r="C127" s="14"/>
@@ -5406,7 +5406,7 @@
       <c r="F127" s="17"/>
       <c r="H127" s="19"/>
     </row>
-    <row r="128" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="128" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A128" s="30"/>
       <c r="B128" s="139"/>
       <c r="C128" s="14"/>
@@ -5679,7 +5679,7 @@
       <c r="G144" s="50"/>
       <c r="H144" s="50"/>
     </row>
-    <row r="145" spans="1:8" s="63" customFormat="1" ht="28.8" collapsed="1">
+    <row r="145" spans="1:8" s="63" customFormat="1" ht="28.8">
       <c r="A145" s="131" t="s">
         <v>163</v>
       </c>
@@ -5690,7 +5690,7 @@
       <c r="F145" s="67"/>
       <c r="H145" s="68"/>
     </row>
-    <row r="146" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="146" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A146" s="30" t="s">
         <v>164</v>
       </c>
@@ -5706,7 +5706,7 @@
       <c r="G146" s="132"/>
       <c r="H146" s="50"/>
     </row>
-    <row r="147" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="147" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A147" s="30" t="s">
         <v>235</v>
       </c>
@@ -5722,7 +5722,7 @@
       <c r="G147" s="21"/>
       <c r="H147" s="50"/>
     </row>
-    <row r="148" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="148" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A148" s="30" t="s">
         <v>236</v>
       </c>
@@ -5738,7 +5738,7 @@
       <c r="G148" s="21"/>
       <c r="H148" s="50"/>
     </row>
-    <row r="149" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
+    <row r="149" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
       <c r="A149" s="30" t="s">
         <v>308</v>
       </c>
@@ -5756,7 +5756,7 @@
       <c r="G149" s="21"/>
       <c r="H149" s="50"/>
     </row>
-    <row r="150" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
+    <row r="150" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
       <c r="A150" s="30" t="s">
         <v>237</v>
       </c>
@@ -5774,7 +5774,7 @@
       <c r="G150" s="21"/>
       <c r="H150" s="50"/>
     </row>
-    <row r="151" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="151" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A151" s="30" t="s">
         <v>239</v>
       </c>
@@ -5790,7 +5790,7 @@
       <c r="G151" s="21"/>
       <c r="H151" s="50"/>
     </row>
-    <row r="152" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="152" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A152" s="30" t="s">
         <v>238</v>
       </c>
@@ -5806,7 +5806,7 @@
       <c r="G152" s="21"/>
       <c r="H152" s="50"/>
     </row>
-    <row r="153" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
+    <row r="153" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
       <c r="A153" s="231" t="s">
         <v>233</v>
       </c>
@@ -5818,7 +5818,7 @@
       <c r="G153" s="21"/>
       <c r="H153" s="50"/>
     </row>
-    <row r="154" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="154" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A154" s="30" t="s">
         <v>194</v>
       </c>
@@ -5834,7 +5834,7 @@
       <c r="G154" s="21"/>
       <c r="H154" s="50"/>
     </row>
-    <row r="155" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="155" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A155" s="30" t="s">
         <v>195</v>
       </c>
@@ -5850,7 +5850,7 @@
       <c r="G155" s="21"/>
       <c r="H155" s="50"/>
     </row>
-    <row r="156" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="156" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A156" s="30" t="s">
         <v>196</v>
       </c>
@@ -5866,7 +5866,7 @@
       <c r="G156" s="21"/>
       <c r="H156" s="50"/>
     </row>
-    <row r="157" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="157" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A157" s="30" t="s">
         <v>197</v>
       </c>
@@ -5882,7 +5882,7 @@
       <c r="G157" s="21"/>
       <c r="H157" s="50"/>
     </row>
-    <row r="158" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="158" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A158" s="30" t="s">
         <v>198</v>
       </c>
@@ -5898,7 +5898,7 @@
       <c r="G158" s="21"/>
       <c r="H158" s="50"/>
     </row>
-    <row r="159" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="159" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A159" s="30" t="s">
         <v>199</v>
       </c>
@@ -5914,7 +5914,7 @@
       <c r="G159" s="21"/>
       <c r="H159" s="50"/>
     </row>
-    <row r="160" spans="1:8" s="130" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="160" spans="1:8" s="130" customFormat="1" outlineLevel="1">
       <c r="A160" s="126" t="s">
         <v>165</v>
       </c>
@@ -5926,7 +5926,7 @@
       <c r="G160" s="41"/>
       <c r="H160" s="41"/>
     </row>
-    <row r="161" spans="1:8" s="228" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="161" spans="1:8" s="228" customFormat="1" outlineLevel="1">
       <c r="A161" s="30" t="s">
         <v>240</v>
       </c>
@@ -5944,7 +5944,7 @@
       <c r="G161" s="21"/>
       <c r="H161" s="50"/>
     </row>
-    <row r="162" spans="1:8" s="228" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="162" spans="1:8" s="228" customFormat="1" outlineLevel="1">
       <c r="A162" s="30" t="s">
         <v>200</v>
       </c>
@@ -5962,7 +5962,7 @@
       <c r="G162" s="21"/>
       <c r="H162" s="50"/>
     </row>
-    <row r="163" spans="1:8" s="228" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="163" spans="1:8" s="228" customFormat="1" outlineLevel="1">
       <c r="A163" s="30" t="s">
         <v>201</v>
       </c>
@@ -5980,7 +5980,7 @@
       <c r="G163" s="21"/>
       <c r="H163" s="50"/>
     </row>
-    <row r="164" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="164" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A164" s="30" t="s">
         <v>191</v>
       </c>
@@ -5996,7 +5996,7 @@
       <c r="G164" s="21"/>
       <c r="H164" s="50"/>
     </row>
-    <row r="165" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="165" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A165" s="30" t="s">
         <v>192</v>
       </c>
@@ -6014,7 +6014,7 @@
       <c r="G165" s="21"/>
       <c r="H165" s="50"/>
     </row>
-    <row r="166" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="166" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A166" s="30" t="s">
         <v>190</v>
       </c>
@@ -6032,7 +6032,7 @@
       <c r="G166" s="21"/>
       <c r="H166" s="50"/>
     </row>
-    <row r="167" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="167" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A167" s="30" t="s">
         <v>193</v>
       </c>
@@ -6050,7 +6050,7 @@
       <c r="G167" s="21"/>
       <c r="H167" s="50"/>
     </row>
-    <row r="168" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="168" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A168" s="30" t="s">
         <v>186</v>
       </c>
@@ -6068,7 +6068,7 @@
       <c r="G168" s="21"/>
       <c r="H168" s="50"/>
     </row>
-    <row r="169" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="169" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A169" s="30" t="s">
         <v>187</v>
       </c>
@@ -6086,7 +6086,7 @@
       <c r="G169" s="21"/>
       <c r="H169" s="50"/>
     </row>
-    <row r="170" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="170" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A170" s="30" t="s">
         <v>188</v>
       </c>
@@ -6104,7 +6104,7 @@
       <c r="G170" s="21"/>
       <c r="H170" s="50"/>
     </row>
-    <row r="171" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
+    <row r="171" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
       <c r="A171" s="30" t="s">
         <v>189</v>
       </c>
@@ -6122,7 +6122,7 @@
       <c r="G171" s="21"/>
       <c r="H171" s="50"/>
     </row>
-    <row r="172" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="172" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A172" s="30" t="s">
         <v>166</v>
       </c>
@@ -6138,7 +6138,7 @@
       <c r="G172" s="21"/>
       <c r="H172" s="50"/>
     </row>
-    <row r="173" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="173" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A173" s="30" t="s">
         <v>168</v>
       </c>
@@ -6154,7 +6154,7 @@
       <c r="G173" s="21"/>
       <c r="H173" s="50"/>
     </row>
-    <row r="174" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="174" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A174" s="30" t="s">
         <v>167</v>
       </c>
@@ -6170,7 +6170,7 @@
       <c r="G174" s="21"/>
       <c r="H174" s="50"/>
     </row>
-    <row r="175" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="175" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A175" s="30" t="s">
         <v>183</v>
       </c>
@@ -6186,7 +6186,7 @@
       <c r="G175" s="21"/>
       <c r="H175" s="50"/>
     </row>
-    <row r="176" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="176" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A176" s="30" t="s">
         <v>181</v>
       </c>
@@ -6202,7 +6202,7 @@
       <c r="G176" s="21"/>
       <c r="H176" s="50"/>
     </row>
-    <row r="177" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="177" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A177" s="30" t="s">
         <v>182</v>
       </c>
@@ -6218,7 +6218,7 @@
       <c r="G177" s="21"/>
       <c r="H177" s="50"/>
     </row>
-    <row r="178" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="178" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A178" s="30" t="s">
         <v>176</v>
       </c>
@@ -6234,7 +6234,7 @@
       <c r="G178" s="21"/>
       <c r="H178" s="50"/>
     </row>
-    <row r="179" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="179" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A179" s="30" t="s">
         <v>177</v>
       </c>
@@ -6250,7 +6250,7 @@
       <c r="G179" s="21"/>
       <c r="H179" s="50"/>
     </row>
-    <row r="180" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="180" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A180" s="30" t="s">
         <v>178</v>
       </c>
@@ -6266,7 +6266,7 @@
       <c r="G180" s="21"/>
       <c r="H180" s="50"/>
     </row>
-    <row r="181" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="181" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A181" s="30" t="s">
         <v>185</v>
       </c>
@@ -6282,7 +6282,7 @@
       <c r="G181" s="21"/>
       <c r="H181" s="50"/>
     </row>
-    <row r="182" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="182" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A182" s="30" t="s">
         <v>179</v>
       </c>
@@ -6298,7 +6298,7 @@
       <c r="G182" s="21"/>
       <c r="H182" s="50"/>
     </row>
-    <row r="183" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="183" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A183" s="30" t="s">
         <v>180</v>
       </c>
@@ -6314,7 +6314,7 @@
       <c r="G183" s="21"/>
       <c r="H183" s="50"/>
     </row>
-    <row r="184" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="184" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A184" s="30"/>
       <c r="B184" s="139"/>
       <c r="C184" s="10"/>
@@ -6324,7 +6324,7 @@
       <c r="G184" s="21"/>
       <c r="H184" s="50"/>
     </row>
-    <row r="185" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="185" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A185" s="30"/>
       <c r="B185" s="139"/>
       <c r="C185" s="10"/>
@@ -6334,7 +6334,7 @@
       <c r="G185" s="21"/>
       <c r="H185" s="50"/>
     </row>
-    <row r="186" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="186" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A186" s="30"/>
       <c r="B186" s="139"/>
       <c r="C186" s="10"/>

--- a/чек-лист.xlsx
+++ b/чек-лист.xlsx
@@ -809,7 +809,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="335">
   <si>
     <t>Название тестового сценария</t>
   </si>
@@ -1935,13 +1935,43 @@
     <t xml:space="preserve">Type = "tnved",                       Step= 1 (Min) </t>
   </si>
   <si>
-    <t>MIN - 1    (0 элемента )</t>
-  </si>
-  <si>
-    <t>Integer.MAX_VALUE</t>
-  </si>
-  <si>
-    <t>Double.MAX_VALUE</t>
+    <t xml:space="preserve">Type = "nomenclature", Step= 0 (Min-1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type = "basic-services" , Step= 201 (Max+1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Дробное число</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type = "unified-classifier" ,    Step= 1.2                  </t>
+  </si>
+  <si>
+    <t>Type = " ",                         Step = 5</t>
+  </si>
+  <si>
+    <t>Type = "okved2 ",            Step = Строка (Латиница + цифры)</t>
+  </si>
+  <si>
+    <t>Type = "okpd2",               Step = Переполнение поля</t>
+  </si>
+  <si>
+    <t>Type = "units" ,                Step= Double.MAX_VALUE</t>
+  </si>
+  <si>
+    <t>Type = "eop",                   Step = Integer.MAX_VALUE</t>
+  </si>
+  <si>
+    <t>Type = "eop",                    Step = Спецсимволы</t>
+  </si>
+  <si>
+    <t>Type = "eop",                    Step =  Текст в двойнх кавычках</t>
+  </si>
+  <si>
+    <t>Type = "tnved",                Step = Инъекции</t>
+  </si>
+  <si>
+    <t>Type = "units" ,                Step = -100</t>
   </si>
 </sst>
 </file>
@@ -3530,6 +3560,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3584,9 +3617,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3879,10 +3909,10 @@
   <sheetPr codeName="Лист1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:XFD556"/>
+  <dimension ref="A1:XFD555"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A530" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B544" sqref="B544"/>
+    <sheetView tabSelected="1" topLeftCell="A507" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D538" sqref="D538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -4870,26 +4900,26 @@
       <c r="H69" s="19"/>
     </row>
     <row r="70" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A70" s="311" t="s">
+      <c r="A70" s="312" t="s">
         <v>261</v>
       </c>
-      <c r="B70" s="321" t="s">
+      <c r="B70" s="322" t="s">
         <v>262</v>
       </c>
       <c r="C70" s="210"/>
       <c r="D70" s="14"/>
-      <c r="E70" s="313"/>
-      <c r="F70" s="315"/>
+      <c r="E70" s="314"/>
+      <c r="F70" s="316"/>
       <c r="G70" s="22"/>
       <c r="H70" s="19"/>
     </row>
     <row r="71" spans="1:8" s="15" customFormat="1" ht="42.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A71" s="312"/>
-      <c r="B71" s="322"/>
+      <c r="A71" s="313"/>
+      <c r="B71" s="323"/>
       <c r="C71" s="210"/>
       <c r="D71" s="14"/>
-      <c r="E71" s="314"/>
-      <c r="F71" s="314"/>
+      <c r="E71" s="315"/>
+      <c r="F71" s="315"/>
       <c r="G71" s="22"/>
       <c r="H71" s="19"/>
     </row>
@@ -5945,7 +5975,7 @@
       <c r="G148" s="50"/>
       <c r="H148" s="50"/>
     </row>
-    <row r="149" spans="1:8" s="63" customFormat="1" ht="28.8">
+    <row r="149" spans="1:8" s="63" customFormat="1" ht="28.8" collapsed="1">
       <c r="A149" s="131" t="s">
         <v>162</v>
       </c>
@@ -5956,7 +5986,7 @@
       <c r="F149" s="67"/>
       <c r="H149" s="68"/>
     </row>
-    <row r="150" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="150" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A150" s="30" t="s">
         <v>163</v>
       </c>
@@ -5972,7 +6002,7 @@
       <c r="G150" s="132"/>
       <c r="H150" s="50"/>
     </row>
-    <row r="151" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="151" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A151" s="30" t="s">
         <v>234</v>
       </c>
@@ -5988,7 +6018,7 @@
       <c r="G151" s="21"/>
       <c r="H151" s="50"/>
     </row>
-    <row r="152" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="152" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A152" s="30" t="s">
         <v>235</v>
       </c>
@@ -6004,7 +6034,7 @@
       <c r="G152" s="21"/>
       <c r="H152" s="50"/>
     </row>
-    <row r="153" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="153" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A153" s="30" t="s">
         <v>305</v>
       </c>
@@ -6022,7 +6052,7 @@
       <c r="G153" s="21"/>
       <c r="H153" s="50"/>
     </row>
-    <row r="154" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="154" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A154" s="30" t="s">
         <v>236</v>
       </c>
@@ -6040,7 +6070,7 @@
       <c r="G154" s="21"/>
       <c r="H154" s="50"/>
     </row>
-    <row r="155" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="155" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A155" s="30" t="s">
         <v>238</v>
       </c>
@@ -6056,7 +6086,7 @@
       <c r="G155" s="21"/>
       <c r="H155" s="50"/>
     </row>
-    <row r="156" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="156" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A156" s="30" t="s">
         <v>237</v>
       </c>
@@ -6072,7 +6102,7 @@
       <c r="G156" s="21"/>
       <c r="H156" s="50"/>
     </row>
-    <row r="157" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="157" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A157" s="231" t="s">
         <v>232</v>
       </c>
@@ -6084,7 +6114,7 @@
       <c r="G157" s="21"/>
       <c r="H157" s="50"/>
     </row>
-    <row r="158" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="158" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A158" s="30" t="s">
         <v>193</v>
       </c>
@@ -6100,7 +6130,7 @@
       <c r="G158" s="21"/>
       <c r="H158" s="50"/>
     </row>
-    <row r="159" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="159" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A159" s="30" t="s">
         <v>194</v>
       </c>
@@ -6116,7 +6146,7 @@
       <c r="G159" s="21"/>
       <c r="H159" s="50"/>
     </row>
-    <row r="160" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="160" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A160" s="30" t="s">
         <v>195</v>
       </c>
@@ -6132,7 +6162,7 @@
       <c r="G160" s="21"/>
       <c r="H160" s="50"/>
     </row>
-    <row r="161" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="161" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A161" s="30" t="s">
         <v>196</v>
       </c>
@@ -6148,7 +6178,7 @@
       <c r="G161" s="21"/>
       <c r="H161" s="50"/>
     </row>
-    <row r="162" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="162" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A162" s="30" t="s">
         <v>197</v>
       </c>
@@ -6164,7 +6194,7 @@
       <c r="G162" s="21"/>
       <c r="H162" s="50"/>
     </row>
-    <row r="163" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="163" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A163" s="30" t="s">
         <v>198</v>
       </c>
@@ -6180,7 +6210,7 @@
       <c r="G163" s="21"/>
       <c r="H163" s="50"/>
     </row>
-    <row r="164" spans="1:8" s="130" customFormat="1" outlineLevel="1">
+    <row r="164" spans="1:8" s="130" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A164" s="126" t="s">
         <v>164</v>
       </c>
@@ -6192,7 +6222,7 @@
       <c r="G164" s="41"/>
       <c r="H164" s="41"/>
     </row>
-    <row r="165" spans="1:8" s="228" customFormat="1" outlineLevel="1">
+    <row r="165" spans="1:8" s="228" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A165" s="30" t="s">
         <v>239</v>
       </c>
@@ -6210,7 +6240,7 @@
       <c r="G165" s="21"/>
       <c r="H165" s="50"/>
     </row>
-    <row r="166" spans="1:8" s="228" customFormat="1" outlineLevel="1">
+    <row r="166" spans="1:8" s="228" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A166" s="30" t="s">
         <v>199</v>
       </c>
@@ -6228,7 +6258,7 @@
       <c r="G166" s="21"/>
       <c r="H166" s="50"/>
     </row>
-    <row r="167" spans="1:8" s="228" customFormat="1" outlineLevel="1">
+    <row r="167" spans="1:8" s="228" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A167" s="30" t="s">
         <v>200</v>
       </c>
@@ -6246,7 +6276,7 @@
       <c r="G167" s="21"/>
       <c r="H167" s="50"/>
     </row>
-    <row r="168" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="168" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A168" s="30" t="s">
         <v>190</v>
       </c>
@@ -6262,7 +6292,7 @@
       <c r="G168" s="21"/>
       <c r="H168" s="50"/>
     </row>
-    <row r="169" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="169" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A169" s="30" t="s">
         <v>191</v>
       </c>
@@ -6280,7 +6310,7 @@
       <c r="G169" s="21"/>
       <c r="H169" s="50"/>
     </row>
-    <row r="170" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="170" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A170" s="30" t="s">
         <v>189</v>
       </c>
@@ -6298,7 +6328,7 @@
       <c r="G170" s="21"/>
       <c r="H170" s="50"/>
     </row>
-    <row r="171" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="171" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A171" s="30" t="s">
         <v>192</v>
       </c>
@@ -6316,7 +6346,7 @@
       <c r="G171" s="21"/>
       <c r="H171" s="50"/>
     </row>
-    <row r="172" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="172" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A172" s="30" t="s">
         <v>185</v>
       </c>
@@ -6334,7 +6364,7 @@
       <c r="G172" s="21"/>
       <c r="H172" s="50"/>
     </row>
-    <row r="173" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="173" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A173" s="30" t="s">
         <v>186</v>
       </c>
@@ -6352,7 +6382,7 @@
       <c r="G173" s="21"/>
       <c r="H173" s="50"/>
     </row>
-    <row r="174" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="174" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A174" s="30" t="s">
         <v>187</v>
       </c>
@@ -6370,7 +6400,7 @@
       <c r="G174" s="21"/>
       <c r="H174" s="50"/>
     </row>
-    <row r="175" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="175" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A175" s="30" t="s">
         <v>188</v>
       </c>
@@ -6388,7 +6418,7 @@
       <c r="G175" s="21"/>
       <c r="H175" s="50"/>
     </row>
-    <row r="176" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="176" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A176" s="30" t="s">
         <v>165</v>
       </c>
@@ -6404,7 +6434,7 @@
       <c r="G176" s="21"/>
       <c r="H176" s="50"/>
     </row>
-    <row r="177" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="177" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A177" s="30" t="s">
         <v>167</v>
       </c>
@@ -6420,7 +6450,7 @@
       <c r="G177" s="21"/>
       <c r="H177" s="50"/>
     </row>
-    <row r="178" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="178" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A178" s="30" t="s">
         <v>166</v>
       </c>
@@ -6436,7 +6466,7 @@
       <c r="G178" s="21"/>
       <c r="H178" s="50"/>
     </row>
-    <row r="179" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="179" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A179" s="30" t="s">
         <v>182</v>
       </c>
@@ -6452,7 +6482,7 @@
       <c r="G179" s="21"/>
       <c r="H179" s="50"/>
     </row>
-    <row r="180" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="180" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A180" s="30" t="s">
         <v>180</v>
       </c>
@@ -6468,7 +6498,7 @@
       <c r="G180" s="21"/>
       <c r="H180" s="50"/>
     </row>
-    <row r="181" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="181" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A181" s="30" t="s">
         <v>181</v>
       </c>
@@ -6484,7 +6514,7 @@
       <c r="G181" s="21"/>
       <c r="H181" s="50"/>
     </row>
-    <row r="182" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="182" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A182" s="30" t="s">
         <v>175</v>
       </c>
@@ -6500,7 +6530,7 @@
       <c r="G182" s="21"/>
       <c r="H182" s="50"/>
     </row>
-    <row r="183" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="183" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A183" s="30" t="s">
         <v>176</v>
       </c>
@@ -6516,7 +6546,7 @@
       <c r="G183" s="21"/>
       <c r="H183" s="50"/>
     </row>
-    <row r="184" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="184" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A184" s="30" t="s">
         <v>177</v>
       </c>
@@ -6532,7 +6562,7 @@
       <c r="G184" s="21"/>
       <c r="H184" s="50"/>
     </row>
-    <row r="185" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="185" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A185" s="30" t="s">
         <v>184</v>
       </c>
@@ -6548,7 +6578,7 @@
       <c r="G185" s="21"/>
       <c r="H185" s="50"/>
     </row>
-    <row r="186" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="186" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A186" s="30" t="s">
         <v>178</v>
       </c>
@@ -6564,7 +6594,7 @@
       <c r="G186" s="21"/>
       <c r="H186" s="50"/>
     </row>
-    <row r="187" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="187" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A187" s="30" t="s">
         <v>179</v>
       </c>
@@ -6580,7 +6610,7 @@
       <c r="G187" s="21"/>
       <c r="H187" s="50"/>
     </row>
-    <row r="188" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="188" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A188" s="30"/>
       <c r="B188" s="139"/>
       <c r="C188" s="10"/>
@@ -6590,7 +6620,7 @@
       <c r="G188" s="21"/>
       <c r="H188" s="50"/>
     </row>
-    <row r="189" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="189" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A189" s="30"/>
       <c r="B189" s="139"/>
       <c r="C189" s="10"/>
@@ -6600,7 +6630,7 @@
       <c r="G189" s="21"/>
       <c r="H189" s="50"/>
     </row>
-    <row r="190" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="190" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A190" s="30"/>
       <c r="B190" s="139"/>
       <c r="C190" s="10"/>
@@ -7078,7 +7108,7 @@
       <c r="C220" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="D220" s="316" t="s">
+      <c r="D220" s="317" t="s">
         <v>38</v>
       </c>
       <c r="E220" s="207" t="s">
@@ -7098,7 +7128,7 @@
       <c r="C221" s="103">
         <v>2147483647</v>
       </c>
-      <c r="D221" s="317"/>
+      <c r="D221" s="318"/>
       <c r="E221" s="207" t="s">
         <v>113</v>
       </c>
@@ -7116,7 +7146,7 @@
       <c r="C222" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D222" s="317"/>
+      <c r="D222" s="318"/>
       <c r="E222" s="207" t="s">
         <v>113</v>
       </c>
@@ -7134,7 +7164,7 @@
       <c r="C223" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D223" s="317"/>
+      <c r="D223" s="318"/>
       <c r="E223" s="207" t="s">
         <v>113</v>
       </c>
@@ -7152,7 +7182,7 @@
       <c r="C224" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D224" s="317"/>
+      <c r="D224" s="318"/>
       <c r="E224" s="207" t="s">
         <v>113</v>
       </c>
@@ -7170,7 +7200,7 @@
       <c r="C225" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D225" s="317"/>
+      <c r="D225" s="318"/>
       <c r="E225" s="207" t="s">
         <v>113</v>
       </c>
@@ -7188,7 +7218,7 @@
       <c r="C226" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D226" s="317"/>
+      <c r="D226" s="318"/>
       <c r="E226" s="207" t="s">
         <v>113</v>
       </c>
@@ -7204,7 +7234,7 @@
       </c>
       <c r="B227" s="139"/>
       <c r="C227" s="10"/>
-      <c r="D227" s="317"/>
+      <c r="D227" s="318"/>
       <c r="E227" s="207" t="s">
         <v>113</v>
       </c>
@@ -7222,7 +7252,7 @@
       <c r="C228" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="D228" s="317"/>
+      <c r="D228" s="318"/>
       <c r="E228" s="207" t="s">
         <v>113</v>
       </c>
@@ -25666,7 +25696,7 @@
       <c r="C352" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="D352" s="318"/>
+      <c r="D352" s="319"/>
       <c r="E352" s="181" t="s">
         <v>103</v>
       </c>
@@ -25682,7 +25712,7 @@
       </c>
       <c r="B353" s="25"/>
       <c r="C353" s="29"/>
-      <c r="D353" s="320"/>
+      <c r="D353" s="321"/>
       <c r="E353" s="181" t="s">
         <v>103</v>
       </c>
@@ -27357,7 +27387,7 @@
       <c r="A455" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D455" s="316" t="s">
+      <c r="D455" s="317" t="s">
         <v>38</v>
       </c>
       <c r="E455" s="207" t="s">
@@ -27373,7 +27403,7 @@
       </c>
       <c r="B456" s="10"/>
       <c r="C456" s="10"/>
-      <c r="D456" s="317"/>
+      <c r="D456" s="318"/>
       <c r="E456" s="207" t="s">
         <v>113</v>
       </c>
@@ -27391,7 +27421,7 @@
       <c r="C457" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="D457" s="317"/>
+      <c r="D457" s="318"/>
       <c r="E457" s="207" t="s">
         <v>113</v>
       </c>
@@ -27409,7 +27439,7 @@
       <c r="C458" s="103">
         <v>2147483648</v>
       </c>
-      <c r="D458" s="317"/>
+      <c r="D458" s="318"/>
       <c r="E458" s="207" t="s">
         <v>113</v>
       </c>
@@ -27427,7 +27457,7 @@
       <c r="C459" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D459" s="317"/>
+      <c r="D459" s="318"/>
       <c r="E459" s="207" t="s">
         <v>113</v>
       </c>
@@ -27445,7 +27475,7 @@
       <c r="C460" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D460" s="317"/>
+      <c r="D460" s="318"/>
       <c r="E460" s="207" t="s">
         <v>113</v>
       </c>
@@ -27463,7 +27493,7 @@
       <c r="C461" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D461" s="317"/>
+      <c r="D461" s="318"/>
       <c r="E461" s="207" t="s">
         <v>113</v>
       </c>
@@ -27481,7 +27511,7 @@
       <c r="C462" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D462" s="317"/>
+      <c r="D462" s="318"/>
       <c r="E462" s="207" t="s">
         <v>113</v>
       </c>
@@ -27499,7 +27529,7 @@
       <c r="C463" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D463" s="317"/>
+      <c r="D463" s="318"/>
       <c r="E463" s="207" t="s">
         <v>113</v>
       </c>
@@ -27515,7 +27545,7 @@
       </c>
       <c r="B464" s="10"/>
       <c r="C464" s="10"/>
-      <c r="D464" s="317"/>
+      <c r="D464" s="318"/>
       <c r="E464" s="207" t="s">
         <v>113</v>
       </c>
@@ -27533,7 +27563,7 @@
       <c r="C465" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="D465" s="317"/>
+      <c r="D465" s="318"/>
       <c r="E465" s="207" t="s">
         <v>113</v>
       </c>
@@ -28195,7 +28225,7 @@
       </c>
       <c r="B508" s="11"/>
       <c r="C508" s="14"/>
-      <c r="D508" s="318" t="s">
+      <c r="D508" s="319" t="s">
         <v>37</v>
       </c>
       <c r="E508" s="181" t="s">
@@ -28213,7 +28243,7 @@
       </c>
       <c r="B509" s="58"/>
       <c r="C509" s="32"/>
-      <c r="D509" s="319"/>
+      <c r="D509" s="320"/>
       <c r="E509" s="181" t="s">
         <v>103</v>
       </c>
@@ -28229,7 +28259,7 @@
       </c>
       <c r="B510" s="58"/>
       <c r="C510" s="32"/>
-      <c r="D510" s="319"/>
+      <c r="D510" s="320"/>
       <c r="E510" s="181" t="s">
         <v>103</v>
       </c>
@@ -28245,7 +28275,7 @@
       </c>
       <c r="B511" s="31"/>
       <c r="C511" s="32"/>
-      <c r="D511" s="319"/>
+      <c r="D511" s="320"/>
       <c r="E511" s="181" t="s">
         <v>103</v>
       </c>
@@ -28261,7 +28291,7 @@
       </c>
       <c r="B512" s="31"/>
       <c r="C512" s="32"/>
-      <c r="D512" s="320"/>
+      <c r="D512" s="321"/>
       <c r="E512" s="181" t="s">
         <v>103</v>
       </c>
@@ -28665,7 +28695,7 @@
       <c r="A539" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="B539" s="331"/>
+      <c r="B539" s="311"/>
       <c r="C539" s="188"/>
       <c r="D539" s="195"/>
       <c r="E539" s="194"/>
@@ -28721,7 +28751,7 @@
     </row>
     <row r="544" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A544" s="10" t="s">
-        <v>71</v>
+        <v>323</v>
       </c>
       <c r="B544" s="139"/>
       <c r="C544" s="183"/>
@@ -28733,10 +28763,12 @@
     </row>
     <row r="545" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A545" s="107" t="s">
-        <v>47</v>
+        <v>325</v>
       </c>
       <c r="B545" s="139"/>
-      <c r="C545" s="108"/>
+      <c r="C545" s="108" t="s">
+        <v>324</v>
+      </c>
       <c r="D545" s="219"/>
       <c r="E545" s="49"/>
       <c r="F545" s="50"/>
@@ -28745,7 +28777,7 @@
     </row>
     <row r="546" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A546" s="10" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B546" s="139"/>
       <c r="C546" s="103">
@@ -28759,7 +28791,7 @@
     </row>
     <row r="547" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A547" s="10" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B547" s="139"/>
       <c r="C547" s="103"/>
@@ -28770,9 +28802,13 @@
       <c r="H547" s="50"/>
     </row>
     <row r="548" spans="1:8" s="22" customFormat="1" outlineLevel="1">
-      <c r="A548" s="10"/>
+      <c r="A548" s="10" t="s">
+        <v>328</v>
+      </c>
       <c r="B548" s="139"/>
-      <c r="C548" s="10"/>
+      <c r="C548" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="D548" s="220"/>
       <c r="E548" s="49"/>
       <c r="F548" s="50"/>
@@ -28781,11 +28817,11 @@
     </row>
     <row r="549" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A549" s="10" t="s">
-        <v>17</v>
+        <v>327</v>
       </c>
       <c r="B549" s="139"/>
       <c r="C549" s="10" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D549" s="220"/>
       <c r="E549" s="49"/>
@@ -28795,12 +28831,10 @@
     </row>
     <row r="550" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A550" s="10" t="s">
-        <v>31</v>
+        <v>326</v>
       </c>
       <c r="B550" s="139"/>
-      <c r="C550" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="C550" s="10"/>
       <c r="D550" s="220"/>
       <c r="E550" s="49"/>
       <c r="F550" s="50"/>
@@ -28808,36 +28842,40 @@
       <c r="H550" s="50"/>
     </row>
     <row r="551" spans="1:8" s="22" customFormat="1" outlineLevel="1">
-      <c r="A551" s="10"/>
+      <c r="A551" s="10" t="s">
+        <v>331</v>
+      </c>
       <c r="B551" s="139"/>
-      <c r="C551" s="10"/>
-      <c r="D551" s="220"/>
+      <c r="C551" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="D551" s="221"/>
       <c r="E551" s="49"/>
       <c r="F551" s="50"/>
       <c r="G551" s="50"/>
       <c r="H551" s="50"/>
     </row>
     <row r="552" spans="1:8" s="22" customFormat="1" outlineLevel="1">
-      <c r="A552" s="10" t="s">
-        <v>21</v>
+      <c r="A552" s="110" t="s">
+        <v>332</v>
       </c>
       <c r="B552" s="139"/>
-      <c r="C552" s="106" t="s">
-        <v>45</v>
-      </c>
-      <c r="D552" s="221"/>
+      <c r="C552" s="112" t="s">
+        <v>59</v>
+      </c>
+      <c r="D552" s="14"/>
       <c r="E552" s="49"/>
       <c r="F552" s="50"/>
       <c r="G552" s="50"/>
       <c r="H552" s="50"/>
     </row>
     <row r="553" spans="1:8" s="22" customFormat="1" outlineLevel="1">
-      <c r="A553" s="110" t="s">
-        <v>58</v>
+      <c r="A553" s="30" t="s">
+        <v>334</v>
       </c>
       <c r="B553" s="139"/>
-      <c r="C553" s="112" t="s">
-        <v>59</v>
+      <c r="C553" s="10">
+        <v>-100</v>
       </c>
       <c r="D553" s="14"/>
       <c r="E553" s="49"/>
@@ -28845,13 +28883,13 @@
       <c r="G553" s="50"/>
       <c r="H553" s="50"/>
     </row>
-    <row r="554" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="554" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
       <c r="A554" s="30" t="s">
-        <v>12</v>
+        <v>333</v>
       </c>
       <c r="B554" s="139"/>
-      <c r="C554" s="10">
-        <v>-100</v>
+      <c r="C554" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="D554" s="14"/>
       <c r="E554" s="49"/>
@@ -28859,29 +28897,15 @@
       <c r="G554" s="50"/>
       <c r="H554" s="50"/>
     </row>
-    <row r="555" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
-      <c r="A555" s="30" t="s">
-        <v>27</v>
-      </c>
+    <row r="555" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A555" s="30"/>
       <c r="B555" s="139"/>
-      <c r="C555" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="C555" s="182"/>
       <c r="D555" s="14"/>
       <c r="E555" s="49"/>
       <c r="F555" s="50"/>
       <c r="G555" s="50"/>
       <c r="H555" s="50"/>
-    </row>
-    <row r="556" spans="1:8" s="22" customFormat="1" outlineLevel="1">
-      <c r="A556" s="30"/>
-      <c r="B556" s="139"/>
-      <c r="C556" s="182"/>
-      <c r="D556" s="14"/>
-      <c r="E556" s="49"/>
-      <c r="F556" s="50"/>
-      <c r="G556" s="50"/>
-      <c r="H556" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -28911,7 +28935,7 @@
     <hyperlink ref="C306" r:id="rId14"/>
     <hyperlink ref="C321" r:id="rId15"/>
     <hyperlink ref="C228" r:id="rId16"/>
-    <hyperlink ref="C552" r:id="rId17"/>
+    <hyperlink ref="C551" r:id="rId17"/>
     <hyperlink ref="C283" r:id="rId18"/>
     <hyperlink ref="C174" r:id="rId19"/>
     <hyperlink ref="C19" r:id="rId20"/>
@@ -28985,10 +29009,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="286" customFormat="1" ht="27" customHeight="1">
-      <c r="A10" s="323" t="s">
+      <c r="A10" s="324" t="s">
         <v>304</v>
       </c>
-      <c r="B10" s="326"/>
+      <c r="B10" s="327"/>
       <c r="C10" s="302" t="s">
         <v>293</v>
       </c>
@@ -28998,8 +29022,8 @@
       <c r="E10" s="287"/>
     </row>
     <row r="11" spans="1:8" s="286" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A11" s="324"/>
-      <c r="B11" s="327"/>
+      <c r="A11" s="325"/>
+      <c r="B11" s="328"/>
       <c r="C11" s="291" t="s">
         <v>294</v>
       </c>
@@ -29009,8 +29033,8 @@
       <c r="E11" s="287"/>
     </row>
     <row r="12" spans="1:8" s="286" customFormat="1" ht="62.4" customHeight="1" thickBot="1">
-      <c r="A12" s="325"/>
-      <c r="B12" s="328"/>
+      <c r="A12" s="326"/>
+      <c r="B12" s="329"/>
       <c r="C12" s="291" t="s">
         <v>296</v>
       </c>
@@ -29182,10 +29206,10 @@
       <c r="B5" s="173"/>
     </row>
     <row r="7" spans="1:2" ht="15.6">
-      <c r="A7" s="329" t="s">
+      <c r="A7" s="330" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="330"/>
+      <c r="B7" s="331"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="174" t="s">

--- a/чек-лист.xlsx
+++ b/чек-лист.xlsx
@@ -809,7 +809,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="337">
   <si>
     <t>Название тестового сценария</t>
   </si>
@@ -1659,15 +1659,6 @@
     <t>Запрос существующей записи</t>
   </si>
   <si>
-    <t>type= 0
-Необязательные поля пустые
-unifiedСlassifier, drawingDenotation, height, width, length, dimensionsUnit, weight, weightUnit, guid</t>
-  </si>
-  <si>
-    <t>type= 2
-unifiedСlassifier, drawingDenotation, height, width, length,  dimensionsUnit, weight, weightUnit, guid</t>
-  </si>
-  <si>
     <t>type= 3
 Необязательные поля пустые:
 dateOutputArchive</t>
@@ -1693,11 +1684,6 @@
   </si>
   <si>
     <t>Отправка  с невалидными типом данных</t>
-  </si>
-  <si>
-    <t>type= 1
-Необязательные поля пустые
-unifiedСlassifier, drawingDenotation, height, width, length, dimensionsUnit, weight, weightUnit, guid</t>
   </si>
   <si>
     <t>Int -&gt;  String
@@ -1972,6 +1958,26 @@
   </si>
   <si>
     <t>Type = "units" ,                Step = -100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIN - 1  </t>
+  </si>
+  <si>
+    <t>MIN-1  (1 элементов )</t>
+  </si>
+  <si>
+    <t>type= 0
+Необязательные поля пустые
+unifiedСlassifier, drawingDenotation, supplier, height, width, length, dimensionsUnit, weight, weightUnit, guid</t>
+  </si>
+  <si>
+    <t>type= 1
+Необязательные поля пустые
+unifiedСlassifier, drawingDenotation, supplier, height, width, length, dimensionsUnit, weight, weightUnit, guid</t>
+  </si>
+  <si>
+    <t>type= 2
+unifiedСlassifier, drawingDenotation, supplier, height, width, length,  dimensionsUnit, weight, weightUnit, guid</t>
   </si>
 </sst>
 </file>
@@ -2622,7 +2628,7 @@
     <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="332">
+  <cellXfs count="331">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3574,10 +3580,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3911,8 +3913,8 @@
   </sheetPr>
   <dimension ref="A1:XFD555"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A507" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D538" sqref="D538"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -3971,12 +3973,12 @@
       <c r="E3" s="54"/>
       <c r="F3" s="55"/>
     </row>
-    <row r="4" spans="1:10" s="61" customFormat="1" ht="28.8">
+    <row r="4" spans="1:10" s="61" customFormat="1" ht="28.8" collapsed="1">
       <c r="A4" s="149" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="60" customFormat="1" outlineLevel="1">
+    <row r="5" spans="1:10" s="60" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A5" s="243" t="s">
         <v>247</v>
       </c>
@@ -3988,7 +3990,7 @@
       <c r="G5" s="59"/>
       <c r="H5" s="34"/>
     </row>
-    <row r="6" spans="1:10" s="60" customFormat="1" outlineLevel="1">
+    <row r="6" spans="1:10" s="60" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A6" s="243" t="s">
         <v>248</v>
       </c>
@@ -4000,7 +4002,7 @@
       <c r="G6" s="59"/>
       <c r="H6" s="34"/>
     </row>
-    <row r="7" spans="1:10" s="60" customFormat="1" outlineLevel="1">
+    <row r="7" spans="1:10" s="60" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A7" s="243" t="s">
         <v>249</v>
       </c>
@@ -4012,7 +4014,7 @@
       <c r="G7" s="59"/>
       <c r="H7" s="34"/>
     </row>
-    <row r="8" spans="1:10" s="60" customFormat="1" outlineLevel="1">
+    <row r="8" spans="1:10" s="60" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A8" s="243" t="s">
         <v>250</v>
       </c>
@@ -4024,13 +4026,13 @@
       <c r="G8" s="59"/>
       <c r="H8" s="34"/>
     </row>
-    <row r="9" spans="1:10" s="60" customFormat="1" outlineLevel="1">
+    <row r="9" spans="1:10" s="60" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A9" s="243" t="s">
         <v>251</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D9" s="151"/>
       <c r="E9" s="181" t="s">
@@ -4040,7 +4042,7 @@
       <c r="G9" s="59"/>
       <c r="H9" s="34"/>
     </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" outlineLevel="1">
+    <row r="10" spans="1:10" s="13" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A10" s="23" t="s">
         <v>65</v>
       </c>
@@ -4054,9 +4056,9 @@
       <c r="G10" s="18"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:10" s="156" customFormat="1" ht="26.4" outlineLevel="1">
+    <row r="11" spans="1:10" s="156" customFormat="1" ht="26.4" hidden="1" outlineLevel="1">
       <c r="A11" s="152" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B11" s="260"/>
       <c r="C11" s="261"/>
@@ -4066,7 +4068,7 @@
       <c r="G11" s="155"/>
       <c r="H11" s="100"/>
     </row>
-    <row r="12" spans="1:10" s="13" customFormat="1" outlineLevel="1">
+    <row r="12" spans="1:10" s="13" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A12" s="206" t="s">
         <v>66</v>
       </c>
@@ -4082,7 +4084,7 @@
       <c r="G12" s="18"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:10" s="57" customFormat="1" outlineLevel="1">
+    <row r="13" spans="1:10" s="57" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A13" s="206" t="s">
         <v>144</v>
       </c>
@@ -4098,7 +4100,7 @@
       <c r="G13" s="18"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:10" s="22" customFormat="1" outlineLevel="1">
+    <row r="14" spans="1:10" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A14" s="206" t="s">
         <v>145</v>
       </c>
@@ -4114,7 +4116,7 @@
       <c r="G14" s="50"/>
       <c r="H14" s="50"/>
     </row>
-    <row r="15" spans="1:10" s="22" customFormat="1" outlineLevel="1">
+    <row r="15" spans="1:10" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A15" s="206" t="s">
         <v>24</v>
       </c>
@@ -4130,7 +4132,7 @@
       <c r="G15" s="50"/>
       <c r="H15" s="50"/>
     </row>
-    <row r="16" spans="1:10" s="22" customFormat="1" outlineLevel="1">
+    <row r="16" spans="1:10" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A16" s="206" t="s">
         <v>40</v>
       </c>
@@ -4146,7 +4148,7 @@
       <c r="G16" s="50"/>
       <c r="H16" s="50"/>
     </row>
-    <row r="17" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="17" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A17" s="206" t="s">
         <v>51</v>
       </c>
@@ -4162,7 +4164,7 @@
       <c r="G17" s="50"/>
       <c r="H17" s="50"/>
     </row>
-    <row r="18" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="18" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A18" s="206" t="s">
         <v>146</v>
       </c>
@@ -4178,7 +4180,7 @@
       <c r="G18" s="50"/>
       <c r="H18" s="50"/>
     </row>
-    <row r="19" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="19" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A19" s="206" t="s">
         <v>56</v>
       </c>
@@ -4196,7 +4198,7 @@
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
     </row>
-    <row r="20" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="20" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A20" s="110" t="s">
         <v>58</v>
       </c>
@@ -4214,7 +4216,7 @@
       <c r="G20" s="50"/>
       <c r="H20" s="50"/>
     </row>
-    <row r="21" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="21" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A21" s="206" t="s">
         <v>12</v>
       </c>
@@ -4232,9 +4234,9 @@
       <c r="G21" s="50"/>
       <c r="H21" s="50"/>
     </row>
-    <row r="22" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="22" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A22" s="310" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B22" s="139"/>
       <c r="C22" s="10"/>
@@ -4248,9 +4250,9 @@
       <c r="G22" s="50"/>
       <c r="H22" s="50"/>
     </row>
-    <row r="23" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="23" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A23" s="310" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B23" s="139"/>
       <c r="C23" s="10"/>
@@ -4264,7 +4266,7 @@
       <c r="G23" s="50"/>
       <c r="H23" s="50"/>
     </row>
-    <row r="24" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="24" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A24" s="206" t="s">
         <v>27</v>
       </c>
@@ -4282,7 +4284,7 @@
       <c r="G24" s="50"/>
       <c r="H24" s="50"/>
     </row>
-    <row r="25" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="25" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A25" s="206" t="s">
         <v>17</v>
       </c>
@@ -4684,7 +4686,7 @@
       <c r="G53" s="55"/>
       <c r="H53" s="55"/>
     </row>
-    <row r="54" spans="1:8" s="141" customFormat="1" ht="43.2" collapsed="1">
+    <row r="54" spans="1:8" s="141" customFormat="1" ht="43.2">
       <c r="A54" s="142" t="s">
         <v>216</v>
       </c>
@@ -4695,7 +4697,7 @@
       <c r="F54" s="145"/>
       <c r="H54" s="146"/>
     </row>
-    <row r="55" spans="1:8" s="254" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="55" spans="1:8" s="254" customFormat="1" outlineLevel="1">
       <c r="A55" s="107" t="s">
         <v>253</v>
       </c>
@@ -4704,12 +4706,14 @@
       </c>
       <c r="C55" s="107"/>
       <c r="D55" s="110"/>
-      <c r="E55" s="180"/>
-      <c r="F55" s="232"/>
+      <c r="E55" s="181"/>
+      <c r="F55" s="202" t="s">
+        <v>105</v>
+      </c>
       <c r="G55" s="253"/>
       <c r="H55" s="233"/>
     </row>
-    <row r="56" spans="1:8" s="254" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="56" spans="1:8" s="254" customFormat="1" outlineLevel="1">
       <c r="A56" s="107" t="s">
         <v>258</v>
       </c>
@@ -4719,11 +4723,13 @@
       <c r="C56" s="263"/>
       <c r="D56" s="110"/>
       <c r="E56" s="180"/>
-      <c r="F56" s="232"/>
+      <c r="F56" s="205" t="s">
+        <v>105</v>
+      </c>
       <c r="G56" s="253"/>
       <c r="H56" s="233"/>
     </row>
-    <row r="57" spans="1:8" s="254" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="57" spans="1:8" s="254" customFormat="1" outlineLevel="1">
       <c r="A57" s="107" t="s">
         <v>259</v>
       </c>
@@ -4733,11 +4739,13 @@
       <c r="C57" s="263"/>
       <c r="D57" s="110"/>
       <c r="E57" s="180"/>
-      <c r="F57" s="232"/>
+      <c r="F57" s="205" t="s">
+        <v>105</v>
+      </c>
       <c r="G57" s="253"/>
       <c r="H57" s="233"/>
     </row>
-    <row r="58" spans="1:8" s="254" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="58" spans="1:8" s="254" customFormat="1" outlineLevel="1">
       <c r="A58" s="107" t="s">
         <v>260</v>
       </c>
@@ -4747,13 +4755,15 @@
       <c r="C58" s="263"/>
       <c r="D58" s="110"/>
       <c r="E58" s="180"/>
-      <c r="F58" s="232"/>
+      <c r="F58" s="205" t="s">
+        <v>105</v>
+      </c>
       <c r="G58" s="253"/>
       <c r="H58" s="233"/>
     </row>
-    <row r="59" spans="1:8" s="254" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="59" spans="1:8" s="254" customFormat="1" outlineLevel="1">
       <c r="A59" s="265" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B59" s="264"/>
       <c r="C59" s="263"/>
@@ -4763,7 +4773,7 @@
       <c r="G59" s="253"/>
       <c r="H59" s="233"/>
     </row>
-    <row r="60" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="60" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A60" s="107" t="s">
         <v>253</v>
       </c>
@@ -4777,7 +4787,7 @@
       <c r="G60" s="22"/>
       <c r="H60" s="19"/>
     </row>
-    <row r="61" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="61" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A61" s="107" t="s">
         <v>258</v>
       </c>
@@ -4791,7 +4801,7 @@
       <c r="G61" s="22"/>
       <c r="H61" s="19"/>
     </row>
-    <row r="62" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="62" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A62" s="107" t="s">
         <v>259</v>
       </c>
@@ -4805,7 +4815,7 @@
       <c r="G62" s="22"/>
       <c r="H62" s="19"/>
     </row>
-    <row r="63" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="63" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A63" s="107" t="s">
         <v>260</v>
       </c>
@@ -4819,9 +4829,9 @@
       <c r="G63" s="22"/>
       <c r="H63" s="19"/>
     </row>
-    <row r="64" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="64" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A64" s="265" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B64" s="267"/>
       <c r="C64" s="257"/>
@@ -4831,7 +4841,7 @@
       <c r="G64" s="22"/>
       <c r="H64" s="19"/>
     </row>
-    <row r="65" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="65" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A65" s="107" t="s">
         <v>253</v>
       </c>
@@ -4845,7 +4855,7 @@
       <c r="G65" s="22"/>
       <c r="H65" s="19"/>
     </row>
-    <row r="66" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="66" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A66" s="107" t="s">
         <v>258</v>
       </c>
@@ -4855,11 +4865,13 @@
       <c r="C66" s="257"/>
       <c r="D66" s="14"/>
       <c r="E66" s="180"/>
-      <c r="F66" s="17"/>
+      <c r="F66" s="205" t="s">
+        <v>105</v>
+      </c>
       <c r="G66" s="22"/>
       <c r="H66" s="19"/>
     </row>
-    <row r="67" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="67" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A67" s="107" t="s">
         <v>259</v>
       </c>
@@ -4869,11 +4881,13 @@
       <c r="C67" s="257"/>
       <c r="D67" s="14"/>
       <c r="E67" s="180"/>
-      <c r="F67" s="17"/>
+      <c r="F67" s="205" t="s">
+        <v>105</v>
+      </c>
       <c r="G67" s="22"/>
       <c r="H67" s="19"/>
     </row>
-    <row r="68" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="68" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A68" s="107" t="s">
         <v>260</v>
       </c>
@@ -4883,11 +4897,13 @@
       <c r="C68" s="257"/>
       <c r="D68" s="14"/>
       <c r="E68" s="180"/>
-      <c r="F68" s="17"/>
+      <c r="F68" s="205" t="s">
+        <v>105</v>
+      </c>
       <c r="G68" s="22"/>
       <c r="H68" s="19"/>
     </row>
-    <row r="69" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="69" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A69" s="265" t="s">
         <v>243</v>
       </c>
@@ -4899,73 +4915,83 @@
       <c r="G69" s="22"/>
       <c r="H69" s="19"/>
     </row>
-    <row r="70" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="70" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A70" s="312" t="s">
         <v>261</v>
       </c>
-      <c r="B70" s="322" t="s">
-        <v>262</v>
+      <c r="B70" s="321" t="s">
+        <v>334</v>
       </c>
       <c r="C70" s="210"/>
       <c r="D70" s="14"/>
       <c r="E70" s="314"/>
-      <c r="F70" s="316"/>
+      <c r="F70" s="205" t="s">
+        <v>105</v>
+      </c>
       <c r="G70" s="22"/>
       <c r="H70" s="19"/>
     </row>
-    <row r="71" spans="1:8" s="15" customFormat="1" ht="42.6" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="71" spans="1:8" s="15" customFormat="1" ht="74.400000000000006" customHeight="1" outlineLevel="1">
       <c r="A71" s="313"/>
-      <c r="B71" s="323"/>
+      <c r="B71" s="322"/>
       <c r="C71" s="210"/>
       <c r="D71" s="14"/>
       <c r="E71" s="315"/>
-      <c r="F71" s="315"/>
+      <c r="F71" s="205" t="s">
+        <v>105</v>
+      </c>
       <c r="G71" s="22"/>
       <c r="H71" s="19"/>
     </row>
-    <row r="72" spans="1:8" s="15" customFormat="1" ht="57.6" hidden="1" outlineLevel="1">
+    <row r="72" spans="1:8" s="15" customFormat="1" ht="57.6" outlineLevel="1">
       <c r="A72" s="107" t="s">
         <v>258</v>
       </c>
       <c r="B72" s="264" t="s">
-        <v>272</v>
+        <v>335</v>
       </c>
       <c r="C72" s="257"/>
       <c r="D72" s="14"/>
       <c r="E72" s="256"/>
-      <c r="F72" s="256"/>
+      <c r="F72" s="205" t="s">
+        <v>105</v>
+      </c>
       <c r="G72" s="22"/>
       <c r="H72" s="19"/>
     </row>
-    <row r="73" spans="1:8" s="15" customFormat="1" ht="43.2" hidden="1" outlineLevel="1">
+    <row r="73" spans="1:8" s="15" customFormat="1" ht="60.6" customHeight="1" outlineLevel="1">
       <c r="A73" s="107" t="s">
         <v>259</v>
       </c>
       <c r="B73" s="264" t="s">
-        <v>263</v>
+        <v>336</v>
       </c>
       <c r="C73" s="257"/>
       <c r="D73" s="14"/>
       <c r="E73" s="256"/>
-      <c r="F73" s="256"/>
+      <c r="F73" s="205" t="s">
+        <v>105</v>
+      </c>
       <c r="G73" s="22"/>
       <c r="H73" s="19"/>
     </row>
-    <row r="74" spans="1:8" s="15" customFormat="1" ht="43.2" hidden="1" outlineLevel="1">
+    <row r="74" spans="1:8" s="15" customFormat="1" ht="43.2" outlineLevel="1">
       <c r="A74" s="107" t="s">
         <v>260</v>
       </c>
       <c r="B74" s="264" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C74" s="257"/>
       <c r="D74" s="14"/>
       <c r="E74" s="256"/>
-      <c r="F74" s="256"/>
+      <c r="F74" s="202" t="s">
+        <v>105</v>
+      </c>
       <c r="G74" s="22"/>
       <c r="H74" s="19"/>
     </row>
-    <row r="75" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="75" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A75" s="266"/>
       <c r="B75" s="264"/>
       <c r="C75" s="257"/>
@@ -4975,7 +5001,7 @@
       <c r="G75" s="22"/>
       <c r="H75" s="19"/>
     </row>
-    <row r="76" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="76" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A76" s="266"/>
       <c r="B76" s="264"/>
       <c r="C76" s="257"/>
@@ -4985,7 +5011,7 @@
       <c r="G76" s="22"/>
       <c r="H76" s="19"/>
     </row>
-    <row r="77" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="77" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A77" s="266"/>
       <c r="B77" s="264"/>
       <c r="C77" s="257"/>
@@ -4995,7 +5021,7 @@
       <c r="G77" s="22"/>
       <c r="H77" s="19"/>
     </row>
-    <row r="78" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="78" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A78" s="255"/>
       <c r="B78" s="258"/>
       <c r="C78" s="257"/>
@@ -5005,7 +5031,7 @@
       <c r="G78" s="22"/>
       <c r="H78" s="19"/>
     </row>
-    <row r="79" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="79" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A79" s="255"/>
       <c r="B79" s="258"/>
       <c r="C79" s="257"/>
@@ -5015,7 +5041,7 @@
       <c r="G79" s="22"/>
       <c r="H79" s="19"/>
     </row>
-    <row r="80" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="80" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A80" s="255"/>
       <c r="B80" s="258"/>
       <c r="C80" s="257"/>
@@ -5025,9 +5051,9 @@
       <c r="G80" s="22"/>
       <c r="H80" s="19"/>
     </row>
-    <row r="81" spans="1:8" s="160" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="81" spans="1:8" s="160" customFormat="1" outlineLevel="1">
       <c r="A81" s="270" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B81" s="157"/>
       <c r="C81" s="157"/>
@@ -5036,7 +5062,7 @@
       <c r="F81" s="159"/>
       <c r="H81" s="161"/>
     </row>
-    <row r="82" spans="1:8" s="15" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
+    <row r="82" spans="1:8" s="15" customFormat="1" ht="28.8" outlineLevel="1">
       <c r="A82" s="268" t="s">
         <v>244</v>
       </c>
@@ -5050,7 +5076,7 @@
       <c r="G82" s="22"/>
       <c r="H82" s="19"/>
     </row>
-    <row r="83" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="83" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A83" s="107" t="s">
         <v>253</v>
       </c>
@@ -5066,7 +5092,7 @@
       <c r="G83" s="22"/>
       <c r="H83" s="19"/>
     </row>
-    <row r="84" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="84" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A84" s="107" t="s">
         <v>258</v>
       </c>
@@ -5080,7 +5106,7 @@
       <c r="G84" s="22"/>
       <c r="H84" s="19"/>
     </row>
-    <row r="85" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="85" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A85" s="107" t="s">
         <v>259</v>
       </c>
@@ -5094,7 +5120,7 @@
       <c r="G85" s="22"/>
       <c r="H85" s="19"/>
     </row>
-    <row r="86" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="86" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A86" s="107" t="s">
         <v>260</v>
       </c>
@@ -5108,9 +5134,9 @@
       <c r="G86" s="22"/>
       <c r="H86" s="19"/>
     </row>
-    <row r="87" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="87" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A87" s="265" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B87" s="26"/>
       <c r="C87" s="14"/>
@@ -5120,7 +5146,7 @@
       <c r="G87" s="22"/>
       <c r="H87" s="19"/>
     </row>
-    <row r="88" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="88" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A88" s="107" t="s">
         <v>253</v>
       </c>
@@ -5134,7 +5160,7 @@
       <c r="G88" s="22"/>
       <c r="H88" s="19"/>
     </row>
-    <row r="89" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="89" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A89" s="107" t="s">
         <v>258</v>
       </c>
@@ -5148,7 +5174,7 @@
       <c r="G89" s="22"/>
       <c r="H89" s="19"/>
     </row>
-    <row r="90" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="90" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A90" s="107" t="s">
         <v>259</v>
       </c>
@@ -5162,7 +5188,7 @@
       <c r="G90" s="22"/>
       <c r="H90" s="19"/>
     </row>
-    <row r="91" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="91" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A91" s="107" t="s">
         <v>260</v>
       </c>
@@ -5176,9 +5202,9 @@
       <c r="G91" s="22"/>
       <c r="H91" s="19"/>
     </row>
-    <row r="92" spans="1:8" s="15" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
+    <row r="92" spans="1:8" s="15" customFormat="1" ht="28.8" outlineLevel="1">
       <c r="A92" s="268" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B92" s="139"/>
       <c r="C92" s="14"/>
@@ -5188,7 +5214,7 @@
       <c r="G92" s="22"/>
       <c r="H92" s="19"/>
     </row>
-    <row r="93" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="93" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A93" s="107" t="s">
         <v>253</v>
       </c>
@@ -5202,7 +5228,7 @@
       <c r="G93" s="22"/>
       <c r="H93" s="19"/>
     </row>
-    <row r="94" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="94" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A94" s="107" t="s">
         <v>258</v>
       </c>
@@ -5216,7 +5242,7 @@
       <c r="G94" s="22"/>
       <c r="H94" s="19"/>
     </row>
-    <row r="95" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="95" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A95" s="107" t="s">
         <v>259</v>
       </c>
@@ -5230,7 +5256,7 @@
       <c r="G95" s="22"/>
       <c r="H95" s="19"/>
     </row>
-    <row r="96" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="96" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A96" s="107" t="s">
         <v>260</v>
       </c>
@@ -5244,7 +5270,7 @@
       <c r="G96" s="22"/>
       <c r="H96" s="19"/>
     </row>
-    <row r="97" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="97" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A97" s="268" t="s">
         <v>203</v>
       </c>
@@ -5256,7 +5282,7 @@
       <c r="G97" s="22"/>
       <c r="H97" s="19"/>
     </row>
-    <row r="98" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="98" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A98" s="107" t="s">
         <v>253</v>
       </c>
@@ -5270,7 +5296,7 @@
       <c r="G98" s="22"/>
       <c r="H98" s="19"/>
     </row>
-    <row r="99" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="99" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A99" s="107" t="s">
         <v>258</v>
       </c>
@@ -5284,7 +5310,7 @@
       <c r="G99" s="22"/>
       <c r="H99" s="19"/>
     </row>
-    <row r="100" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="100" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A100" s="107" t="s">
         <v>259</v>
       </c>
@@ -5298,7 +5324,7 @@
       <c r="G100" s="22"/>
       <c r="H100" s="19"/>
     </row>
-    <row r="101" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="101" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A101" s="107" t="s">
         <v>260</v>
       </c>
@@ -5312,7 +5338,7 @@
       <c r="G101" s="22"/>
       <c r="H101" s="19"/>
     </row>
-    <row r="102" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="102" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A102" s="269" t="s">
         <v>205</v>
       </c>
@@ -5324,7 +5350,7 @@
       <c r="G102" s="22"/>
       <c r="H102" s="19"/>
     </row>
-    <row r="103" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="103" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A103" s="107" t="s">
         <v>253</v>
       </c>
@@ -5338,7 +5364,7 @@
       <c r="G103" s="22"/>
       <c r="H103" s="19"/>
     </row>
-    <row r="104" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="104" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A104" s="107" t="s">
         <v>258</v>
       </c>
@@ -5352,7 +5378,7 @@
       <c r="G104" s="22"/>
       <c r="H104" s="19"/>
     </row>
-    <row r="105" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="105" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A105" s="107" t="s">
         <v>259</v>
       </c>
@@ -5366,7 +5392,7 @@
       <c r="G105" s="22"/>
       <c r="H105" s="19"/>
     </row>
-    <row r="106" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="106" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A106" s="107" t="s">
         <v>260</v>
       </c>
@@ -5380,9 +5406,9 @@
       <c r="G106" s="22"/>
       <c r="H106" s="19"/>
     </row>
-    <row r="107" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="107" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A107" s="269" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B107" s="139"/>
       <c r="C107" s="14"/>
@@ -5392,7 +5418,7 @@
       <c r="G107" s="22"/>
       <c r="H107" s="19"/>
     </row>
-    <row r="108" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="108" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A108" s="107" t="s">
         <v>253</v>
       </c>
@@ -5406,7 +5432,7 @@
       <c r="G108" s="22"/>
       <c r="H108" s="19"/>
     </row>
-    <row r="109" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="109" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A109" s="107" t="s">
         <v>258</v>
       </c>
@@ -5420,7 +5446,7 @@
       <c r="G109" s="22"/>
       <c r="H109" s="19"/>
     </row>
-    <row r="110" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="110" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A110" s="107" t="s">
         <v>259</v>
       </c>
@@ -5434,7 +5460,7 @@
       <c r="G110" s="22"/>
       <c r="H110" s="19"/>
     </row>
-    <row r="111" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="111" spans="1:8" s="15" customFormat="1" outlineLevel="1">
       <c r="A111" s="107" t="s">
         <v>260</v>
       </c>
@@ -5448,9 +5474,9 @@
       <c r="G111" s="22"/>
       <c r="H111" s="19"/>
     </row>
-    <row r="112" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="112" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A112" s="268" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B112" s="210"/>
       <c r="C112" s="110"/>
@@ -5459,7 +5485,7 @@
       <c r="F112" s="17"/>
       <c r="H112" s="19"/>
     </row>
-    <row r="113" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
+    <row r="113" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
       <c r="A113" s="107" t="s">
         <v>246</v>
       </c>
@@ -5472,9 +5498,9 @@
       <c r="F113" s="17"/>
       <c r="H113" s="19"/>
     </row>
-    <row r="114" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="114" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A114" s="268" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B114" s="257"/>
       <c r="C114" s="110"/>
@@ -5483,9 +5509,9 @@
       <c r="F114" s="17"/>
       <c r="H114" s="19"/>
     </row>
-    <row r="115" spans="1:8" s="22" customFormat="1" ht="43.2" hidden="1" outlineLevel="1">
+    <row r="115" spans="1:8" s="22" customFormat="1" ht="43.2" outlineLevel="1">
       <c r="A115" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B115" s="113" t="s">
         <v>254</v>
@@ -5496,9 +5522,9 @@
       <c r="F115" s="17"/>
       <c r="H115" s="19"/>
     </row>
-    <row r="116" spans="1:8" s="22" customFormat="1" ht="43.2" hidden="1" outlineLevel="1">
+    <row r="116" spans="1:8" s="22" customFormat="1" ht="43.2" outlineLevel="1">
       <c r="A116" s="10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B116" s="264" t="s">
         <v>255</v>
@@ -5509,9 +5535,9 @@
       <c r="F116" s="17"/>
       <c r="H116" s="19"/>
     </row>
-    <row r="117" spans="1:8" s="22" customFormat="1" ht="43.2" hidden="1" outlineLevel="1">
+    <row r="117" spans="1:8" s="22" customFormat="1" ht="43.2" outlineLevel="1">
       <c r="A117" s="10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B117" s="264" t="s">
         <v>256</v>
@@ -5522,9 +5548,9 @@
       <c r="F117" s="17"/>
       <c r="H117" s="19"/>
     </row>
-    <row r="118" spans="1:8" s="22" customFormat="1" ht="43.2" hidden="1" outlineLevel="1">
+    <row r="118" spans="1:8" s="22" customFormat="1" ht="43.2" outlineLevel="1">
       <c r="A118" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B118" s="264" t="s">
         <v>257</v>
@@ -5535,7 +5561,7 @@
       <c r="F118" s="17"/>
       <c r="H118" s="19"/>
     </row>
-    <row r="119" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="119" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A119" s="10"/>
       <c r="B119" s="139"/>
       <c r="C119" s="14"/>
@@ -5544,7 +5570,7 @@
       <c r="F119" s="17"/>
       <c r="H119" s="19"/>
     </row>
-    <row r="120" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="120" spans="1:8" s="22" customFormat="1" ht="15" outlineLevel="1" thickBot="1">
       <c r="A120" s="107" t="s">
         <v>208</v>
       </c>
@@ -5557,7 +5583,7 @@
       <c r="F120" s="17"/>
       <c r="H120" s="19"/>
     </row>
-    <row r="121" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="121" spans="1:8" s="22" customFormat="1" ht="15" outlineLevel="1" thickBot="1">
       <c r="A121" s="235" t="s">
         <v>209</v>
       </c>
@@ -5570,7 +5596,7 @@
       <c r="F121" s="17"/>
       <c r="H121" s="19"/>
     </row>
-    <row r="122" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="122" spans="1:8" s="22" customFormat="1" ht="15" outlineLevel="1" thickBot="1">
       <c r="A122" s="107" t="s">
         <v>223</v>
       </c>
@@ -5583,7 +5609,7 @@
       <c r="F122" s="17"/>
       <c r="H122" s="19"/>
     </row>
-    <row r="123" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="123" spans="1:8" s="22" customFormat="1" ht="15" outlineLevel="1" thickBot="1">
       <c r="A123" s="235" t="s">
         <v>221</v>
       </c>
@@ -5596,7 +5622,7 @@
       <c r="F123" s="17"/>
       <c r="H123" s="19"/>
     </row>
-    <row r="124" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="124" spans="1:8" s="22" customFormat="1" ht="15" outlineLevel="1" thickBot="1">
       <c r="A124" s="235" t="s">
         <v>210</v>
       </c>
@@ -5609,7 +5635,7 @@
       <c r="F124" s="17"/>
       <c r="H124" s="19"/>
     </row>
-    <row r="125" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="125" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A125" s="10" t="s">
         <v>202</v>
       </c>
@@ -5622,7 +5648,7 @@
       <c r="F125" s="17"/>
       <c r="H125" s="19"/>
     </row>
-    <row r="126" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="126" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A126" s="10" t="s">
         <v>21</v>
       </c>
@@ -5635,7 +5661,7 @@
       <c r="F126" s="17"/>
       <c r="H126" s="19"/>
     </row>
-    <row r="127" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="127" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A127" s="107" t="s">
         <v>204</v>
       </c>
@@ -5648,7 +5674,7 @@
       <c r="F127" s="17"/>
       <c r="H127" s="19"/>
     </row>
-    <row r="128" spans="1:8" s="22" customFormat="1" ht="43.2" hidden="1" outlineLevel="1">
+    <row r="128" spans="1:8" s="22" customFormat="1" ht="43.2" outlineLevel="1">
       <c r="A128" s="107" t="s">
         <v>207</v>
       </c>
@@ -5661,7 +5687,7 @@
       <c r="F128" s="17"/>
       <c r="H128" s="19"/>
     </row>
-    <row r="129" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="129" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A129" s="30"/>
       <c r="B129" s="139"/>
       <c r="C129" s="14"/>
@@ -5670,7 +5696,7 @@
       <c r="F129" s="17"/>
       <c r="H129" s="19"/>
     </row>
-    <row r="130" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="130" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A130" s="30"/>
       <c r="B130" s="139"/>
       <c r="C130" s="14"/>
@@ -5679,7 +5705,7 @@
       <c r="F130" s="17"/>
       <c r="H130" s="19"/>
     </row>
-    <row r="131" spans="1:8" s="63" customFormat="1" ht="43.2" collapsed="1">
+    <row r="131" spans="1:8" s="63" customFormat="1" ht="43.2">
       <c r="A131" s="131" t="s">
         <v>231</v>
       </c>
@@ -5690,7 +5716,7 @@
       <c r="F131" s="67"/>
       <c r="H131" s="68"/>
     </row>
-    <row r="132" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="132" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A132" s="243" t="s">
         <v>233</v>
       </c>
@@ -5708,7 +5734,7 @@
       <c r="G132" s="24"/>
       <c r="H132" s="19"/>
     </row>
-    <row r="133" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="133" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A133" s="243" t="s">
         <v>84</v>
       </c>
@@ -5724,7 +5750,7 @@
       <c r="G133" s="24"/>
       <c r="H133" s="19"/>
     </row>
-    <row r="134" spans="1:8" s="249" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="134" spans="1:8" s="249" customFormat="1" outlineLevel="1">
       <c r="A134" s="244" t="s">
         <v>73</v>
       </c>
@@ -5735,7 +5761,7 @@
       <c r="F134" s="248"/>
       <c r="H134" s="250"/>
     </row>
-    <row r="135" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="135" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A135" s="30" t="s">
         <v>66</v>
       </c>
@@ -5751,7 +5777,7 @@
       <c r="G135" s="50"/>
       <c r="H135" s="50"/>
     </row>
-    <row r="136" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="136" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A136" s="30" t="s">
         <v>129</v>
       </c>
@@ -5767,7 +5793,7 @@
       <c r="G136" s="50"/>
       <c r="H136" s="50"/>
     </row>
-    <row r="137" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="137" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A137" s="30" t="s">
         <v>130</v>
       </c>
@@ -5783,7 +5809,7 @@
       <c r="G137" s="50"/>
       <c r="H137" s="50"/>
     </row>
-    <row r="138" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="138" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A138" s="30" t="s">
         <v>24</v>
       </c>
@@ -5799,7 +5825,7 @@
       <c r="G138" s="50"/>
       <c r="H138" s="50"/>
     </row>
-    <row r="139" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="139" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A139" s="30" t="s">
         <v>40</v>
       </c>
@@ -5817,7 +5843,7 @@
       <c r="G139" s="50"/>
       <c r="H139" s="50"/>
     </row>
-    <row r="140" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="140" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A140" s="30" t="s">
         <v>51</v>
       </c>
@@ -5835,7 +5861,7 @@
       <c r="G140" s="50"/>
       <c r="H140" s="50"/>
     </row>
-    <row r="141" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
+    <row r="141" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
       <c r="A141" s="30" t="s">
         <v>135</v>
       </c>
@@ -5853,7 +5879,7 @@
       <c r="G141" s="50"/>
       <c r="H141" s="50"/>
     </row>
-    <row r="142" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="142" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A142" s="30" t="s">
         <v>56</v>
       </c>
@@ -5871,7 +5897,7 @@
       <c r="G142" s="50"/>
       <c r="H142" s="50"/>
     </row>
-    <row r="143" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="143" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A143" s="110" t="s">
         <v>58</v>
       </c>
@@ -5889,7 +5915,7 @@
       <c r="G143" s="50"/>
       <c r="H143" s="50"/>
     </row>
-    <row r="144" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="144" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A144" s="30" t="s">
         <v>12</v>
       </c>
@@ -5907,9 +5933,9 @@
       <c r="G144" s="50"/>
       <c r="H144" s="50"/>
     </row>
-    <row r="145" spans="1:8" s="22" customFormat="1" ht="15.6" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="145" spans="1:8" s="22" customFormat="1" ht="15.6" customHeight="1" outlineLevel="1">
       <c r="A145" s="310" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B145" s="139"/>
       <c r="C145" s="10"/>
@@ -5923,9 +5949,9 @@
       <c r="G145" s="50"/>
       <c r="H145" s="50"/>
     </row>
-    <row r="146" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="146" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A146" s="310" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B146" s="139"/>
       <c r="C146" s="10"/>
@@ -5939,7 +5965,7 @@
       <c r="G146" s="50"/>
       <c r="H146" s="50"/>
     </row>
-    <row r="147" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
+    <row r="147" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
       <c r="A147" s="10" t="s">
         <v>27</v>
       </c>
@@ -5957,7 +5983,7 @@
       <c r="G147" s="50"/>
       <c r="H147" s="50"/>
     </row>
-    <row r="148" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="148" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A148" s="30" t="s">
         <v>17</v>
       </c>
@@ -6036,12 +6062,12 @@
     </row>
     <row r="153" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A153" s="30" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
       <c r="D153" s="14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E153" s="181" t="s">
         <v>103</v>
@@ -6886,7 +6912,7 @@
     </row>
     <row r="206" spans="1:8" s="22" customFormat="1" ht="15.6" hidden="1" outlineLevel="1">
       <c r="A206" s="308" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B206" s="139"/>
       <c r="C206" s="10"/>
@@ -6902,7 +6928,7 @@
     </row>
     <row r="207" spans="1:8" s="22" customFormat="1" ht="15.6" hidden="1" outlineLevel="1">
       <c r="A207" s="308" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B207" s="139"/>
       <c r="C207" s="10"/>
@@ -6946,7 +6972,7 @@
       <c r="G209" s="55"/>
       <c r="H209" s="55"/>
     </row>
-    <row r="210" spans="1:8" s="63" customFormat="1" ht="28.8" collapsed="1">
+    <row r="210" spans="1:8" s="63" customFormat="1" ht="28.8">
       <c r="A210" s="134" t="s">
         <v>77</v>
       </c>
@@ -6958,9 +6984,9 @@
       <c r="G210" s="133"/>
       <c r="H210" s="73"/>
     </row>
-    <row r="211" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="211" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A211" s="10" t="s">
-        <v>16</v>
+        <v>333</v>
       </c>
       <c r="B211" s="111"/>
       <c r="C211" s="111"/>
@@ -6974,7 +7000,7 @@
       <c r="G211" s="132"/>
       <c r="H211" s="21"/>
     </row>
-    <row r="212" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="212" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A212" s="10" t="s">
         <v>18</v>
       </c>
@@ -6990,7 +7016,7 @@
       <c r="G212" s="132"/>
       <c r="H212" s="21"/>
     </row>
-    <row r="213" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="213" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A213" s="30" t="s">
         <v>29</v>
       </c>
@@ -7006,7 +7032,7 @@
       <c r="G213" s="132"/>
       <c r="H213" s="21"/>
     </row>
-    <row r="214" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="214" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A214" s="30" t="s">
         <v>19</v>
       </c>
@@ -7022,7 +7048,7 @@
       <c r="G214" s="132"/>
       <c r="H214" s="21"/>
     </row>
-    <row r="215" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="215" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A215" s="30" t="s">
         <v>13</v>
       </c>
@@ -7038,7 +7064,7 @@
       <c r="G215" s="132"/>
       <c r="H215" s="21"/>
     </row>
-    <row r="216" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="216" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A216" s="30" t="s">
         <v>61</v>
       </c>
@@ -7056,7 +7082,7 @@
       <c r="G216" s="132"/>
       <c r="H216" s="21"/>
     </row>
-    <row r="217" spans="1:8" s="130" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="217" spans="1:8" s="130" customFormat="1" outlineLevel="1">
       <c r="A217" s="126" t="s">
         <v>78</v>
       </c>
@@ -7068,9 +7094,9 @@
       <c r="G217" s="41"/>
       <c r="H217" s="41"/>
     </row>
-    <row r="218" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+    <row r="218" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A218" s="10" t="s">
-        <v>14</v>
+        <v>332</v>
       </c>
       <c r="B218" s="139"/>
       <c r="C218" s="137"/>
@@ -7084,7 +7110,7 @@
       <c r="G218" s="50"/>
       <c r="H218" s="50"/>
     </row>
-    <row r="219" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+    <row r="219" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A219" s="10" t="s">
         <v>71</v>
       </c>
@@ -7100,17 +7126,13 @@
       <c r="G219" s="50"/>
       <c r="H219" s="50"/>
     </row>
-    <row r="220" spans="1:8" s="22" customFormat="1" ht="57.6" hidden="1" outlineLevel="2">
+    <row r="220" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A220" s="107" t="s">
         <v>47</v>
       </c>
       <c r="B220" s="139"/>
-      <c r="C220" s="108" t="s">
-        <v>48</v>
-      </c>
-      <c r="D220" s="317" t="s">
-        <v>38</v>
-      </c>
+      <c r="C220" s="108"/>
+      <c r="D220" s="208"/>
       <c r="E220" s="207" t="s">
         <v>113</v>
       </c>
@@ -7120,7 +7142,7 @@
       <c r="G220" s="50"/>
       <c r="H220" s="50"/>
     </row>
-    <row r="221" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+    <row r="221" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A221" s="10" t="s">
         <v>128</v>
       </c>
@@ -7128,7 +7150,7 @@
       <c r="C221" s="103">
         <v>2147483647</v>
       </c>
-      <c r="D221" s="318"/>
+      <c r="D221" s="209"/>
       <c r="E221" s="207" t="s">
         <v>113</v>
       </c>
@@ -7138,7 +7160,7 @@
       <c r="G221" s="50"/>
       <c r="H221" s="50"/>
     </row>
-    <row r="222" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+    <row r="222" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A222" s="10" t="s">
         <v>24</v>
       </c>
@@ -7146,7 +7168,7 @@
       <c r="C222" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D222" s="318"/>
+      <c r="D222" s="209"/>
       <c r="E222" s="207" t="s">
         <v>113</v>
       </c>
@@ -7156,7 +7178,7 @@
       <c r="G222" s="50"/>
       <c r="H222" s="50"/>
     </row>
-    <row r="223" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+    <row r="223" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A223" s="10" t="s">
         <v>22</v>
       </c>
@@ -7164,7 +7186,7 @@
       <c r="C223" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D223" s="318"/>
+      <c r="D223" s="209"/>
       <c r="E223" s="207" t="s">
         <v>113</v>
       </c>
@@ -7174,7 +7196,7 @@
       <c r="G223" s="50"/>
       <c r="H223" s="50"/>
     </row>
-    <row r="224" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+    <row r="224" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A224" s="10" t="s">
         <v>49</v>
       </c>
@@ -7182,7 +7204,7 @@
       <c r="C224" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D224" s="318"/>
+      <c r="D224" s="209"/>
       <c r="E224" s="207" t="s">
         <v>113</v>
       </c>
@@ -7192,7 +7214,7 @@
       <c r="G224" s="50"/>
       <c r="H224" s="50"/>
     </row>
-    <row r="225" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+    <row r="225" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A225" s="10" t="s">
         <v>17</v>
       </c>
@@ -7200,7 +7222,7 @@
       <c r="C225" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D225" s="318"/>
+      <c r="D225" s="209"/>
       <c r="E225" s="207" t="s">
         <v>113</v>
       </c>
@@ -7210,7 +7232,7 @@
       <c r="G225" s="50"/>
       <c r="H225" s="50"/>
     </row>
-    <row r="226" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+    <row r="226" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A226" s="10" t="s">
         <v>31</v>
       </c>
@@ -7218,7 +7240,7 @@
       <c r="C226" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D226" s="318"/>
+      <c r="D226" s="209"/>
       <c r="E226" s="207" t="s">
         <v>113</v>
       </c>
@@ -7228,13 +7250,13 @@
       <c r="G226" s="50"/>
       <c r="H226" s="50"/>
     </row>
-    <row r="227" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+    <row r="227" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A227" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B227" s="139"/>
       <c r="C227" s="10"/>
-      <c r="D227" s="318"/>
+      <c r="D227" s="209"/>
       <c r="E227" s="207" t="s">
         <v>113</v>
       </c>
@@ -7244,7 +7266,7 @@
       <c r="G227" s="50"/>
       <c r="H227" s="50"/>
     </row>
-    <row r="228" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+    <row r="228" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A228" s="10" t="s">
         <v>21</v>
       </c>
@@ -7252,7 +7274,7 @@
       <c r="C228" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="D228" s="318"/>
+      <c r="D228" s="209"/>
       <c r="E228" s="207" t="s">
         <v>113</v>
       </c>
@@ -7262,7 +7284,7 @@
       <c r="G228" s="50"/>
       <c r="H228" s="50"/>
     </row>
-    <row r="229" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+    <row r="229" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A229" s="110" t="s">
         <v>58</v>
       </c>
@@ -7280,7 +7302,7 @@
       <c r="G229" s="50"/>
       <c r="H229" s="50"/>
     </row>
-    <row r="230" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+    <row r="230" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A230" s="30" t="s">
         <v>12</v>
       </c>
@@ -7298,7 +7320,7 @@
       <c r="G230" s="50"/>
       <c r="H230" s="50"/>
     </row>
-    <row r="231" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="2">
+    <row r="231" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="2">
       <c r="A231" s="30" t="s">
         <v>27</v>
       </c>
@@ -25696,7 +25718,7 @@
       <c r="C352" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="D352" s="319"/>
+      <c r="D352" s="318"/>
       <c r="E352" s="181" t="s">
         <v>103</v>
       </c>
@@ -25712,7 +25734,7 @@
       </c>
       <c r="B353" s="25"/>
       <c r="C353" s="29"/>
-      <c r="D353" s="321"/>
+      <c r="D353" s="320"/>
       <c r="E353" s="181" t="s">
         <v>103</v>
       </c>
@@ -27004,7 +27026,7 @@
         <v>69</v>
       </c>
       <c r="C431" s="276" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D431" s="214"/>
       <c r="E431" s="174" t="s">
@@ -27387,7 +27409,7 @@
       <c r="A455" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D455" s="317" t="s">
+      <c r="D455" s="316" t="s">
         <v>38</v>
       </c>
       <c r="E455" s="207" t="s">
@@ -27403,7 +27425,7 @@
       </c>
       <c r="B456" s="10"/>
       <c r="C456" s="10"/>
-      <c r="D456" s="318"/>
+      <c r="D456" s="317"/>
       <c r="E456" s="207" t="s">
         <v>113</v>
       </c>
@@ -27421,7 +27443,7 @@
       <c r="C457" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="D457" s="318"/>
+      <c r="D457" s="317"/>
       <c r="E457" s="207" t="s">
         <v>113</v>
       </c>
@@ -27439,7 +27461,7 @@
       <c r="C458" s="103">
         <v>2147483648</v>
       </c>
-      <c r="D458" s="318"/>
+      <c r="D458" s="317"/>
       <c r="E458" s="207" t="s">
         <v>113</v>
       </c>
@@ -27457,7 +27479,7 @@
       <c r="C459" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D459" s="318"/>
+      <c r="D459" s="317"/>
       <c r="E459" s="207" t="s">
         <v>113</v>
       </c>
@@ -27475,7 +27497,7 @@
       <c r="C460" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D460" s="318"/>
+      <c r="D460" s="317"/>
       <c r="E460" s="207" t="s">
         <v>113</v>
       </c>
@@ -27493,7 +27515,7 @@
       <c r="C461" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D461" s="318"/>
+      <c r="D461" s="317"/>
       <c r="E461" s="207" t="s">
         <v>113</v>
       </c>
@@ -27511,7 +27533,7 @@
       <c r="C462" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D462" s="318"/>
+      <c r="D462" s="317"/>
       <c r="E462" s="207" t="s">
         <v>113</v>
       </c>
@@ -27529,7 +27551,7 @@
       <c r="C463" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D463" s="318"/>
+      <c r="D463" s="317"/>
       <c r="E463" s="207" t="s">
         <v>113</v>
       </c>
@@ -27545,7 +27567,7 @@
       </c>
       <c r="B464" s="10"/>
       <c r="C464" s="10"/>
-      <c r="D464" s="318"/>
+      <c r="D464" s="317"/>
       <c r="E464" s="207" t="s">
         <v>113</v>
       </c>
@@ -27563,7 +27585,7 @@
       <c r="C465" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="D465" s="318"/>
+      <c r="D465" s="317"/>
       <c r="E465" s="207" t="s">
         <v>113</v>
       </c>
@@ -28225,7 +28247,7 @@
       </c>
       <c r="B508" s="11"/>
       <c r="C508" s="14"/>
-      <c r="D508" s="319" t="s">
+      <c r="D508" s="318" t="s">
         <v>37</v>
       </c>
       <c r="E508" s="181" t="s">
@@ -28243,7 +28265,7 @@
       </c>
       <c r="B509" s="58"/>
       <c r="C509" s="32"/>
-      <c r="D509" s="320"/>
+      <c r="D509" s="319"/>
       <c r="E509" s="181" t="s">
         <v>103</v>
       </c>
@@ -28259,7 +28281,7 @@
       </c>
       <c r="B510" s="58"/>
       <c r="C510" s="32"/>
-      <c r="D510" s="320"/>
+      <c r="D510" s="319"/>
       <c r="E510" s="181" t="s">
         <v>103</v>
       </c>
@@ -28275,7 +28297,7 @@
       </c>
       <c r="B511" s="31"/>
       <c r="C511" s="32"/>
-      <c r="D511" s="320"/>
+      <c r="D511" s="319"/>
       <c r="E511" s="181" t="s">
         <v>103</v>
       </c>
@@ -28291,7 +28313,7 @@
       </c>
       <c r="B512" s="31"/>
       <c r="C512" s="32"/>
-      <c r="D512" s="321"/>
+      <c r="D512" s="320"/>
       <c r="E512" s="181" t="s">
         <v>103</v>
       </c>
@@ -28621,7 +28643,7 @@
     </row>
     <row r="533" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A533" s="107" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B533" s="10"/>
       <c r="C533" s="183"/>
@@ -28633,7 +28655,7 @@
     </row>
     <row r="534" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A534" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B534" s="257"/>
       <c r="C534" s="188"/>
@@ -28645,7 +28667,7 @@
     </row>
     <row r="535" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A535" s="10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B535" s="257"/>
       <c r="C535" s="188"/>
@@ -28657,7 +28679,7 @@
     </row>
     <row r="536" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A536" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B536" s="139"/>
       <c r="C536" s="183"/>
@@ -28669,7 +28691,7 @@
     </row>
     <row r="537" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A537" s="30" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B537" s="139"/>
       <c r="C537" s="183"/>
@@ -28681,7 +28703,7 @@
     </row>
     <row r="538" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A538" s="30" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B538" s="139"/>
       <c r="C538" s="183"/>
@@ -28693,7 +28715,7 @@
     </row>
     <row r="539" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A539" s="30" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B539" s="311"/>
       <c r="C539" s="188"/>
@@ -28705,7 +28727,7 @@
     </row>
     <row r="540" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A540" s="30" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B540" s="139"/>
       <c r="C540" s="183"/>
@@ -28727,7 +28749,7 @@
     </row>
     <row r="542" spans="1:8" s="130" customFormat="1" outlineLevel="1">
       <c r="A542" s="126" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B542" s="127"/>
       <c r="C542" s="128"/>
@@ -28739,161 +28761,209 @@
     </row>
     <row r="543" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A543" s="10" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B543" s="139"/>
       <c r="C543" s="183"/>
       <c r="D543" s="14"/>
-      <c r="E543" s="49"/>
-      <c r="F543" s="50"/>
+      <c r="E543" s="207" t="s">
+        <v>113</v>
+      </c>
+      <c r="F543" s="205" t="s">
+        <v>105</v>
+      </c>
       <c r="G543" s="50"/>
       <c r="H543" s="50"/>
     </row>
     <row r="544" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A544" s="10" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B544" s="139"/>
       <c r="C544" s="183"/>
       <c r="D544" s="14"/>
-      <c r="E544" s="49"/>
-      <c r="F544" s="50"/>
+      <c r="E544" s="207" t="s">
+        <v>113</v>
+      </c>
+      <c r="F544" s="205" t="s">
+        <v>105</v>
+      </c>
       <c r="G544" s="50"/>
       <c r="H544" s="50"/>
     </row>
     <row r="545" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A545" s="107" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B545" s="139"/>
       <c r="C545" s="108" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D545" s="219"/>
-      <c r="E545" s="49"/>
-      <c r="F545" s="50"/>
+      <c r="E545" s="207" t="s">
+        <v>113</v>
+      </c>
+      <c r="F545" s="205" t="s">
+        <v>105</v>
+      </c>
       <c r="G545" s="50"/>
       <c r="H545" s="50"/>
     </row>
     <row r="546" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A546" s="10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B546" s="139"/>
       <c r="C546" s="103">
         <v>2147483647</v>
       </c>
       <c r="D546" s="220"/>
-      <c r="E546" s="49"/>
-      <c r="F546" s="50"/>
+      <c r="E546" s="207" t="s">
+        <v>113</v>
+      </c>
+      <c r="F546" s="205" t="s">
+        <v>105</v>
+      </c>
       <c r="G546" s="50"/>
       <c r="H546" s="50"/>
     </row>
     <row r="547" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A547" s="10" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B547" s="139"/>
       <c r="C547" s="103"/>
       <c r="D547" s="309"/>
-      <c r="E547" s="49"/>
-      <c r="F547" s="50"/>
+      <c r="E547" s="207" t="s">
+        <v>113</v>
+      </c>
+      <c r="F547" s="205" t="s">
+        <v>105</v>
+      </c>
       <c r="G547" s="50"/>
       <c r="H547" s="50"/>
     </row>
     <row r="548" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A548" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B548" s="139"/>
       <c r="C548" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D548" s="220"/>
-      <c r="E548" s="49"/>
-      <c r="F548" s="50"/>
+      <c r="E548" s="207" t="s">
+        <v>113</v>
+      </c>
+      <c r="F548" s="205" t="s">
+        <v>105</v>
+      </c>
       <c r="G548" s="50"/>
       <c r="H548" s="50"/>
     </row>
     <row r="549" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A549" s="10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B549" s="139"/>
       <c r="C549" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D549" s="220"/>
-      <c r="E549" s="49"/>
-      <c r="F549" s="50"/>
+      <c r="E549" s="207" t="s">
+        <v>113</v>
+      </c>
+      <c r="F549" s="205" t="s">
+        <v>105</v>
+      </c>
       <c r="G549" s="50"/>
       <c r="H549" s="50"/>
     </row>
     <row r="550" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A550" s="10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B550" s="139"/>
       <c r="C550" s="10"/>
       <c r="D550" s="220"/>
-      <c r="E550" s="49"/>
-      <c r="F550" s="50"/>
+      <c r="E550" s="207" t="s">
+        <v>113</v>
+      </c>
+      <c r="F550" s="205" t="s">
+        <v>105</v>
+      </c>
       <c r="G550" s="50"/>
       <c r="H550" s="50"/>
     </row>
     <row r="551" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A551" s="10" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B551" s="139"/>
       <c r="C551" s="106" t="s">
         <v>45</v>
       </c>
       <c r="D551" s="221"/>
-      <c r="E551" s="49"/>
-      <c r="F551" s="50"/>
+      <c r="E551" s="207" t="s">
+        <v>113</v>
+      </c>
+      <c r="F551" s="205" t="s">
+        <v>105</v>
+      </c>
       <c r="G551" s="50"/>
       <c r="H551" s="50"/>
     </row>
     <row r="552" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A552" s="110" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B552" s="139"/>
       <c r="C552" s="112" t="s">
         <v>59</v>
       </c>
       <c r="D552" s="14"/>
-      <c r="E552" s="49"/>
-      <c r="F552" s="50"/>
+      <c r="E552" s="207" t="s">
+        <v>113</v>
+      </c>
+      <c r="F552" s="205" t="s">
+        <v>105</v>
+      </c>
       <c r="G552" s="50"/>
       <c r="H552" s="50"/>
     </row>
     <row r="553" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A553" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B553" s="139"/>
       <c r="C553" s="10">
         <v>-100</v>
       </c>
       <c r="D553" s="14"/>
-      <c r="E553" s="49"/>
-      <c r="F553" s="50"/>
+      <c r="E553" s="207" t="s">
+        <v>113</v>
+      </c>
+      <c r="F553" s="205" t="s">
+        <v>105</v>
+      </c>
       <c r="G553" s="50"/>
       <c r="H553" s="50"/>
     </row>
     <row r="554" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
       <c r="A554" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B554" s="139"/>
       <c r="C554" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D554" s="14"/>
-      <c r="E554" s="49"/>
-      <c r="F554" s="50"/>
+      <c r="E554" s="207" t="s">
+        <v>113</v>
+      </c>
+      <c r="F554" s="205" t="s">
+        <v>105</v>
+      </c>
       <c r="G554" s="50"/>
       <c r="H554" s="50"/>
     </row>
@@ -28908,11 +28978,9 @@
       <c r="H555" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="6">
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="D220:D228"/>
     <mergeCell ref="D508:D512"/>
     <mergeCell ref="D455:D465"/>
     <mergeCell ref="D352:D353"/>
@@ -28988,12 +29056,12 @@
     </row>
     <row r="3" spans="1:8" s="290" customFormat="1">
       <c r="A3" s="290" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="290" customFormat="1" ht="36.6" customHeight="1">
       <c r="A5" s="288" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B5" s="289"/>
     </row>
@@ -29005,54 +29073,54 @@
     <row r="8" spans="1:8" s="175" customFormat="1" ht="44.4" customHeight="1"/>
     <row r="9" spans="1:8" s="297" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="297" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="286" customFormat="1" ht="27" customHeight="1">
+      <c r="A10" s="323" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" s="326"/>
+      <c r="C10" s="302" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" s="299" t="s">
+        <v>289</v>
+      </c>
+      <c r="E10" s="287"/>
+    </row>
+    <row r="11" spans="1:8" s="286" customFormat="1" ht="39.6" customHeight="1">
+      <c r="A11" s="324"/>
+      <c r="B11" s="327"/>
+      <c r="C11" s="291" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" s="286" customFormat="1" ht="27" customHeight="1">
-      <c r="A10" s="324" t="s">
-        <v>304</v>
-      </c>
-      <c r="B10" s="327"/>
-      <c r="C10" s="302" t="s">
+      <c r="D11" s="299" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11" s="287"/>
+    </row>
+    <row r="12" spans="1:8" s="286" customFormat="1" ht="62.4" customHeight="1" thickBot="1">
+      <c r="A12" s="325"/>
+      <c r="B12" s="328"/>
+      <c r="C12" s="291" t="s">
         <v>293</v>
       </c>
-      <c r="D10" s="299" t="s">
+      <c r="D12" s="299" t="s">
         <v>292</v>
-      </c>
-      <c r="E10" s="287"/>
-    </row>
-    <row r="11" spans="1:8" s="286" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A11" s="325"/>
-      <c r="B11" s="328"/>
-      <c r="C11" s="291" t="s">
-        <v>294</v>
-      </c>
-      <c r="D11" s="299" t="s">
-        <v>303</v>
-      </c>
-      <c r="E11" s="287"/>
-    </row>
-    <row r="12" spans="1:8" s="286" customFormat="1" ht="62.4" customHeight="1" thickBot="1">
-      <c r="A12" s="326"/>
-      <c r="B12" s="329"/>
-      <c r="C12" s="291" t="s">
-        <v>296</v>
-      </c>
-      <c r="D12" s="299" t="s">
-        <v>295</v>
       </c>
       <c r="E12" s="287"/>
     </row>
     <row r="13" spans="1:8" s="286" customFormat="1" ht="44.4" customHeight="1" thickBot="1">
       <c r="A13" s="298" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B13" s="294"/>
       <c r="C13" s="303" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D13" s="304" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E13" s="287"/>
     </row>
@@ -29060,10 +29128,10 @@
       <c r="A14" s="292"/>
       <c r="B14" s="295"/>
       <c r="C14" s="305" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D14" s="301" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E14" s="287"/>
     </row>
@@ -29071,21 +29139,21 @@
       <c r="A15" s="293"/>
       <c r="B15" s="296"/>
       <c r="C15" s="306" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D15" s="300"/>
       <c r="E15" s="287"/>
     </row>
     <row r="16" spans="1:8" s="290" customFormat="1">
       <c r="A16" s="290" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="285" customFormat="1"/>
     <row r="18" spans="1:2" s="286" customFormat="1"/>
     <row r="19" spans="1:2" s="290" customFormat="1" ht="28.8">
       <c r="A19" s="289" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B19" s="289"/>
     </row>
@@ -29095,7 +29163,7 @@
     </row>
     <row r="21" spans="1:2" s="290" customFormat="1" ht="28.8">
       <c r="A21" s="289" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B21" s="289"/>
     </row>
@@ -29105,32 +29173,32 @@
     </row>
     <row r="23" spans="1:2" s="290" customFormat="1">
       <c r="A23" s="290" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="290" customFormat="1">
       <c r="A25" s="290" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="290" customFormat="1">
       <c r="A27" s="290" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="285" customFormat="1">
       <c r="A29" s="285" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="290" customFormat="1">
       <c r="A31" s="290" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="290" customFormat="1" ht="28.8">
       <c r="A33" s="289" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B33" s="289"/>
     </row>
@@ -29140,7 +29208,7 @@
     </row>
     <row r="35" spans="1:2" s="290" customFormat="1" ht="43.2">
       <c r="A35" s="289" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B35" s="289"/>
     </row>
@@ -29206,10 +29274,10 @@
       <c r="B5" s="173"/>
     </row>
     <row r="7" spans="1:2" ht="15.6">
-      <c r="A7" s="330" t="s">
+      <c r="A7" s="329" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="331"/>
+      <c r="B7" s="330"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="174" t="s">

--- a/чек-лист.xlsx
+++ b/чек-лист.xlsx
@@ -3430,6 +3430,12 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3483,12 +3489,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3783,8 +3783,8 @@
   </sheetPr>
   <dimension ref="A1:XFD542"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -4825,30 +4825,30 @@
       <c r="H69" s="312"/>
     </row>
     <row r="70" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A70" s="334" t="s">
+      <c r="A70" s="336" t="s">
         <v>259</v>
       </c>
-      <c r="B70" s="339" t="s">
+      <c r="B70" s="341" t="s">
         <v>329</v>
       </c>
       <c r="C70" s="209"/>
       <c r="D70" s="14"/>
-      <c r="E70" s="336" t="s">
+      <c r="E70" s="338" t="s">
         <v>103</v>
       </c>
-      <c r="F70" s="329" t="s">
+      <c r="F70" s="331" t="s">
         <v>105</v>
       </c>
       <c r="G70" s="22"/>
       <c r="H70" s="19"/>
     </row>
     <row r="71" spans="1:8" s="15" customFormat="1" ht="74.400000000000006" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A71" s="335"/>
-      <c r="B71" s="340"/>
+      <c r="A71" s="337"/>
+      <c r="B71" s="342"/>
       <c r="C71" s="209"/>
       <c r="D71" s="14"/>
-      <c r="E71" s="330"/>
-      <c r="F71" s="330"/>
+      <c r="E71" s="332"/>
+      <c r="F71" s="332"/>
       <c r="G71" s="22"/>
       <c r="H71" s="19"/>
     </row>
@@ -4925,7 +4925,7 @@
         <v>252</v>
       </c>
       <c r="C76" s="14"/>
-      <c r="D76" s="331" t="s">
+      <c r="D76" s="333" t="s">
         <v>328</v>
       </c>
       <c r="E76" s="180" t="s">
@@ -4945,7 +4945,7 @@
         <v>253</v>
       </c>
       <c r="C77" s="14"/>
-      <c r="D77" s="332"/>
+      <c r="D77" s="334"/>
       <c r="E77" s="180" t="s">
         <v>103</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>254</v>
       </c>
       <c r="C78" s="14"/>
-      <c r="D78" s="332"/>
+      <c r="D78" s="334"/>
       <c r="E78" s="180" t="s">
         <v>103</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>255</v>
       </c>
       <c r="C79" s="14"/>
-      <c r="D79" s="332"/>
+      <c r="D79" s="334"/>
       <c r="E79" s="180" t="s">
         <v>103</v>
       </c>
@@ -4995,7 +4995,7 @@
       <c r="A80" s="254"/>
       <c r="B80" s="257"/>
       <c r="C80" s="256"/>
-      <c r="D80" s="333"/>
+      <c r="D80" s="335"/>
       <c r="E80" s="255"/>
       <c r="F80" s="255"/>
       <c r="G80" s="22"/>
@@ -7057,7 +7057,7 @@
       <c r="E214" s="206" t="s">
         <v>113</v>
       </c>
-      <c r="F214" s="349" t="s">
+      <c r="F214" s="329" t="s">
         <v>105</v>
       </c>
       <c r="G214" s="50"/>
@@ -7979,7 +7979,7 @@
       <c r="E269" s="206" t="s">
         <v>113</v>
       </c>
-      <c r="F269" s="349" t="s">
+      <c r="F269" s="329" t="s">
         <v>343</v>
       </c>
       <c r="G269" s="50"/>
@@ -24977,7 +24977,7 @@
       <c r="E306" s="179" t="s">
         <v>113</v>
       </c>
-      <c r="F306" s="350" t="s">
+      <c r="F306" s="330" t="s">
         <v>105</v>
       </c>
       <c r="G306" s="50"/>
@@ -25539,7 +25539,7 @@
       <c r="C340" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="D340" s="331"/>
+      <c r="D340" s="333"/>
       <c r="E340" s="180" t="s">
         <v>103</v>
       </c>
@@ -25555,7 +25555,7 @@
       </c>
       <c r="B341" s="25"/>
       <c r="C341" s="29"/>
-      <c r="D341" s="333"/>
+      <c r="D341" s="335"/>
       <c r="E341" s="180" t="s">
         <v>103</v>
       </c>
@@ -25635,7 +25635,7 @@
       <c r="E346" s="206" t="s">
         <v>113</v>
       </c>
-      <c r="F346" s="349" t="s">
+      <c r="F346" s="329" t="s">
         <v>105</v>
       </c>
       <c r="G346" s="50"/>
@@ -26265,7 +26265,7 @@
       <c r="E384" s="206" t="s">
         <v>113</v>
       </c>
-      <c r="F384" s="349" t="s">
+      <c r="F384" s="329" t="s">
         <v>105</v>
       </c>
       <c r="G384" s="50"/>
@@ -26629,7 +26629,7 @@
       <c r="E406" s="206" t="s">
         <v>113</v>
       </c>
-      <c r="F406" s="349" t="s">
+      <c r="F406" s="329" t="s">
         <v>105</v>
       </c>
       <c r="G406" s="50"/>
@@ -27206,7 +27206,7 @@
       <c r="A442" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D442" s="337" t="s">
+      <c r="D442" s="339" t="s">
         <v>38</v>
       </c>
       <c r="E442" s="206" t="s">
@@ -27222,7 +27222,7 @@
       </c>
       <c r="B443" s="10"/>
       <c r="C443" s="10"/>
-      <c r="D443" s="338"/>
+      <c r="D443" s="340"/>
       <c r="E443" s="206" t="s">
         <v>113</v>
       </c>
@@ -27240,7 +27240,7 @@
       <c r="C444" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="D444" s="338"/>
+      <c r="D444" s="340"/>
       <c r="E444" s="206" t="s">
         <v>113</v>
       </c>
@@ -27258,7 +27258,7 @@
       <c r="C445" s="103">
         <v>2147483648</v>
       </c>
-      <c r="D445" s="338"/>
+      <c r="D445" s="340"/>
       <c r="E445" s="206" t="s">
         <v>113</v>
       </c>
@@ -27276,7 +27276,7 @@
       <c r="C446" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D446" s="338"/>
+      <c r="D446" s="340"/>
       <c r="E446" s="206" t="s">
         <v>113</v>
       </c>
@@ -27294,7 +27294,7 @@
       <c r="C447" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D447" s="338"/>
+      <c r="D447" s="340"/>
       <c r="E447" s="206" t="s">
         <v>113</v>
       </c>
@@ -27312,7 +27312,7 @@
       <c r="C448" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D448" s="338"/>
+      <c r="D448" s="340"/>
       <c r="E448" s="206" t="s">
         <v>113</v>
       </c>
@@ -27330,7 +27330,7 @@
       <c r="C449" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D449" s="338"/>
+      <c r="D449" s="340"/>
       <c r="E449" s="206" t="s">
         <v>113</v>
       </c>
@@ -27348,7 +27348,7 @@
       <c r="C450" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D450" s="338"/>
+      <c r="D450" s="340"/>
       <c r="E450" s="206" t="s">
         <v>113</v>
       </c>
@@ -27364,7 +27364,7 @@
       </c>
       <c r="B451" s="10"/>
       <c r="C451" s="10"/>
-      <c r="D451" s="338"/>
+      <c r="D451" s="340"/>
       <c r="E451" s="206" t="s">
         <v>113</v>
       </c>
@@ -27382,7 +27382,7 @@
       <c r="C452" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="D452" s="338"/>
+      <c r="D452" s="340"/>
       <c r="E452" s="206" t="s">
         <v>113</v>
       </c>
@@ -28044,7 +28044,7 @@
       </c>
       <c r="B495" s="11"/>
       <c r="C495" s="14"/>
-      <c r="D495" s="331" t="s">
+      <c r="D495" s="333" t="s">
         <v>37</v>
       </c>
       <c r="E495" s="180" t="s">
@@ -28062,7 +28062,7 @@
       </c>
       <c r="B496" s="58"/>
       <c r="C496" s="32"/>
-      <c r="D496" s="332"/>
+      <c r="D496" s="334"/>
       <c r="E496" s="180" t="s">
         <v>103</v>
       </c>
@@ -28078,7 +28078,7 @@
       </c>
       <c r="B497" s="58"/>
       <c r="C497" s="32"/>
-      <c r="D497" s="332"/>
+      <c r="D497" s="334"/>
       <c r="E497" s="180" t="s">
         <v>103</v>
       </c>
@@ -28094,7 +28094,7 @@
       </c>
       <c r="B498" s="31"/>
       <c r="C498" s="32"/>
-      <c r="D498" s="332"/>
+      <c r="D498" s="334"/>
       <c r="E498" s="180" t="s">
         <v>103</v>
       </c>
@@ -28110,7 +28110,7 @@
       </c>
       <c r="B499" s="31"/>
       <c r="C499" s="32"/>
-      <c r="D499" s="333"/>
+      <c r="D499" s="335"/>
       <c r="E499" s="180" t="s">
         <v>103</v>
       </c>
@@ -28908,10 +28908,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="280" customFormat="1" ht="27" customHeight="1">
-      <c r="A10" s="341" t="s">
+      <c r="A10" s="343" t="s">
         <v>296</v>
       </c>
-      <c r="B10" s="344"/>
+      <c r="B10" s="346"/>
       <c r="C10" s="296" t="s">
         <v>285</v>
       </c>
@@ -28921,8 +28921,8 @@
       <c r="E10" s="281"/>
     </row>
     <row r="11" spans="1:8" s="280" customFormat="1" ht="39.6" customHeight="1">
-      <c r="A11" s="342"/>
-      <c r="B11" s="345"/>
+      <c r="A11" s="344"/>
+      <c r="B11" s="347"/>
       <c r="C11" s="285" t="s">
         <v>286</v>
       </c>
@@ -28932,8 +28932,8 @@
       <c r="E11" s="281"/>
     </row>
     <row r="12" spans="1:8" s="280" customFormat="1" ht="62.4" customHeight="1" thickBot="1">
-      <c r="A12" s="343"/>
-      <c r="B12" s="346"/>
+      <c r="A12" s="345"/>
+      <c r="B12" s="348"/>
       <c r="C12" s="285" t="s">
         <v>288</v>
       </c>
@@ -29105,10 +29105,10 @@
       <c r="B5" s="172"/>
     </row>
     <row r="7" spans="1:2" ht="15.6">
-      <c r="A7" s="347" t="s">
+      <c r="A7" s="349" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="348"/>
+      <c r="B7" s="350"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="173" t="s">
